--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -1206,10 +1206,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D2">
-        <v>307915</v>
+        <v>290142</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1238,10 +1238,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D3">
-        <v>709235</v>
+        <v>697267</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>59646</v>
+        <v>56737</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1302,10 +1302,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1855</v>
+        <v>1821</v>
       </c>
       <c r="D5">
-        <v>2690167</v>
+        <v>2642815</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1334,10 +1334,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>2100</v>
+        <v>2083</v>
       </c>
       <c r="D6">
-        <v>2855679</v>
+        <v>2835262</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1366,10 +1366,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D7">
-        <v>371685</v>
+        <v>368685</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1398,10 +1398,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="D8">
-        <v>2211283</v>
+        <v>2192136</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1430,10 +1430,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D9">
-        <v>232178</v>
+        <v>222128</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1462,10 +1462,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>116357</v>
+        <v>113357</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1494,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D11">
-        <v>386182</v>
+        <v>380346</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1526,10 +1526,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="D12">
-        <v>1166617</v>
+        <v>1133466</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1558,10 +1558,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D13">
-        <v>747127</v>
+        <v>735732</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1590,10 +1590,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="D14">
-        <v>907275</v>
+        <v>891462</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1622,10 +1622,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>1323</v>
+        <v>1297</v>
       </c>
       <c r="D15">
-        <v>1746266</v>
+        <v>1714913</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1654,10 +1654,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D16">
-        <v>612170</v>
+        <v>609770</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1686,10 +1686,10 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>2143</v>
+        <v>2113</v>
       </c>
       <c r="D17">
-        <v>2585939</v>
+        <v>2562096</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1750,10 +1750,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D19">
-        <v>365088</v>
+        <v>364834</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -2102,10 +2102,10 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D30">
-        <v>344773</v>
+        <v>344536</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2134,10 +2134,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D31">
-        <v>762061</v>
+        <v>760572</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2262,10 +2262,10 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D35">
-        <v>658342</v>
+        <v>657882</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2422,10 +2422,10 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D40">
-        <v>2375604</v>
+        <v>2371868</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2582,10 +2582,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D45">
-        <v>382076</v>
+        <v>380048</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D46">
-        <v>500073</v>
+        <v>499305</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -3350,10 +3350,10 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="D69">
-        <v>3423193</v>
+        <v>3422301</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3542,10 +3542,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D75">
-        <v>1424068</v>
+        <v>1419656</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3574,10 +3574,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D76">
-        <v>648589</v>
+        <v>646928</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3606,10 +3606,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D77">
-        <v>984888</v>
+        <v>983134</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3670,10 +3670,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D79">
-        <v>793834</v>
+        <v>792634</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3702,10 +3702,10 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="D80">
-        <v>2461239</v>
+        <v>2456901</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -4182,10 +4182,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D95">
-        <v>210939</v>
+        <v>209079</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -4374,10 +4374,10 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>2924</v>
+        <v>2920</v>
       </c>
       <c r="D101">
-        <v>4015797</v>
+        <v>4013519</v>
       </c>
       <c r="E101" t="s">
         <v>12</v>
@@ -4438,10 +4438,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D103">
-        <v>3854249</v>
+        <v>3852749</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -4566,10 +4566,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D107">
-        <v>2560983</v>
+        <v>2557983</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -4630,10 +4630,10 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>3856</v>
+        <v>3848</v>
       </c>
       <c r="D109">
-        <v>5027228</v>
+        <v>5018054</v>
       </c>
       <c r="E109" t="s">
         <v>12</v>
@@ -4662,10 +4662,10 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>2627</v>
+        <v>2621</v>
       </c>
       <c r="D110">
-        <v>3580112</v>
+        <v>3573737</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -4726,10 +4726,10 @@
         <v>11</v>
       </c>
       <c r="C112">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D112">
-        <v>3590540</v>
+        <v>3590130</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
@@ -4790,10 +4790,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D114">
-        <v>1654605</v>
+        <v>1654005</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -4854,10 +4854,10 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D116">
-        <v>77319</v>
+        <v>76065</v>
       </c>
       <c r="E116" t="s">
         <v>12</v>
@@ -4886,10 +4886,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>4529</v>
+        <v>4527</v>
       </c>
       <c r="D117">
-        <v>6554156</v>
+        <v>6551156</v>
       </c>
       <c r="E117" t="s">
         <v>12</v>
@@ -4982,10 +4982,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="D120">
-        <v>5405482</v>
+        <v>5405004</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
@@ -5078,10 +5078,10 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D123">
-        <v>1352082</v>
+        <v>1346082</v>
       </c>
       <c r="E123" t="s">
         <v>12</v>
@@ -5110,10 +5110,10 @@
         <v>11</v>
       </c>
       <c r="C124">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="D124">
-        <v>3554735</v>
+        <v>3549307</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
@@ -5142,10 +5142,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D125">
-        <v>1822323</v>
+        <v>1817962</v>
       </c>
       <c r="E125" t="s">
         <v>12</v>
@@ -5174,10 +5174,10 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="D126">
-        <v>3406575</v>
+        <v>3393060</v>
       </c>
       <c r="E126" t="s">
         <v>12</v>
@@ -5206,10 +5206,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>3740</v>
+        <v>3721</v>
       </c>
       <c r="D127">
-        <v>5088808</v>
+        <v>5070903</v>
       </c>
       <c r="E127" t="s">
         <v>12</v>
@@ -5238,10 +5238,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D128">
-        <v>1701706</v>
+        <v>1701032</v>
       </c>
       <c r="E128" t="s">
         <v>12</v>
@@ -5270,10 +5270,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>4343</v>
+        <v>4333</v>
       </c>
       <c r="D129">
-        <v>5312752</v>
+        <v>5308620</v>
       </c>
       <c r="E129" t="s">
         <v>12</v>
@@ -5334,10 +5334,10 @@
         <v>11</v>
       </c>
       <c r="C131">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D131">
-        <v>974854</v>
+        <v>974534</v>
       </c>
       <c r="E131" t="s">
         <v>12</v>
@@ -5590,10 +5590,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D139">
-        <v>586309</v>
+        <v>583559</v>
       </c>
       <c r="E139" t="s">
         <v>12</v>
@@ -5718,10 +5718,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D143">
-        <v>2144927</v>
+        <v>2141927</v>
       </c>
       <c r="E143" t="s">
         <v>12</v>
@@ -5750,10 +5750,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D144">
-        <v>752803</v>
+        <v>752303</v>
       </c>
       <c r="E144" t="s">
         <v>12</v>
@@ -5782,10 +5782,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>2644</v>
+        <v>2638</v>
       </c>
       <c r="D145">
-        <v>3288929</v>
+        <v>3284711</v>
       </c>
       <c r="E145" t="s">
         <v>12</v>
@@ -6198,10 +6198,10 @@
         <v>11</v>
       </c>
       <c r="C158">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D158">
-        <v>1001807</v>
+        <v>994917</v>
       </c>
       <c r="E158" t="s">
         <v>12</v>
@@ -6230,10 +6230,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="D159">
-        <v>1870073</v>
+        <v>1862243</v>
       </c>
       <c r="E159" t="s">
         <v>12</v>
@@ -6262,10 +6262,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D160">
-        <v>711143</v>
+        <v>708477</v>
       </c>
       <c r="E160" t="s">
         <v>12</v>
@@ -6294,10 +6294,10 @@
         <v>11</v>
       </c>
       <c r="C161">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="D161">
-        <v>2658116</v>
+        <v>2655100</v>
       </c>
       <c r="E161" t="s">
         <v>12</v>
@@ -6358,10 +6358,10 @@
         <v>11</v>
       </c>
       <c r="C163">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="D163">
-        <v>2397420</v>
+        <v>2394420</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -6454,10 +6454,10 @@
         <v>11</v>
       </c>
       <c r="C166">
-        <v>5146</v>
+        <v>5140</v>
       </c>
       <c r="D166">
-        <v>7467165</v>
+        <v>7464343</v>
       </c>
       <c r="E166" t="s">
         <v>12</v>
@@ -6486,10 +6486,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>7976</v>
+        <v>7970</v>
       </c>
       <c r="D167">
-        <v>10809149</v>
+        <v>10804925</v>
       </c>
       <c r="E167" t="s">
         <v>12</v>
@@ -6518,10 +6518,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>3546</v>
+        <v>3534</v>
       </c>
       <c r="D168">
-        <v>4931233</v>
+        <v>4920141</v>
       </c>
       <c r="E168" t="s">
         <v>12</v>
@@ -6550,10 +6550,10 @@
         <v>11</v>
       </c>
       <c r="C169">
-        <v>4874</v>
+        <v>4868</v>
       </c>
       <c r="D169">
-        <v>7094747</v>
+        <v>7089425</v>
       </c>
       <c r="E169" t="s">
         <v>12</v>
@@ -6582,10 +6582,10 @@
         <v>11</v>
       </c>
       <c r="C170">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="D170">
-        <v>1690753</v>
+        <v>1686505</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -6646,10 +6646,10 @@
         <v>11</v>
       </c>
       <c r="C172">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="D172">
-        <v>2037446</v>
+        <v>2034446</v>
       </c>
       <c r="E172" t="s">
         <v>12</v>
@@ -6678,10 +6678,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>6571</v>
+        <v>6549</v>
       </c>
       <c r="D173">
-        <v>8913697</v>
+        <v>8891460</v>
       </c>
       <c r="E173" t="s">
         <v>12</v>
@@ -6710,10 +6710,10 @@
         <v>11</v>
       </c>
       <c r="C174">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="D174">
-        <v>3365310</v>
+        <v>3362567</v>
       </c>
       <c r="E174" t="s">
         <v>12</v>
@@ -6742,10 +6742,10 @@
         <v>11</v>
       </c>
       <c r="C175">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="D175">
-        <v>3317208</v>
+        <v>3312441</v>
       </c>
       <c r="E175" t="s">
         <v>12</v>
@@ -6774,10 +6774,10 @@
         <v>11</v>
       </c>
       <c r="C176">
-        <v>6322</v>
+        <v>6311</v>
       </c>
       <c r="D176">
-        <v>8635382</v>
+        <v>8629012</v>
       </c>
       <c r="E176" t="s">
         <v>12</v>
@@ -6806,10 +6806,10 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="D177">
-        <v>2931461</v>
+        <v>2925101</v>
       </c>
       <c r="E177" t="s">
         <v>12</v>
@@ -6838,10 +6838,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>5852</v>
+        <v>5840</v>
       </c>
       <c r="D178">
-        <v>7462376</v>
+        <v>7449614</v>
       </c>
       <c r="E178" t="s">
         <v>12</v>
@@ -7094,10 +7094,10 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D186">
-        <v>235433</v>
+        <v>232433</v>
       </c>
       <c r="E186" t="s">
         <v>12</v>
@@ -7158,10 +7158,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D188">
-        <v>810814</v>
+        <v>808514</v>
       </c>
       <c r="E188" t="s">
         <v>12</v>
@@ -7190,10 +7190,10 @@
         <v>11</v>
       </c>
       <c r="C189">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D189">
-        <v>1563642</v>
+        <v>1562442</v>
       </c>
       <c r="E189" t="s">
         <v>12</v>
@@ -7222,10 +7222,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D190">
-        <v>769749</v>
+        <v>767850</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
@@ -7254,10 +7254,10 @@
         <v>11</v>
       </c>
       <c r="C191">
-        <v>5441</v>
+        <v>5427</v>
       </c>
       <c r="D191">
-        <v>7533936</v>
+        <v>7515074</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -7286,10 +7286,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D192">
-        <v>2034861</v>
+        <v>2032147</v>
       </c>
       <c r="E192" t="s">
         <v>12</v>
@@ -7318,10 +7318,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D193">
-        <v>984433</v>
+        <v>977653</v>
       </c>
       <c r="E193" t="s">
         <v>12</v>
@@ -7350,10 +7350,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="D194">
-        <v>2217462</v>
+        <v>2213342</v>
       </c>
       <c r="E194" t="s">
         <v>12</v>
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="D199">
-        <v>3098099</v>
+        <v>3096777</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -7606,10 +7606,10 @@
         <v>11</v>
       </c>
       <c r="C202">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D202">
-        <v>170942</v>
+        <v>164942</v>
       </c>
       <c r="E202" t="s">
         <v>13</v>
@@ -7670,10 +7670,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D204">
-        <v>372632</v>
+        <v>371990</v>
       </c>
       <c r="E204" t="s">
         <v>13</v>
@@ -7798,10 +7798,10 @@
         <v>11</v>
       </c>
       <c r="C208">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D208">
-        <v>1563212</v>
+        <v>1560670</v>
       </c>
       <c r="E208" t="s">
         <v>13</v>
@@ -7862,10 +7862,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="D210">
-        <v>2062748</v>
+        <v>2060842</v>
       </c>
       <c r="E210" t="s">
         <v>13</v>
@@ -8278,10 +8278,10 @@
         <v>11</v>
       </c>
       <c r="C223">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D223">
-        <v>653393</v>
+        <v>650532</v>
       </c>
       <c r="E223" t="s">
         <v>13</v>
@@ -8310,10 +8310,10 @@
         <v>11</v>
       </c>
       <c r="C224">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D224">
-        <v>1427297</v>
+        <v>1426777</v>
       </c>
       <c r="E224" t="s">
         <v>13</v>
@@ -8726,10 +8726,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D237">
-        <v>297054</v>
+        <v>295854</v>
       </c>
       <c r="E237" t="s">
         <v>13</v>
@@ -8886,10 +8886,10 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D242">
-        <v>840544</v>
+        <v>837639</v>
       </c>
       <c r="E242" t="s">
         <v>13</v>
@@ -8950,10 +8950,10 @@
         <v>11</v>
       </c>
       <c r="C244">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D244">
-        <v>348900</v>
+        <v>347219</v>
       </c>
       <c r="E244" t="s">
         <v>13</v>
@@ -9014,10 +9014,10 @@
         <v>11</v>
       </c>
       <c r="C246">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D246">
-        <v>777235</v>
+        <v>774235</v>
       </c>
       <c r="E246" t="s">
         <v>13</v>
@@ -9110,10 +9110,10 @@
         <v>11</v>
       </c>
       <c r="C249">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D249">
-        <v>1111716</v>
+        <v>1108716</v>
       </c>
       <c r="E249" t="s">
         <v>13</v>
@@ -9206,10 +9206,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D252">
-        <v>174209</v>
+        <v>171209</v>
       </c>
       <c r="E252" t="s">
         <v>13</v>
@@ -9238,10 +9238,10 @@
         <v>11</v>
       </c>
       <c r="C253">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D253">
-        <v>388786</v>
+        <v>385786</v>
       </c>
       <c r="E253" t="s">
         <v>13</v>
@@ -9366,10 +9366,10 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D257">
-        <v>301226</v>
+        <v>301112</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
@@ -9398,10 +9398,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D258">
-        <v>1023909</v>
+        <v>1022379</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
@@ -9622,10 +9622,10 @@
         <v>11</v>
       </c>
       <c r="C265">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D265">
-        <v>884664</v>
+        <v>881664</v>
       </c>
       <c r="E265" t="s">
         <v>13</v>
@@ -9878,10 +9878,10 @@
         <v>11</v>
       </c>
       <c r="C273">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D273">
-        <v>217833</v>
+        <v>217023</v>
       </c>
       <c r="E273" t="s">
         <v>13</v>
@@ -9910,10 +9910,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D274">
-        <v>815904</v>
+        <v>815260</v>
       </c>
       <c r="E274" t="s">
         <v>13</v>
@@ -9942,10 +9942,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D275">
-        <v>585525</v>
+        <v>582645</v>
       </c>
       <c r="E275" t="s">
         <v>13</v>
@@ -9974,10 +9974,10 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D276">
-        <v>611414</v>
+        <v>611109</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -10038,10 +10038,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D278">
-        <v>1600404</v>
+        <v>1596884</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
@@ -10166,10 +10166,10 @@
         <v>11</v>
       </c>
       <c r="C282">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D282">
-        <v>158349</v>
+        <v>155349</v>
       </c>
       <c r="E282" t="s">
         <v>13</v>
@@ -10262,10 +10262,10 @@
         <v>11</v>
       </c>
       <c r="C285">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D285">
-        <v>849622</v>
+        <v>846622</v>
       </c>
       <c r="E285" t="s">
         <v>13</v>
@@ -10422,10 +10422,10 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="D290">
-        <v>2325526</v>
+        <v>2324052</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
@@ -10550,10 +10550,10 @@
         <v>11</v>
       </c>
       <c r="C294">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D294">
-        <v>405631</v>
+        <v>402631</v>
       </c>
       <c r="E294" t="s">
         <v>13</v>
@@ -11094,10 +11094,10 @@
         <v>11</v>
       </c>
       <c r="C311">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D311">
-        <v>1543284</v>
+        <v>1540540</v>
       </c>
       <c r="E311" t="s">
         <v>13</v>
@@ -11318,10 +11318,10 @@
         <v>11</v>
       </c>
       <c r="C318">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D318">
-        <v>296020</v>
+        <v>293020</v>
       </c>
       <c r="E318" t="s">
         <v>13</v>
@@ -11382,10 +11382,10 @@
         <v>11</v>
       </c>
       <c r="C320">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D320">
-        <v>609871</v>
+        <v>606871</v>
       </c>
       <c r="E320" t="s">
         <v>13</v>
@@ -11510,10 +11510,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D324">
-        <v>695771</v>
+        <v>693979</v>
       </c>
       <c r="E324" t="s">
         <v>14</v>
@@ -11606,10 +11606,10 @@
         <v>11</v>
       </c>
       <c r="C327">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D327">
-        <v>2967626</v>
+        <v>2966126</v>
       </c>
       <c r="E327" t="s">
         <v>14</v>
@@ -11894,10 +11894,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D336">
-        <v>1419596</v>
+        <v>1414304</v>
       </c>
       <c r="E336" t="s">
         <v>14</v>
@@ -11958,10 +11958,10 @@
         <v>11</v>
       </c>
       <c r="C338">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D338">
-        <v>2147765</v>
+        <v>2146065</v>
       </c>
       <c r="E338" t="s">
         <v>14</v>
@@ -12118,10 +12118,10 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="D343">
-        <v>2892136</v>
+        <v>2889136</v>
       </c>
       <c r="E343" t="s">
         <v>14</v>
@@ -12150,10 +12150,10 @@
         <v>11</v>
       </c>
       <c r="C344">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="D344">
-        <v>4091615</v>
+        <v>4088615</v>
       </c>
       <c r="E344" t="s">
         <v>14</v>
@@ -12214,10 +12214,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="D346">
-        <v>3854337</v>
+        <v>3853592</v>
       </c>
       <c r="E346" t="s">
         <v>14</v>
@@ -12310,10 +12310,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D349">
-        <v>692509</v>
+        <v>688578</v>
       </c>
       <c r="E349" t="s">
         <v>14</v>
@@ -12342,10 +12342,10 @@
         <v>11</v>
       </c>
       <c r="C350">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D350">
-        <v>1510983</v>
+        <v>1507983</v>
       </c>
       <c r="E350" t="s">
         <v>14</v>
@@ -12438,10 +12438,10 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D353">
-        <v>2725118</v>
+        <v>2724708</v>
       </c>
       <c r="E353" t="s">
         <v>14</v>
@@ -12502,10 +12502,10 @@
         <v>11</v>
       </c>
       <c r="C355">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="D355">
-        <v>3344208</v>
+        <v>3343425</v>
       </c>
       <c r="E355" t="s">
         <v>14</v>
@@ -12566,10 +12566,10 @@
         <v>11</v>
       </c>
       <c r="C357">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D357">
-        <v>1034946</v>
+        <v>1033724</v>
       </c>
       <c r="E357" t="s">
         <v>14</v>
@@ -12886,10 +12886,10 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="D367">
-        <v>2724170</v>
+        <v>2718743</v>
       </c>
       <c r="E367" t="s">
         <v>14</v>
@@ -12918,10 +12918,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D368">
-        <v>823981</v>
+        <v>822983</v>
       </c>
       <c r="E368" t="s">
         <v>14</v>
@@ -12950,10 +12950,10 @@
         <v>11</v>
       </c>
       <c r="C369">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D369">
-        <v>1133099</v>
+        <v>1130025</v>
       </c>
       <c r="E369" t="s">
         <v>14</v>
@@ -12982,10 +12982,10 @@
         <v>11</v>
       </c>
       <c r="C370">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="D370">
-        <v>3954100</v>
+        <v>3948100</v>
       </c>
       <c r="E370" t="s">
         <v>14</v>
@@ -13014,10 +13014,10 @@
         <v>11</v>
       </c>
       <c r="C371">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D371">
-        <v>1059899</v>
+        <v>1057678</v>
       </c>
       <c r="E371" t="s">
         <v>14</v>
@@ -13046,10 +13046,10 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="D372">
-        <v>3759201</v>
+        <v>3758543</v>
       </c>
       <c r="E372" t="s">
         <v>14</v>
@@ -13078,10 +13078,10 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D373">
-        <v>567921</v>
+        <v>564921</v>
       </c>
       <c r="E373" t="s">
         <v>14</v>
@@ -13206,10 +13206,10 @@
         <v>11</v>
       </c>
       <c r="C377">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="D377">
-        <v>3885960</v>
+        <v>3881639</v>
       </c>
       <c r="E377" t="s">
         <v>14</v>
@@ -13238,10 +13238,10 @@
         <v>11</v>
       </c>
       <c r="C378">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D378">
-        <v>328736</v>
+        <v>328202</v>
       </c>
       <c r="E378" t="s">
         <v>14</v>
@@ -13302,10 +13302,10 @@
         <v>11</v>
       </c>
       <c r="C380">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D380">
-        <v>305202</v>
+        <v>303692</v>
       </c>
       <c r="E380" t="s">
         <v>14</v>
@@ -13366,10 +13366,10 @@
         <v>11</v>
       </c>
       <c r="C382">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D382">
-        <v>681369</v>
+        <v>678369</v>
       </c>
       <c r="E382" t="s">
         <v>14</v>
@@ -13398,10 +13398,10 @@
         <v>11</v>
       </c>
       <c r="C383">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D383">
-        <v>1763480</v>
+        <v>1760828</v>
       </c>
       <c r="E383" t="s">
         <v>14</v>
@@ -13494,10 +13494,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D386">
-        <v>2738980</v>
+        <v>2735980</v>
       </c>
       <c r="E386" t="s">
         <v>14</v>
@@ -13558,10 +13558,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="D388">
-        <v>2970211</v>
+        <v>2968519</v>
       </c>
       <c r="E388" t="s">
         <v>14</v>
@@ -13686,10 +13686,10 @@
         <v>11</v>
       </c>
       <c r="C392">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D392">
-        <v>921421</v>
+        <v>918421</v>
       </c>
       <c r="E392" t="s">
         <v>15</v>
@@ -13878,10 +13878,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D398">
-        <v>151747</v>
+        <v>148747</v>
       </c>
       <c r="E398" t="s">
         <v>15</v>
@@ -13974,10 +13974,10 @@
         <v>11</v>
       </c>
       <c r="C401">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D401">
-        <v>272626</v>
+        <v>271724</v>
       </c>
       <c r="E401" t="s">
         <v>15</v>
@@ -14998,10 +14998,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D433">
-        <v>208259</v>
+        <v>206539</v>
       </c>
       <c r="E433" t="s">
         <v>15</v>
@@ -15094,10 +15094,10 @@
         <v>11</v>
       </c>
       <c r="C436">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D436">
-        <v>810716</v>
+        <v>809616</v>
       </c>
       <c r="E436" t="s">
         <v>15</v>
@@ -15254,10 +15254,10 @@
         <v>11</v>
       </c>
       <c r="C441">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D441">
-        <v>2522397</v>
+        <v>2521757</v>
       </c>
       <c r="E441" t="s">
         <v>15</v>
@@ -15478,10 +15478,10 @@
         <v>11</v>
       </c>
       <c r="C448">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D448">
-        <v>545885</v>
+        <v>544106</v>
       </c>
       <c r="E448" t="s">
         <v>15</v>
@@ -15542,10 +15542,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="D450">
-        <v>1851691</v>
+        <v>1847101</v>
       </c>
       <c r="E450" t="s">
         <v>15</v>
@@ -15606,10 +15606,10 @@
         <v>11</v>
       </c>
       <c r="C452">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D452">
-        <v>2481971</v>
+        <v>2481781</v>
       </c>
       <c r="E452" t="s">
         <v>15</v>
@@ -15670,10 +15670,10 @@
         <v>11</v>
       </c>
       <c r="C454">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D454">
-        <v>341285</v>
+        <v>338285</v>
       </c>
       <c r="E454" t="s">
         <v>15</v>
@@ -15766,10 +15766,10 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D457">
-        <v>1550895</v>
+        <v>1548980</v>
       </c>
       <c r="E457" t="s">
         <v>15</v>
@@ -16470,10 +16470,10 @@
         <v>11</v>
       </c>
       <c r="C479">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D479">
-        <v>1189479</v>
+        <v>1186479</v>
       </c>
       <c r="E479" t="s">
         <v>15</v>
@@ -16566,10 +16566,10 @@
         <v>11</v>
       </c>
       <c r="C482">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D482">
-        <v>1449939</v>
+        <v>1443939</v>
       </c>
       <c r="E482" t="s">
         <v>15</v>
@@ -16598,10 +16598,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D483">
-        <v>652130</v>
+        <v>651630</v>
       </c>
       <c r="E483" t="s">
         <v>15</v>
@@ -16630,10 +16630,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D484">
-        <v>2516268</v>
+        <v>2515374</v>
       </c>
       <c r="E484" t="s">
         <v>15</v>
@@ -16662,10 +16662,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D485">
-        <v>535025</v>
+        <v>523025</v>
       </c>
       <c r="E485" t="s">
         <v>16</v>
@@ -16694,10 +16694,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D486">
-        <v>415954</v>
+        <v>408454</v>
       </c>
       <c r="E486" t="s">
         <v>16</v>
@@ -16726,10 +16726,10 @@
         <v>11</v>
       </c>
       <c r="C487">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="D487">
-        <v>1396783</v>
+        <v>1383283</v>
       </c>
       <c r="E487" t="s">
         <v>16</v>
@@ -16758,10 +16758,10 @@
         <v>11</v>
       </c>
       <c r="C488">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="D488">
-        <v>1196931</v>
+        <v>1162363</v>
       </c>
       <c r="E488" t="s">
         <v>16</v>
@@ -16790,10 +16790,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D489">
-        <v>167562</v>
+        <v>164562</v>
       </c>
       <c r="E489" t="s">
         <v>16</v>
@@ -16822,10 +16822,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="D490">
-        <v>1189964</v>
+        <v>1165964</v>
       </c>
       <c r="E490" t="s">
         <v>16</v>
@@ -16854,10 +16854,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D491">
-        <v>86337</v>
+        <v>83337</v>
       </c>
       <c r="E491" t="s">
         <v>16</v>
@@ -16918,10 +16918,10 @@
         <v>11</v>
       </c>
       <c r="C493">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D493">
-        <v>289159</v>
+        <v>286159</v>
       </c>
       <c r="E493" t="s">
         <v>16</v>
@@ -16950,10 +16950,10 @@
         <v>11</v>
       </c>
       <c r="C494">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="D494">
-        <v>910614</v>
+        <v>890816</v>
       </c>
       <c r="E494" t="s">
         <v>16</v>
@@ -16982,10 +16982,10 @@
         <v>11</v>
       </c>
       <c r="C495">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D495">
-        <v>533290</v>
+        <v>511304</v>
       </c>
       <c r="E495" t="s">
         <v>16</v>
@@ -17014,10 +17014,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D496">
-        <v>276192</v>
+        <v>275716</v>
       </c>
       <c r="E496" t="s">
         <v>16</v>
@@ -17046,10 +17046,10 @@
         <v>11</v>
       </c>
       <c r="C497">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D497">
-        <v>503829</v>
+        <v>495355</v>
       </c>
       <c r="E497" t="s">
         <v>16</v>
@@ -17078,10 +17078,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D498">
-        <v>230779</v>
+        <v>222276</v>
       </c>
       <c r="E498" t="s">
         <v>16</v>
@@ -17110,10 +17110,10 @@
         <v>11</v>
       </c>
       <c r="C499">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D499">
-        <v>767492</v>
+        <v>757302</v>
       </c>
       <c r="E499" t="s">
         <v>16</v>
@@ -17270,10 +17270,10 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D504">
-        <v>1562864</v>
+        <v>1562203</v>
       </c>
       <c r="E504" t="s">
         <v>16</v>
@@ -17462,10 +17462,10 @@
         <v>11</v>
       </c>
       <c r="C510">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D510">
-        <v>894638</v>
+        <v>893638</v>
       </c>
       <c r="E510" t="s">
         <v>16</v>
@@ -18582,10 +18582,10 @@
         <v>11</v>
       </c>
       <c r="C545">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D545">
-        <v>632932</v>
+        <v>632137</v>
       </c>
       <c r="E545" t="s">
         <v>17</v>
@@ -18934,10 +18934,10 @@
         <v>11</v>
       </c>
       <c r="C556">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D556">
-        <v>575957</v>
+        <v>572957</v>
       </c>
       <c r="E556" t="s">
         <v>17</v>
@@ -19030,10 +19030,10 @@
         <v>11</v>
       </c>
       <c r="C559">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="D559">
-        <v>2900758</v>
+        <v>2897758</v>
       </c>
       <c r="E559" t="s">
         <v>17</v>
@@ -19062,10 +19062,10 @@
         <v>11</v>
       </c>
       <c r="C560">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D560">
-        <v>1162840</v>
+        <v>1159840</v>
       </c>
       <c r="E560" t="s">
         <v>17</v>
@@ -19126,10 +19126,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>2564</v>
+        <v>2554</v>
       </c>
       <c r="D562">
-        <v>3556340</v>
+        <v>3545594</v>
       </c>
       <c r="E562" t="s">
         <v>17</v>
@@ -19158,10 +19158,10 @@
         <v>11</v>
       </c>
       <c r="C563">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D563">
-        <v>1237772</v>
+        <v>1234772</v>
       </c>
       <c r="E563" t="s">
         <v>17</v>
@@ -19190,10 +19190,10 @@
         <v>11</v>
       </c>
       <c r="C564">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="D564">
-        <v>4153921</v>
+        <v>4153775</v>
       </c>
       <c r="E564" t="s">
         <v>17</v>
@@ -19446,10 +19446,10 @@
         <v>11</v>
       </c>
       <c r="C572">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D572">
-        <v>234555</v>
+        <v>234145</v>
       </c>
       <c r="E572" t="s">
         <v>17</v>
@@ -19510,10 +19510,10 @@
         <v>11</v>
       </c>
       <c r="C574">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D574">
-        <v>432162</v>
+        <v>427373</v>
       </c>
       <c r="E574" t="s">
         <v>17</v>
@@ -19542,10 +19542,10 @@
         <v>11</v>
       </c>
       <c r="C575">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D575">
-        <v>1553191</v>
+        <v>1548178</v>
       </c>
       <c r="E575" t="s">
         <v>17</v>
@@ -19638,10 +19638,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D578">
-        <v>1754143</v>
+        <v>1753855</v>
       </c>
       <c r="E578" t="s">
         <v>17</v>
@@ -19670,10 +19670,10 @@
         <v>11</v>
       </c>
       <c r="C579">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D579">
-        <v>544620</v>
+        <v>543028</v>
       </c>
       <c r="E579" t="s">
         <v>17</v>
@@ -19702,10 +19702,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="D580">
-        <v>2929815</v>
+        <v>2929385</v>
       </c>
       <c r="E580" t="s">
         <v>17</v>
@@ -20246,10 +20246,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D597">
-        <v>439604</v>
+        <v>438827</v>
       </c>
       <c r="E597" t="s">
         <v>17</v>
@@ -20534,10 +20534,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D606">
-        <v>268536</v>
+        <v>265682</v>
       </c>
       <c r="E606" t="s">
         <v>17</v>
@@ -20598,10 +20598,10 @@
         <v>11</v>
       </c>
       <c r="C608">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D608">
-        <v>450368</v>
+        <v>447368</v>
       </c>
       <c r="E608" t="s">
         <v>17</v>
@@ -20662,10 +20662,10 @@
         <v>11</v>
       </c>
       <c r="C610">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D610">
-        <v>1417673</v>
+        <v>1416493</v>
       </c>
       <c r="E610" t="s">
         <v>17</v>
@@ -20694,10 +20694,10 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D611">
-        <v>473814</v>
+        <v>473285</v>
       </c>
       <c r="E611" t="s">
         <v>17</v>
@@ -20726,10 +20726,10 @@
         <v>11</v>
       </c>
       <c r="C612">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="D612">
-        <v>2184316</v>
+        <v>2184154</v>
       </c>
       <c r="E612" t="s">
         <v>17</v>
@@ -20886,10 +20886,10 @@
         <v>11</v>
       </c>
       <c r="C617">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="D617">
-        <v>3006769</v>
+        <v>3000769</v>
       </c>
       <c r="E617" t="s">
         <v>17</v>
@@ -20950,10 +20950,10 @@
         <v>11</v>
       </c>
       <c r="C619">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="D619">
-        <v>1942517</v>
+        <v>1939935</v>
       </c>
       <c r="E619" t="s">
         <v>17</v>
@@ -21142,10 +21142,10 @@
         <v>11</v>
       </c>
       <c r="C625">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D625">
-        <v>781696</v>
+        <v>780496</v>
       </c>
       <c r="E625" t="s">
         <v>17</v>
@@ -21174,10 +21174,10 @@
         <v>11</v>
       </c>
       <c r="C626">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D626">
-        <v>1558926</v>
+        <v>1557799</v>
       </c>
       <c r="E626" t="s">
         <v>17</v>
@@ -21238,10 +21238,10 @@
         <v>11</v>
       </c>
       <c r="C628">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="D628">
-        <v>2517181</v>
+        <v>2516150</v>
       </c>
       <c r="E628" t="s">
         <v>17</v>
@@ -21398,10 +21398,10 @@
         <v>11</v>
       </c>
       <c r="C633">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D633">
-        <v>697535</v>
+        <v>697339</v>
       </c>
       <c r="E633" t="s">
         <v>17</v>
@@ -21654,10 +21654,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D641">
-        <v>104226</v>
+        <v>103846</v>
       </c>
       <c r="E641" t="s">
         <v>17</v>
@@ -21878,10 +21878,10 @@
         <v>11</v>
       </c>
       <c r="C648">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="D648">
-        <v>3355539</v>
+        <v>3352539</v>
       </c>
       <c r="E648" t="s">
         <v>17</v>
@@ -22070,10 +22070,10 @@
         <v>11</v>
       </c>
       <c r="C654">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D654">
-        <v>326826</v>
+        <v>323844</v>
       </c>
       <c r="E654" t="s">
         <v>17</v>
@@ -22102,10 +22102,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D655">
-        <v>1543957</v>
+        <v>1542893</v>
       </c>
       <c r="E655" t="s">
         <v>17</v>
@@ -22166,10 +22166,10 @@
         <v>11</v>
       </c>
       <c r="C657">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D657">
-        <v>905505</v>
+        <v>904745</v>
       </c>
       <c r="E657" t="s">
         <v>17</v>
@@ -22230,10 +22230,10 @@
         <v>11</v>
       </c>
       <c r="C659">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D659">
-        <v>630977</v>
+        <v>630916</v>
       </c>
       <c r="E659" t="s">
         <v>17</v>
@@ -22262,10 +22262,10 @@
         <v>11</v>
       </c>
       <c r="C660">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="D660">
-        <v>3913289</v>
+        <v>3913025</v>
       </c>
       <c r="E660" t="s">
         <v>17</v>
@@ -22678,10 +22678,10 @@
         <v>11</v>
       </c>
       <c r="C673">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D673">
-        <v>451272</v>
+        <v>450791</v>
       </c>
       <c r="E673" t="s">
         <v>17</v>
@@ -22774,10 +22774,10 @@
         <v>11</v>
       </c>
       <c r="C676">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D676">
-        <v>1614534</v>
+        <v>1611534</v>
       </c>
       <c r="E676" t="s">
         <v>17</v>
@@ -23766,10 +23766,10 @@
         <v>11</v>
       </c>
       <c r="C707">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D707">
-        <v>220098</v>
+        <v>217858</v>
       </c>
       <c r="E707" t="s">
         <v>19</v>
@@ -23990,10 +23990,10 @@
         <v>11</v>
       </c>
       <c r="C714">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="D714">
-        <v>1975678</v>
+        <v>1975390</v>
       </c>
       <c r="E714" t="s">
         <v>20</v>
@@ -24278,10 +24278,10 @@
         <v>11</v>
       </c>
       <c r="C723">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D723">
-        <v>687811</v>
+        <v>687659</v>
       </c>
       <c r="E723" t="s">
         <v>20</v>
@@ -24470,10 +24470,10 @@
         <v>11</v>
       </c>
       <c r="C729">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="D729">
-        <v>6149828</v>
+        <v>6148110</v>
       </c>
       <c r="E729" t="s">
         <v>20</v>
@@ -24502,10 +24502,10 @@
         <v>11</v>
       </c>
       <c r="C730">
-        <v>8056</v>
+        <v>8052</v>
       </c>
       <c r="D730">
-        <v>10350408</v>
+        <v>10349066</v>
       </c>
       <c r="E730" t="s">
         <v>20</v>
@@ -24534,10 +24534,10 @@
         <v>11</v>
       </c>
       <c r="C731">
-        <v>2033</v>
+        <v>2023</v>
       </c>
       <c r="D731">
-        <v>2738492</v>
+        <v>2724657</v>
       </c>
       <c r="E731" t="s">
         <v>20</v>
@@ -24662,10 +24662,10 @@
         <v>11</v>
       </c>
       <c r="C735">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D735">
-        <v>1057257</v>
+        <v>1054257</v>
       </c>
       <c r="E735" t="s">
         <v>20</v>
@@ -24694,10 +24694,10 @@
         <v>11</v>
       </c>
       <c r="C736">
-        <v>4155</v>
+        <v>4144</v>
       </c>
       <c r="D736">
-        <v>5648556</v>
+        <v>5636558</v>
       </c>
       <c r="E736" t="s">
         <v>20</v>
@@ -24726,10 +24726,10 @@
         <v>11</v>
       </c>
       <c r="C737">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D737">
-        <v>2065947</v>
+        <v>2065570</v>
       </c>
       <c r="E737" t="s">
         <v>20</v>
@@ -24758,10 +24758,10 @@
         <v>11</v>
       </c>
       <c r="C738">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="D738">
-        <v>2243607</v>
+        <v>2237777</v>
       </c>
       <c r="E738" t="s">
         <v>20</v>
@@ -24790,10 +24790,10 @@
         <v>11</v>
       </c>
       <c r="C739">
-        <v>5033</v>
+        <v>5027</v>
       </c>
       <c r="D739">
-        <v>6894584</v>
+        <v>6888500</v>
       </c>
       <c r="E739" t="s">
         <v>20</v>
@@ -24822,10 +24822,10 @@
         <v>11</v>
       </c>
       <c r="C740">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D740">
-        <v>2081462</v>
+        <v>2080652</v>
       </c>
       <c r="E740" t="s">
         <v>20</v>
@@ -24854,10 +24854,10 @@
         <v>11</v>
       </c>
       <c r="C741">
-        <v>7084</v>
+        <v>7078</v>
       </c>
       <c r="D741">
-        <v>8441968</v>
+        <v>8435918</v>
       </c>
       <c r="E741" t="s">
         <v>20</v>
@@ -25014,10 +25014,10 @@
         <v>11</v>
       </c>
       <c r="C746">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="D746">
-        <v>2577463</v>
+        <v>2573511</v>
       </c>
       <c r="E746" t="s">
         <v>20</v>
@@ -25046,10 +25046,10 @@
         <v>11</v>
       </c>
       <c r="C747">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="D747">
-        <v>3377524</v>
+        <v>3375554</v>
       </c>
       <c r="E747" t="s">
         <v>20</v>
@@ -25078,10 +25078,10 @@
         <v>11</v>
       </c>
       <c r="C748">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D748">
-        <v>1602271</v>
+        <v>1599271</v>
       </c>
       <c r="E748" t="s">
         <v>20</v>
@@ -25142,10 +25142,10 @@
         <v>11</v>
       </c>
       <c r="C750">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D750">
-        <v>270004</v>
+        <v>267004</v>
       </c>
       <c r="E750" t="s">
         <v>20</v>
@@ -25238,10 +25238,10 @@
         <v>11</v>
       </c>
       <c r="C753">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D753">
-        <v>1411238</v>
+        <v>1408238</v>
       </c>
       <c r="E753" t="s">
         <v>20</v>
@@ -25302,10 +25302,10 @@
         <v>11</v>
       </c>
       <c r="C755">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D755">
-        <v>919739</v>
+        <v>918699</v>
       </c>
       <c r="E755" t="s">
         <v>20</v>
@@ -25334,10 +25334,10 @@
         <v>11</v>
       </c>
       <c r="C756">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D756">
-        <v>1548157</v>
+        <v>1544197</v>
       </c>
       <c r="E756" t="s">
         <v>20</v>
@@ -25366,10 +25366,10 @@
         <v>11</v>
       </c>
       <c r="C757">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D757">
-        <v>701513</v>
+        <v>699857</v>
       </c>
       <c r="E757" t="s">
         <v>20</v>
@@ -25398,10 +25398,10 @@
         <v>11</v>
       </c>
       <c r="C758">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="D758">
-        <v>2935976</v>
+        <v>2934185</v>
       </c>
       <c r="E758" t="s">
         <v>20</v>
@@ -25590,10 +25590,10 @@
         <v>11</v>
       </c>
       <c r="C764">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="D764">
-        <v>3800420</v>
+        <v>3798570</v>
       </c>
       <c r="E764" t="s">
         <v>20</v>
@@ -25782,10 +25782,10 @@
         <v>11</v>
       </c>
       <c r="C770">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D770">
-        <v>617833</v>
+        <v>614833</v>
       </c>
       <c r="E770" t="s">
         <v>20</v>
@@ -25814,10 +25814,10 @@
         <v>11</v>
       </c>
       <c r="C771">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="D771">
-        <v>1922980</v>
+        <v>1918830</v>
       </c>
       <c r="E771" t="s">
         <v>20</v>
@@ -25846,10 +25846,10 @@
         <v>11</v>
       </c>
       <c r="C772">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D772">
-        <v>988114</v>
+        <v>985114</v>
       </c>
       <c r="E772" t="s">
         <v>20</v>
@@ -25910,10 +25910,10 @@
         <v>11</v>
       </c>
       <c r="C774">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D774">
-        <v>2798677</v>
+        <v>2797847</v>
       </c>
       <c r="E774" t="s">
         <v>20</v>
@@ -25942,10 +25942,10 @@
         <v>11</v>
       </c>
       <c r="C775">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D775">
-        <v>856953</v>
+        <v>853340</v>
       </c>
       <c r="E775" t="s">
         <v>20</v>
@@ -25974,10 +25974,10 @@
         <v>11</v>
       </c>
       <c r="C776">
-        <v>4661</v>
+        <v>4659</v>
       </c>
       <c r="D776">
-        <v>5367617</v>
+        <v>5367007</v>
       </c>
       <c r="E776" t="s">
         <v>20</v>
@@ -26358,10 +26358,10 @@
         <v>11</v>
       </c>
       <c r="C788">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D788">
-        <v>418784</v>
+        <v>417812</v>
       </c>
       <c r="E788" t="s">
         <v>20</v>
@@ -26486,10 +26486,10 @@
         <v>11</v>
       </c>
       <c r="C792">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D792">
-        <v>1921280</v>
+        <v>1919956</v>
       </c>
       <c r="E792" t="s">
         <v>20</v>
@@ -26806,10 +26806,10 @@
         <v>11</v>
       </c>
       <c r="C802">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D802">
-        <v>484581</v>
+        <v>483081</v>
       </c>
       <c r="E802" t="s">
         <v>21</v>
@@ -26902,10 +26902,10 @@
         <v>11</v>
       </c>
       <c r="C805">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="D805">
-        <v>2414521</v>
+        <v>2409511</v>
       </c>
       <c r="E805" t="s">
         <v>21</v>
@@ -26966,10 +26966,10 @@
         <v>11</v>
       </c>
       <c r="C807">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="D807">
-        <v>1941414</v>
+        <v>1936902</v>
       </c>
       <c r="E807" t="s">
         <v>21</v>
@@ -26998,10 +26998,10 @@
         <v>11</v>
       </c>
       <c r="C808">
-        <v>2124</v>
+        <v>2116</v>
       </c>
       <c r="D808">
-        <v>2998626</v>
+        <v>2986761</v>
       </c>
       <c r="E808" t="s">
         <v>21</v>
@@ -27030,10 +27030,10 @@
         <v>11</v>
       </c>
       <c r="C809">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D809">
-        <v>1071026</v>
+        <v>1069676</v>
       </c>
       <c r="E809" t="s">
         <v>21</v>
@@ -27318,10 +27318,10 @@
         <v>11</v>
       </c>
       <c r="C818">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D818">
-        <v>201482</v>
+        <v>201382</v>
       </c>
       <c r="E818" t="s">
         <v>22</v>
@@ -27478,10 +27478,10 @@
         <v>11</v>
       </c>
       <c r="C823">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D823">
-        <v>597467</v>
+        <v>594467</v>
       </c>
       <c r="E823" t="s">
         <v>22</v>
@@ -27542,10 +27542,10 @@
         <v>11</v>
       </c>
       <c r="C825">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D825">
-        <v>380613</v>
+        <v>380415</v>
       </c>
       <c r="E825" t="s">
         <v>22</v>
@@ -27606,10 +27606,10 @@
         <v>11</v>
       </c>
       <c r="C827">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D827">
-        <v>123364</v>
+        <v>120364</v>
       </c>
       <c r="E827" t="s">
         <v>23</v>
@@ -27638,10 +27638,10 @@
         <v>11</v>
       </c>
       <c r="C828">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D828">
-        <v>116624</v>
+        <v>113624</v>
       </c>
       <c r="E828" t="s">
         <v>23</v>
@@ -27702,10 +27702,10 @@
         <v>11</v>
       </c>
       <c r="C830">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D830">
-        <v>300741</v>
+        <v>297741</v>
       </c>
       <c r="E830" t="s">
         <v>23</v>
@@ -27734,10 +27734,10 @@
         <v>11</v>
       </c>
       <c r="C831">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D831">
-        <v>725246</v>
+        <v>719636</v>
       </c>
       <c r="E831" t="s">
         <v>23</v>
@@ -27766,10 +27766,10 @@
         <v>11</v>
       </c>
       <c r="C832">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D832">
-        <v>207059</v>
+        <v>201059</v>
       </c>
       <c r="E832" t="s">
         <v>23</v>
@@ -27798,10 +27798,10 @@
         <v>11</v>
       </c>
       <c r="C833">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D833">
-        <v>224291</v>
+        <v>221291</v>
       </c>
       <c r="E833" t="s">
         <v>23</v>
@@ -28118,10 +28118,10 @@
         <v>11</v>
       </c>
       <c r="C843">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D843">
-        <v>696401</v>
+        <v>696067</v>
       </c>
       <c r="E843" t="s">
         <v>24</v>
@@ -28182,10 +28182,10 @@
         <v>11</v>
       </c>
       <c r="C845">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D845">
-        <v>2466076</v>
+        <v>2464076</v>
       </c>
       <c r="E845" t="s">
         <v>24</v>
@@ -28214,10 +28214,10 @@
         <v>11</v>
       </c>
       <c r="C846">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="D846">
-        <v>4210801</v>
+        <v>4209543</v>
       </c>
       <c r="E846" t="s">
         <v>24</v>
@@ -28246,10 +28246,10 @@
         <v>11</v>
       </c>
       <c r="C847">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D847">
-        <v>385408</v>
+        <v>382408</v>
       </c>
       <c r="E847" t="s">
         <v>24</v>
@@ -28278,10 +28278,10 @@
         <v>11</v>
       </c>
       <c r="C848">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D848">
-        <v>3081882</v>
+        <v>3081424</v>
       </c>
       <c r="E848" t="s">
         <v>24</v>
@@ -28438,10 +28438,10 @@
         <v>11</v>
       </c>
       <c r="C853">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D853">
-        <v>740969</v>
+        <v>739123</v>
       </c>
       <c r="E853" t="s">
         <v>24</v>
@@ -28470,10 +28470,10 @@
         <v>11</v>
       </c>
       <c r="C854">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D854">
-        <v>813457</v>
+        <v>808960</v>
       </c>
       <c r="E854" t="s">
         <v>24</v>
@@ -28566,10 +28566,10 @@
         <v>11</v>
       </c>
       <c r="C857">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="D857">
-        <v>3176066</v>
+        <v>3172967</v>
       </c>
       <c r="E857" t="s">
         <v>24</v>
@@ -28726,10 +28726,10 @@
         <v>11</v>
       </c>
       <c r="C862">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="D862">
-        <v>2715692</v>
+        <v>2712692</v>
       </c>
       <c r="E862" t="s">
         <v>24</v>
@@ -29014,10 +29014,10 @@
         <v>11</v>
       </c>
       <c r="C871">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D871">
-        <v>1027597</v>
+        <v>1023594</v>
       </c>
       <c r="E871" t="s">
         <v>24</v>
@@ -29078,10 +29078,10 @@
         <v>11</v>
       </c>
       <c r="C873">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D873">
-        <v>2360611</v>
+        <v>2357611</v>
       </c>
       <c r="E873" t="s">
         <v>24</v>
@@ -29238,10 +29238,10 @@
         <v>11</v>
       </c>
       <c r="C878">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="D878">
-        <v>2719205</v>
+        <v>2713205</v>
       </c>
       <c r="E878" t="s">
         <v>24</v>
@@ -29302,10 +29302,10 @@
         <v>11</v>
       </c>
       <c r="C880">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D880">
-        <v>2057684</v>
+        <v>2056359</v>
       </c>
       <c r="E880" t="s">
         <v>24</v>
@@ -29430,10 +29430,10 @@
         <v>11</v>
       </c>
       <c r="C884">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D884">
-        <v>677508</v>
+        <v>674508</v>
       </c>
       <c r="E884" t="s">
         <v>24</v>
@@ -29462,10 +29462,10 @@
         <v>11</v>
       </c>
       <c r="C885">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D885">
-        <v>384820</v>
+        <v>384218</v>
       </c>
       <c r="E885" t="s">
         <v>24</v>
@@ -29494,10 +29494,10 @@
         <v>11</v>
       </c>
       <c r="C886">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D886">
-        <v>421379</v>
+        <v>420744</v>
       </c>
       <c r="E886" t="s">
         <v>24</v>
@@ -29526,10 +29526,10 @@
         <v>11</v>
       </c>
       <c r="C887">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D887">
-        <v>1007863</v>
+        <v>1004863</v>
       </c>
       <c r="E887" t="s">
         <v>24</v>
@@ -29590,10 +29590,10 @@
         <v>11</v>
       </c>
       <c r="C889">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D889">
-        <v>1943366</v>
+        <v>1942656</v>
       </c>
       <c r="E889" t="s">
         <v>24</v>
@@ -29846,10 +29846,10 @@
         <v>11</v>
       </c>
       <c r="C897">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D897">
-        <v>62624</v>
+        <v>59624</v>
       </c>
       <c r="E897" t="s">
         <v>24</v>
@@ -30134,10 +30134,10 @@
         <v>11</v>
       </c>
       <c r="C906">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D906">
-        <v>304694</v>
+        <v>301694</v>
       </c>
       <c r="E906" t="s">
         <v>24</v>
@@ -30326,10 +30326,10 @@
         <v>11</v>
       </c>
       <c r="C912">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="D912">
-        <v>3641581</v>
+        <v>3638101</v>
       </c>
       <c r="E912" t="s">
         <v>24</v>
@@ -30454,10 +30454,10 @@
         <v>11</v>
       </c>
       <c r="C916">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="D916">
-        <v>2283303</v>
+        <v>2274417</v>
       </c>
       <c r="E916" t="s">
         <v>24</v>
@@ -30518,10 +30518,10 @@
         <v>11</v>
       </c>
       <c r="C918">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D918">
-        <v>976937</v>
+        <v>976230</v>
       </c>
       <c r="E918" t="s">
         <v>24</v>
@@ -30550,10 +30550,10 @@
         <v>11</v>
       </c>
       <c r="C919">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="D919">
-        <v>2554536</v>
+        <v>2545536</v>
       </c>
       <c r="E919" t="s">
         <v>24</v>
@@ -30582,10 +30582,10 @@
         <v>11</v>
       </c>
       <c r="C920">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D920">
-        <v>910364</v>
+        <v>908335</v>
       </c>
       <c r="E920" t="s">
         <v>24</v>
@@ -31062,10 +31062,10 @@
         <v>11</v>
       </c>
       <c r="C935">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D935">
-        <v>735855</v>
+        <v>732595</v>
       </c>
       <c r="E935" t="s">
         <v>25</v>
@@ -31350,10 +31350,10 @@
         <v>11</v>
       </c>
       <c r="C944">
-        <v>3859</v>
+        <v>3855</v>
       </c>
       <c r="D944">
-        <v>5193268</v>
+        <v>5191307</v>
       </c>
       <c r="E944" t="s">
         <v>25</v>
@@ -31574,10 +31574,10 @@
         <v>11</v>
       </c>
       <c r="C951">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D951">
-        <v>929241</v>
+        <v>928041</v>
       </c>
       <c r="E951" t="s">
         <v>25</v>
@@ -31606,10 +31606,10 @@
         <v>11</v>
       </c>
       <c r="C952">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D952">
-        <v>1012116</v>
+        <v>1006822</v>
       </c>
       <c r="E952" t="s">
         <v>25</v>
@@ -31638,10 +31638,10 @@
         <v>11</v>
       </c>
       <c r="C953">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D953">
-        <v>2487418</v>
+        <v>2484418</v>
       </c>
       <c r="E953" t="s">
         <v>25</v>
@@ -31670,10 +31670,10 @@
         <v>11</v>
       </c>
       <c r="C954">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D954">
-        <v>980528</v>
+        <v>977628</v>
       </c>
       <c r="E954" t="s">
         <v>25</v>
@@ -31702,10 +31702,10 @@
         <v>11</v>
       </c>
       <c r="C955">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="D955">
-        <v>3335572</v>
+        <v>3333162</v>
       </c>
       <c r="E955" t="s">
         <v>25</v>
@@ -32054,10 +32054,10 @@
         <v>11</v>
       </c>
       <c r="C966">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D966">
-        <v>436196</v>
+        <v>433726</v>
       </c>
       <c r="E966" t="s">
         <v>25</v>
@@ -32182,10 +32182,10 @@
         <v>11</v>
       </c>
       <c r="C970">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D970">
-        <v>226806</v>
+        <v>225916</v>
       </c>
       <c r="E970" t="s">
         <v>25</v>
@@ -32374,10 +32374,10 @@
         <v>11</v>
       </c>
       <c r="C976">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D976">
-        <v>426851</v>
+        <v>426059</v>
       </c>
       <c r="E976" t="s">
         <v>25</v>
@@ -32630,10 +32630,10 @@
         <v>11</v>
       </c>
       <c r="C984">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D984">
-        <v>92821</v>
+        <v>92321</v>
       </c>
       <c r="E984" t="s">
         <v>25</v>
@@ -32854,10 +32854,10 @@
         <v>11</v>
       </c>
       <c r="C991">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D991">
-        <v>1161166</v>
+        <v>1158166</v>
       </c>
       <c r="E991" t="s">
         <v>25</v>
@@ -32886,10 +32886,10 @@
         <v>11</v>
       </c>
       <c r="C992">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D992">
-        <v>1572546</v>
+        <v>1568046</v>
       </c>
       <c r="E992" t="s">
         <v>25</v>
@@ -32950,10 +32950,10 @@
         <v>11</v>
       </c>
       <c r="C994">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D994">
-        <v>1069929</v>
+        <v>1066929</v>
       </c>
       <c r="E994" t="s">
         <v>25</v>
@@ -33046,10 +33046,10 @@
         <v>11</v>
       </c>
       <c r="C997">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D997">
-        <v>282066</v>
+        <v>279066</v>
       </c>
       <c r="E997" t="s">
         <v>25</v>
@@ -33142,10 +33142,10 @@
         <v>11</v>
       </c>
       <c r="C1000">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D1000">
-        <v>339248</v>
+        <v>339028</v>
       </c>
       <c r="E1000" t="s">
         <v>25</v>
@@ -33238,10 +33238,10 @@
         <v>11</v>
       </c>
       <c r="C1003">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D1003">
-        <v>1391917</v>
+        <v>1390483</v>
       </c>
       <c r="E1003" t="s">
         <v>25</v>
@@ -33302,10 +33302,10 @@
         <v>11</v>
       </c>
       <c r="C1005">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1005">
-        <v>769060</v>
+        <v>766524</v>
       </c>
       <c r="E1005" t="s">
         <v>25</v>
@@ -33366,10 +33366,10 @@
         <v>11</v>
       </c>
       <c r="C1007">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D1007">
-        <v>2285957</v>
+        <v>2282957</v>
       </c>
       <c r="E1007" t="s">
         <v>25</v>
@@ -33558,10 +33558,10 @@
         <v>11</v>
       </c>
       <c r="C1013">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1013">
-        <v>372954</v>
+        <v>371154</v>
       </c>
       <c r="E1013" t="s">
         <v>25</v>
@@ -33654,10 +33654,10 @@
         <v>11</v>
       </c>
       <c r="C1016">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D1016">
-        <v>506303</v>
+        <v>506043</v>
       </c>
       <c r="E1016" t="s">
         <v>25</v>
@@ -33686,10 +33686,10 @@
         <v>11</v>
       </c>
       <c r="C1017">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D1017">
-        <v>1197311</v>
+        <v>1196096</v>
       </c>
       <c r="E1017" t="s">
         <v>25</v>
@@ -33750,10 +33750,10 @@
         <v>11</v>
       </c>
       <c r="C1019">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="D1019">
-        <v>2106030</v>
+        <v>2105839</v>
       </c>
       <c r="E1019" t="s">
         <v>25</v>
@@ -33942,10 +33942,10 @@
         <v>11</v>
       </c>
       <c r="C1025">
-        <v>8284</v>
+        <v>8280</v>
       </c>
       <c r="D1025">
-        <v>11095039</v>
+        <v>11090591</v>
       </c>
       <c r="E1025" t="s">
         <v>25</v>
@@ -33974,10 +33974,10 @@
         <v>11</v>
       </c>
       <c r="C1026">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="D1026">
-        <v>2571646</v>
+        <v>2568646</v>
       </c>
       <c r="E1026" t="s">
         <v>25</v>
@@ -34038,10 +34038,10 @@
         <v>11</v>
       </c>
       <c r="C1028">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D1028">
-        <v>1167363</v>
+        <v>1162895</v>
       </c>
       <c r="E1028" t="s">
         <v>25</v>
@@ -34134,10 +34134,10 @@
         <v>11</v>
       </c>
       <c r="C1031">
-        <v>5233</v>
+        <v>5223</v>
       </c>
       <c r="D1031">
-        <v>7059115</v>
+        <v>7054313</v>
       </c>
       <c r="E1031" t="s">
         <v>25</v>
@@ -34166,10 +34166,10 @@
         <v>11</v>
       </c>
       <c r="C1032">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="D1032">
-        <v>2856304</v>
+        <v>2854388</v>
       </c>
       <c r="E1032" t="s">
         <v>25</v>
@@ -34198,10 +34198,10 @@
         <v>11</v>
       </c>
       <c r="C1033">
-        <v>2385</v>
+        <v>2377</v>
       </c>
       <c r="D1033">
-        <v>2843138</v>
+        <v>2834842</v>
       </c>
       <c r="E1033" t="s">
         <v>25</v>
@@ -34230,10 +34230,10 @@
         <v>11</v>
       </c>
       <c r="C1034">
-        <v>5926</v>
+        <v>5920</v>
       </c>
       <c r="D1034">
-        <v>7966115</v>
+        <v>7958237</v>
       </c>
       <c r="E1034" t="s">
         <v>25</v>
@@ -34262,10 +34262,10 @@
         <v>11</v>
       </c>
       <c r="C1035">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="D1035">
-        <v>2401830</v>
+        <v>2400730</v>
       </c>
       <c r="E1035" t="s">
         <v>25</v>
@@ -34294,10 +34294,10 @@
         <v>11</v>
       </c>
       <c r="C1036">
-        <v>6734</v>
+        <v>6728</v>
       </c>
       <c r="D1036">
-        <v>8128870</v>
+        <v>8125470</v>
       </c>
       <c r="E1036" t="s">
         <v>25</v>
@@ -34678,10 +34678,10 @@
         <v>11</v>
       </c>
       <c r="C1048">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D1048">
-        <v>368534</v>
+        <v>365984</v>
       </c>
       <c r="E1048" t="s">
         <v>25</v>
@@ -34710,10 +34710,10 @@
         <v>11</v>
       </c>
       <c r="C1049">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D1049">
-        <v>403159</v>
+        <v>400159</v>
       </c>
       <c r="E1049" t="s">
         <v>25</v>
@@ -35094,10 +35094,10 @@
         <v>11</v>
       </c>
       <c r="C1061">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1061">
-        <v>197844</v>
+        <v>196444</v>
       </c>
       <c r="E1061" t="s">
         <v>25</v>
@@ -35158,10 +35158,10 @@
         <v>11</v>
       </c>
       <c r="C1063">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D1063">
-        <v>470479</v>
+        <v>468694</v>
       </c>
       <c r="E1063" t="s">
         <v>25</v>
@@ -35190,10 +35190,10 @@
         <v>11</v>
       </c>
       <c r="C1064">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D1064">
-        <v>1292823</v>
+        <v>1291393</v>
       </c>
       <c r="E1064" t="s">
         <v>25</v>
@@ -35254,10 +35254,10 @@
         <v>11</v>
       </c>
       <c r="C1066">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D1066">
-        <v>750863</v>
+        <v>747550</v>
       </c>
       <c r="E1066" t="s">
         <v>25</v>
@@ -35286,10 +35286,10 @@
         <v>11</v>
       </c>
       <c r="C1067">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="D1067">
-        <v>1755297</v>
+        <v>1751821</v>
       </c>
       <c r="E1067" t="s">
         <v>25</v>
@@ -35318,10 +35318,10 @@
         <v>11</v>
       </c>
       <c r="C1068">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D1068">
-        <v>556297</v>
+        <v>554901</v>
       </c>
       <c r="E1068" t="s">
         <v>25</v>
@@ -35350,10 +35350,10 @@
         <v>11</v>
       </c>
       <c r="C1069">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="D1069">
-        <v>2189028</v>
+        <v>2186733</v>
       </c>
       <c r="E1069" t="s">
         <v>25</v>
@@ -35798,10 +35798,10 @@
         <v>11</v>
       </c>
       <c r="C1083">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D1083">
-        <v>780893</v>
+        <v>779583</v>
       </c>
       <c r="E1083" t="s">
         <v>25</v>
@@ -36054,10 +36054,10 @@
         <v>11</v>
       </c>
       <c r="C1091">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="D1091">
-        <v>4128951</v>
+        <v>4128575</v>
       </c>
       <c r="E1091" t="s">
         <v>25</v>
@@ -36214,10 +36214,10 @@
         <v>11</v>
       </c>
       <c r="C1096">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D1096">
-        <v>951879</v>
+        <v>951149</v>
       </c>
       <c r="E1096" t="s">
         <v>25</v>
@@ -36246,10 +36246,10 @@
         <v>11</v>
       </c>
       <c r="C1097">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D1097">
-        <v>2435735</v>
+        <v>2432735</v>
       </c>
       <c r="E1097" t="s">
         <v>25</v>
@@ -36310,10 +36310,10 @@
         <v>11</v>
       </c>
       <c r="C1099">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D1099">
-        <v>1446582</v>
+        <v>1443582</v>
       </c>
       <c r="E1099" t="s">
         <v>25</v>
@@ -36342,10 +36342,10 @@
         <v>11</v>
       </c>
       <c r="C1100">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="D1100">
-        <v>3491199</v>
+        <v>3488357</v>
       </c>
       <c r="E1100" t="s">
         <v>25</v>
@@ -36406,10 +36406,10 @@
         <v>11</v>
       </c>
       <c r="C1102">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="D1102">
-        <v>3329680</v>
+        <v>3329004</v>
       </c>
       <c r="E1102" t="s">
         <v>25</v>
@@ -36470,10 +36470,10 @@
         <v>11</v>
       </c>
       <c r="C1104">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D1104">
-        <v>462070</v>
+        <v>456070</v>
       </c>
       <c r="E1104" t="s">
         <v>25</v>
@@ -36630,10 +36630,10 @@
         <v>11</v>
       </c>
       <c r="C1109">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D1109">
-        <v>1253437</v>
+        <v>1250437</v>
       </c>
       <c r="E1109" t="s">
         <v>25</v>
@@ -36726,10 +36726,10 @@
         <v>11</v>
       </c>
       <c r="C1112">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D1112">
-        <v>376788</v>
+        <v>370788</v>
       </c>
       <c r="E1112" t="s">
         <v>25</v>
@@ -36854,10 +36854,10 @@
         <v>11</v>
       </c>
       <c r="C1116">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D1116">
-        <v>984492</v>
+        <v>983228</v>
       </c>
       <c r="E1116" t="s">
         <v>25</v>
@@ -36950,10 +36950,10 @@
         <v>11</v>
       </c>
       <c r="C1119">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D1119">
-        <v>268365</v>
+        <v>263507</v>
       </c>
       <c r="E1119" t="s">
         <v>26</v>
@@ -36982,10 +36982,10 @@
         <v>11</v>
       </c>
       <c r="C1120">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D1120">
-        <v>306362</v>
+        <v>301163</v>
       </c>
       <c r="E1120" t="s">
         <v>26</v>
@@ -37046,10 +37046,10 @@
         <v>11</v>
       </c>
       <c r="C1122">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D1122">
-        <v>831576</v>
+        <v>825576</v>
       </c>
       <c r="E1122" t="s">
         <v>26</v>
@@ -37078,10 +37078,10 @@
         <v>11</v>
       </c>
       <c r="C1123">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D1123">
-        <v>973766</v>
+        <v>968026</v>
       </c>
       <c r="E1123" t="s">
         <v>26</v>
@@ -37142,10 +37142,10 @@
         <v>11</v>
       </c>
       <c r="C1125">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="D1125">
-        <v>826417</v>
+        <v>815182</v>
       </c>
       <c r="E1125" t="s">
         <v>26</v>
@@ -37270,10 +37270,10 @@
         <v>11</v>
       </c>
       <c r="C1129">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1129">
-        <v>288429</v>
+        <v>287979</v>
       </c>
       <c r="E1129" t="s">
         <v>26</v>
@@ -37302,10 +37302,10 @@
         <v>11</v>
       </c>
       <c r="C1130">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D1130">
-        <v>221362</v>
+        <v>220602</v>
       </c>
       <c r="E1130" t="s">
         <v>26</v>
@@ -37334,10 +37334,10 @@
         <v>11</v>
       </c>
       <c r="C1131">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1131">
-        <v>313494</v>
+        <v>312976</v>
       </c>
       <c r="E1131" t="s">
         <v>26</v>
@@ -37366,10 +37366,10 @@
         <v>11</v>
       </c>
       <c r="C1132">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D1132">
-        <v>412926</v>
+        <v>411411</v>
       </c>
       <c r="E1132" t="s">
         <v>26</v>
@@ -37398,10 +37398,10 @@
         <v>11</v>
       </c>
       <c r="C1133">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D1133">
-        <v>223437</v>
+        <v>221466</v>
       </c>
       <c r="E1133" t="s">
         <v>26</v>
@@ -37430,10 +37430,10 @@
         <v>11</v>
       </c>
       <c r="C1134">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D1134">
-        <v>682576</v>
+        <v>680599</v>
       </c>
       <c r="E1134" t="s">
         <v>26</v>
@@ -37494,10 +37494,10 @@
         <v>11</v>
       </c>
       <c r="C1136">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D1136">
-        <v>551351</v>
+        <v>548333</v>
       </c>
       <c r="E1136" t="s">
         <v>26</v>
@@ -37558,10 +37558,10 @@
         <v>11</v>
       </c>
       <c r="C1138">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D1138">
-        <v>2166678</v>
+        <v>2163678</v>
       </c>
       <c r="E1138" t="s">
         <v>26</v>
@@ -37782,10 +37782,10 @@
         <v>11</v>
       </c>
       <c r="C1145">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D1145">
-        <v>969008</v>
+        <v>967020</v>
       </c>
       <c r="E1145" t="s">
         <v>26</v>
@@ -38678,10 +38678,10 @@
         <v>11</v>
       </c>
       <c r="C1173">
-        <v>4519</v>
+        <v>4517</v>
       </c>
       <c r="D1173">
-        <v>5945373</v>
+        <v>5942373</v>
       </c>
       <c r="E1173" t="s">
         <v>26</v>
@@ -38838,10 +38838,10 @@
         <v>11</v>
       </c>
       <c r="C1178">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D1178">
-        <v>590063</v>
+        <v>587828</v>
       </c>
       <c r="E1178" t="s">
         <v>26</v>
@@ -38934,10 +38934,10 @@
         <v>11</v>
       </c>
       <c r="C1181">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D1181">
-        <v>1175946</v>
+        <v>1175274</v>
       </c>
       <c r="E1181" t="s">
         <v>26</v>
@@ -38966,10 +38966,10 @@
         <v>11</v>
       </c>
       <c r="C1182">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="D1182">
-        <v>1972464</v>
+        <v>1971652</v>
       </c>
       <c r="E1182" t="s">
         <v>26</v>
@@ -39510,10 +39510,10 @@
         <v>11</v>
       </c>
       <c r="C1199">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D1199">
-        <v>529471</v>
+        <v>526701</v>
       </c>
       <c r="E1199" t="s">
         <v>26</v>
@@ -39542,10 +39542,10 @@
         <v>11</v>
       </c>
       <c r="C1200">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D1200">
-        <v>204450</v>
+        <v>203048</v>
       </c>
       <c r="E1200" t="s">
         <v>26</v>
@@ -39734,10 +39734,10 @@
         <v>11</v>
       </c>
       <c r="C1206">
-        <v>5810</v>
+        <v>5801</v>
       </c>
       <c r="D1206">
-        <v>7721829</v>
+        <v>7712689</v>
       </c>
       <c r="E1206" t="s">
         <v>26</v>
@@ -39894,10 +39894,10 @@
         <v>11</v>
       </c>
       <c r="C1211">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D1211">
-        <v>1268014</v>
+        <v>1267137</v>
       </c>
       <c r="E1211" t="s">
         <v>26</v>
@@ -39926,10 +39926,10 @@
         <v>11</v>
       </c>
       <c r="C1212">
-        <v>4080</v>
+        <v>4076</v>
       </c>
       <c r="D1212">
-        <v>5511774</v>
+        <v>5507572</v>
       </c>
       <c r="E1212" t="s">
         <v>26</v>
@@ -39958,10 +39958,10 @@
         <v>11</v>
       </c>
       <c r="C1213">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D1213">
-        <v>2192040</v>
+        <v>2191366</v>
       </c>
       <c r="E1213" t="s">
         <v>26</v>
@@ -39990,10 +39990,10 @@
         <v>11</v>
       </c>
       <c r="C1214">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="D1214">
-        <v>2552469</v>
+        <v>2548918</v>
       </c>
       <c r="E1214" t="s">
         <v>26</v>
@@ -40022,10 +40022,10 @@
         <v>11</v>
       </c>
       <c r="C1215">
-        <v>4935</v>
+        <v>4920</v>
       </c>
       <c r="D1215">
-        <v>6613080</v>
+        <v>6594725</v>
       </c>
       <c r="E1215" t="s">
         <v>26</v>
@@ -40054,10 +40054,10 @@
         <v>11</v>
       </c>
       <c r="C1216">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="D1216">
-        <v>2066621</v>
+        <v>2056930</v>
       </c>
       <c r="E1216" t="s">
         <v>26</v>
@@ -40086,10 +40086,10 @@
         <v>11</v>
       </c>
       <c r="C1217">
-        <v>4878</v>
+        <v>4872</v>
       </c>
       <c r="D1217">
-        <v>5824081</v>
+        <v>5819658</v>
       </c>
       <c r="E1217" t="s">
         <v>26</v>
@@ -40534,10 +40534,10 @@
         <v>11</v>
       </c>
       <c r="C1231">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D1231">
-        <v>664304</v>
+        <v>663994</v>
       </c>
       <c r="E1231" t="s">
         <v>26</v>
@@ -40662,10 +40662,10 @@
         <v>11</v>
       </c>
       <c r="C1235">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D1235">
-        <v>1796055</v>
+        <v>1795015</v>
       </c>
       <c r="E1235" t="s">
         <v>26</v>
@@ -40790,10 +40790,10 @@
         <v>11</v>
       </c>
       <c r="C1239">
-        <v>6987</v>
+        <v>6981</v>
       </c>
       <c r="D1239">
-        <v>9200634</v>
+        <v>9193830</v>
       </c>
       <c r="E1239" t="s">
         <v>26</v>
@@ -40822,10 +40822,10 @@
         <v>11</v>
       </c>
       <c r="C1240">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D1240">
-        <v>1233756</v>
+        <v>1232616</v>
       </c>
       <c r="E1240" t="s">
         <v>26</v>
@@ -40854,10 +40854,10 @@
         <v>11</v>
       </c>
       <c r="C1241">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="D1241">
-        <v>6519490</v>
+        <v>6517939</v>
       </c>
       <c r="E1241" t="s">
         <v>26</v>
@@ -40918,10 +40918,10 @@
         <v>11</v>
       </c>
       <c r="C1243">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D1243">
-        <v>428511</v>
+        <v>426802</v>
       </c>
       <c r="E1243" t="s">
         <v>26</v>
@@ -40950,10 +40950,10 @@
         <v>11</v>
       </c>
       <c r="C1244">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="D1244">
-        <v>1905423</v>
+        <v>1899541</v>
       </c>
       <c r="E1244" t="s">
         <v>26</v>
@@ -40982,10 +40982,10 @@
         <v>11</v>
       </c>
       <c r="C1245">
-        <v>3824</v>
+        <v>3820</v>
       </c>
       <c r="D1245">
-        <v>5208260</v>
+        <v>5204650</v>
       </c>
       <c r="E1245" t="s">
         <v>26</v>
@@ -41046,10 +41046,10 @@
         <v>11</v>
       </c>
       <c r="C1247">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="D1247">
-        <v>2330710</v>
+        <v>2323270</v>
       </c>
       <c r="E1247" t="s">
         <v>26</v>
@@ -41078,10 +41078,10 @@
         <v>11</v>
       </c>
       <c r="C1248">
-        <v>3765</v>
+        <v>3759</v>
       </c>
       <c r="D1248">
-        <v>5044512</v>
+        <v>5037483</v>
       </c>
       <c r="E1248" t="s">
         <v>26</v>
@@ -41142,10 +41142,10 @@
         <v>11</v>
       </c>
       <c r="C1250">
-        <v>4891</v>
+        <v>4889</v>
       </c>
       <c r="D1250">
-        <v>5676871</v>
+        <v>5676745</v>
       </c>
       <c r="E1250" t="s">
         <v>26</v>
@@ -41334,10 +41334,10 @@
         <v>11</v>
       </c>
       <c r="C1256">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D1256">
-        <v>1181543</v>
+        <v>1178543</v>
       </c>
       <c r="E1256" t="s">
         <v>26</v>
@@ -41398,10 +41398,10 @@
         <v>11</v>
       </c>
       <c r="C1258">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D1258">
-        <v>1165543</v>
+        <v>1162543</v>
       </c>
       <c r="E1258" t="s">
         <v>26</v>
@@ -41590,10 +41590,10 @@
         <v>11</v>
       </c>
       <c r="C1264">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1264">
-        <v>195827</v>
+        <v>194777</v>
       </c>
       <c r="E1264" t="s">
         <v>26</v>
@@ -42454,10 +42454,10 @@
         <v>11</v>
       </c>
       <c r="C1291">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D1291">
-        <v>910632</v>
+        <v>907632</v>
       </c>
       <c r="E1291" t="s">
         <v>26</v>
@@ -42486,10 +42486,10 @@
         <v>11</v>
       </c>
       <c r="C1292">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D1292">
-        <v>1331616</v>
+        <v>1328616</v>
       </c>
       <c r="E1292" t="s">
         <v>26</v>
@@ -42646,10 +42646,10 @@
         <v>11</v>
       </c>
       <c r="C1297">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D1297">
-        <v>2346893</v>
+        <v>2343893</v>
       </c>
       <c r="E1297" t="s">
         <v>26</v>
@@ -42966,10 +42966,10 @@
         <v>11</v>
       </c>
       <c r="C1307">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1307">
-        <v>361771</v>
+        <v>359749</v>
       </c>
       <c r="E1307" t="s">
         <v>26</v>
@@ -43062,10 +43062,10 @@
         <v>11</v>
       </c>
       <c r="C1310">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D1310">
-        <v>586524</v>
+        <v>585984</v>
       </c>
       <c r="E1310" t="s">
         <v>26</v>
@@ -43094,10 +43094,10 @@
         <v>11</v>
       </c>
       <c r="C1311">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D1311">
-        <v>1136851</v>
+        <v>1136303</v>
       </c>
       <c r="E1311" t="s">
         <v>26</v>
@@ -43126,10 +43126,10 @@
         <v>11</v>
       </c>
       <c r="C1312">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D1312">
-        <v>465728</v>
+        <v>462728</v>
       </c>
       <c r="E1312" t="s">
         <v>26</v>
@@ -43510,10 +43510,10 @@
         <v>11</v>
       </c>
       <c r="C1324">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D1324">
-        <v>547756</v>
+        <v>544756</v>
       </c>
       <c r="E1324" t="s">
         <v>26</v>
@@ -43638,10 +43638,10 @@
         <v>11</v>
       </c>
       <c r="C1328">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D1328">
-        <v>259474</v>
+        <v>256474</v>
       </c>
       <c r="E1328" t="s">
         <v>26</v>
@@ -43670,10 +43670,10 @@
         <v>11</v>
       </c>
       <c r="C1329">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D1329">
-        <v>1159745</v>
+        <v>1158549</v>
       </c>
       <c r="E1329" t="s">
         <v>26</v>
@@ -43702,10 +43702,10 @@
         <v>11</v>
       </c>
       <c r="C1330">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D1330">
-        <v>594040</v>
+        <v>592045</v>
       </c>
       <c r="E1330" t="s">
         <v>27</v>
@@ -43766,10 +43766,10 @@
         <v>11</v>
       </c>
       <c r="C1332">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D1332">
-        <v>1501592</v>
+        <v>1501061</v>
       </c>
       <c r="E1332" t="s">
         <v>27</v>
@@ -43830,10 +43830,10 @@
         <v>11</v>
       </c>
       <c r="C1334">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="D1334">
-        <v>4443289</v>
+        <v>4440289</v>
       </c>
       <c r="E1334" t="s">
         <v>27</v>
@@ -43862,10 +43862,10 @@
         <v>11</v>
       </c>
       <c r="C1335">
-        <v>4839</v>
+        <v>4835</v>
       </c>
       <c r="D1335">
-        <v>6410496</v>
+        <v>6404789</v>
       </c>
       <c r="E1335" t="s">
         <v>27</v>
@@ -43894,10 +43894,10 @@
         <v>11</v>
       </c>
       <c r="C1336">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D1336">
-        <v>1394777</v>
+        <v>1388777</v>
       </c>
       <c r="E1336" t="s">
         <v>27</v>
@@ -44054,10 +44054,10 @@
         <v>11</v>
       </c>
       <c r="C1341">
-        <v>3480</v>
+        <v>3474</v>
       </c>
       <c r="D1341">
-        <v>4737727</v>
+        <v>4732542</v>
       </c>
       <c r="E1341" t="s">
         <v>27</v>
@@ -44150,10 +44150,10 @@
         <v>11</v>
       </c>
       <c r="C1344">
-        <v>4502</v>
+        <v>4494</v>
       </c>
       <c r="D1344">
-        <v>6066995</v>
+        <v>6060633</v>
       </c>
       <c r="E1344" t="s">
         <v>27</v>
@@ -44182,10 +44182,10 @@
         <v>11</v>
       </c>
       <c r="C1345">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="D1345">
-        <v>1914341</v>
+        <v>1908341</v>
       </c>
       <c r="E1345" t="s">
         <v>27</v>
@@ -44214,10 +44214,10 @@
         <v>11</v>
       </c>
       <c r="C1346">
-        <v>4445</v>
+        <v>4437</v>
       </c>
       <c r="D1346">
-        <v>5531298</v>
+        <v>5528825</v>
       </c>
       <c r="E1346" t="s">
         <v>27</v>
@@ -44246,10 +44246,10 @@
         <v>11</v>
       </c>
       <c r="C1347">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D1347">
-        <v>527107</v>
+        <v>525245</v>
       </c>
       <c r="E1347" t="s">
         <v>27</v>
@@ -44278,10 +44278,10 @@
         <v>11</v>
       </c>
       <c r="C1348">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D1348">
-        <v>834026</v>
+        <v>831026</v>
       </c>
       <c r="E1348" t="s">
         <v>27</v>
@@ -44566,10 +44566,10 @@
         <v>11</v>
       </c>
       <c r="C1357">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D1357">
-        <v>539177</v>
+        <v>536177</v>
       </c>
       <c r="E1357" t="s">
         <v>27</v>
@@ -44598,10 +44598,10 @@
         <v>11</v>
       </c>
       <c r="C1358">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D1358">
-        <v>1572122</v>
+        <v>1566160</v>
       </c>
       <c r="E1358" t="s">
         <v>27</v>
@@ -44662,10 +44662,10 @@
         <v>11</v>
       </c>
       <c r="C1360">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D1360">
-        <v>778247</v>
+        <v>775557</v>
       </c>
       <c r="E1360" t="s">
         <v>27</v>
@@ -44694,10 +44694,10 @@
         <v>11</v>
       </c>
       <c r="C1361">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="D1361">
-        <v>2299422</v>
+        <v>2290601</v>
       </c>
       <c r="E1361" t="s">
         <v>27</v>
@@ -44758,10 +44758,10 @@
         <v>11</v>
       </c>
       <c r="C1363">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="D1363">
-        <v>3185899</v>
+        <v>3185319</v>
       </c>
       <c r="E1363" t="s">
         <v>27</v>
@@ -45110,10 +45110,10 @@
         <v>11</v>
       </c>
       <c r="C1374">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D1374">
-        <v>404543</v>
+        <v>403796</v>
       </c>
       <c r="E1374" t="s">
         <v>27</v>
@@ -45238,10 +45238,10 @@
         <v>11</v>
       </c>
       <c r="C1378">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D1378">
-        <v>231753</v>
+        <v>231153</v>
       </c>
       <c r="E1378" t="s">
         <v>27</v>
@@ -45462,10 +45462,10 @@
         <v>11</v>
       </c>
       <c r="C1385">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1385">
-        <v>215627</v>
+        <v>213478</v>
       </c>
       <c r="E1385" t="s">
         <v>27</v>
@@ -45622,10 +45622,10 @@
         <v>11</v>
       </c>
       <c r="C1390">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D1390">
-        <v>765590</v>
+        <v>764472</v>
       </c>
       <c r="E1390" t="s">
         <v>27</v>
@@ -45942,10 +45942,10 @@
         <v>11</v>
       </c>
       <c r="C1400">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="D1400">
-        <v>2180635</v>
+        <v>2177635</v>
       </c>
       <c r="E1400" t="s">
         <v>27</v>
@@ -46134,10 +46134,10 @@
         <v>11</v>
       </c>
       <c r="C1406">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D1406">
-        <v>669525</v>
+        <v>666990</v>
       </c>
       <c r="E1406" t="s">
         <v>27</v>
@@ -46166,10 +46166,10 @@
         <v>11</v>
       </c>
       <c r="C1407">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D1407">
-        <v>1469082</v>
+        <v>1465226</v>
       </c>
       <c r="E1407" t="s">
         <v>27</v>
@@ -46198,10 +46198,10 @@
         <v>11</v>
       </c>
       <c r="C1408">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D1408">
-        <v>699876</v>
+        <v>696396</v>
       </c>
       <c r="E1408" t="s">
         <v>27</v>
@@ -46262,10 +46262,10 @@
         <v>11</v>
       </c>
       <c r="C1410">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D1410">
-        <v>2100496</v>
+        <v>2097496</v>
       </c>
       <c r="E1410" t="s">
         <v>27</v>
@@ -46294,10 +46294,10 @@
         <v>11</v>
       </c>
       <c r="C1411">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D1411">
-        <v>707923</v>
+        <v>707071</v>
       </c>
       <c r="E1411" t="s">
         <v>27</v>
@@ -46390,10 +46390,10 @@
         <v>11</v>
       </c>
       <c r="C1414">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D1414">
-        <v>2140798</v>
+        <v>2138148</v>
       </c>
       <c r="E1414" t="s">
         <v>28</v>
@@ -46486,10 +46486,10 @@
         <v>11</v>
       </c>
       <c r="C1417">
-        <v>7449</v>
+        <v>7447</v>
       </c>
       <c r="D1417">
-        <v>10105329</v>
+        <v>10104863</v>
       </c>
       <c r="E1417" t="s">
         <v>28</v>
@@ -46518,10 +46518,10 @@
         <v>11</v>
       </c>
       <c r="C1418">
-        <v>3224</v>
+        <v>3222</v>
       </c>
       <c r="D1418">
-        <v>4534609</v>
+        <v>4532207</v>
       </c>
       <c r="E1418" t="s">
         <v>28</v>
@@ -46582,10 +46582,10 @@
         <v>11</v>
       </c>
       <c r="C1420">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D1420">
-        <v>1100042</v>
+        <v>1094042</v>
       </c>
       <c r="E1420" t="s">
         <v>28</v>
@@ -46646,10 +46646,10 @@
         <v>11</v>
       </c>
       <c r="C1422">
-        <v>2392</v>
+        <v>2382</v>
       </c>
       <c r="D1422">
-        <v>3341636</v>
+        <v>3329352</v>
       </c>
       <c r="E1422" t="s">
         <v>28</v>
@@ -46678,10 +46678,10 @@
         <v>11</v>
       </c>
       <c r="C1423">
-        <v>4301</v>
+        <v>4291</v>
       </c>
       <c r="D1423">
-        <v>5855441</v>
+        <v>5842926</v>
       </c>
       <c r="E1423" t="s">
         <v>28</v>
@@ -46710,10 +46710,10 @@
         <v>11</v>
       </c>
       <c r="C1424">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="D1424">
-        <v>3415133</v>
+        <v>3412133</v>
       </c>
       <c r="E1424" t="s">
         <v>28</v>
@@ -46742,10 +46742,10 @@
         <v>11</v>
       </c>
       <c r="C1425">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="D1425">
-        <v>2854392</v>
+        <v>2852443</v>
       </c>
       <c r="E1425" t="s">
         <v>28</v>
@@ -46774,10 +46774,10 @@
         <v>11</v>
       </c>
       <c r="C1426">
-        <v>3661</v>
+        <v>3655</v>
       </c>
       <c r="D1426">
-        <v>4862522</v>
+        <v>4857259</v>
       </c>
       <c r="E1426" t="s">
         <v>28</v>
@@ -46806,10 +46806,10 @@
         <v>11</v>
       </c>
       <c r="C1427">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="D1427">
-        <v>2089858</v>
+        <v>2081923</v>
       </c>
       <c r="E1427" t="s">
         <v>28</v>
@@ -46838,10 +46838,10 @@
         <v>11</v>
       </c>
       <c r="C1428">
-        <v>5575</v>
+        <v>5573</v>
       </c>
       <c r="D1428">
-        <v>6859919</v>
+        <v>6856919</v>
       </c>
       <c r="E1428" t="s">
         <v>28</v>
@@ -46998,10 +46998,10 @@
         <v>11</v>
       </c>
       <c r="C1433">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D1433">
-        <v>961798</v>
+        <v>958798</v>
       </c>
       <c r="E1433" t="s">
         <v>28</v>
@@ -47094,10 +47094,10 @@
         <v>11</v>
       </c>
       <c r="C1436">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D1436">
-        <v>1447624</v>
+        <v>1445748</v>
       </c>
       <c r="E1436" t="s">
         <v>28</v>
@@ -47446,10 +47446,10 @@
         <v>11</v>
       </c>
       <c r="C1447">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="D1447">
-        <v>3222187</v>
+        <v>3219187</v>
       </c>
       <c r="E1447" t="s">
         <v>28</v>
@@ -47542,10 +47542,10 @@
         <v>11</v>
       </c>
       <c r="C1450">
-        <v>6774</v>
+        <v>6772</v>
       </c>
       <c r="D1450">
-        <v>9678637</v>
+        <v>9675637</v>
       </c>
       <c r="E1450" t="s">
         <v>28</v>
@@ -47574,10 +47574,10 @@
         <v>11</v>
       </c>
       <c r="C1451">
-        <v>11193</v>
+        <v>11189</v>
       </c>
       <c r="D1451">
-        <v>14942705</v>
+        <v>14937075</v>
       </c>
       <c r="E1451" t="s">
         <v>28</v>
@@ -47606,10 +47606,10 @@
         <v>11</v>
       </c>
       <c r="C1452">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="D1452">
-        <v>3605305</v>
+        <v>3604269</v>
       </c>
       <c r="E1452" t="s">
         <v>28</v>
@@ -47638,10 +47638,10 @@
         <v>11</v>
       </c>
       <c r="C1453">
-        <v>6306</v>
+        <v>6304</v>
       </c>
       <c r="D1453">
-        <v>9110322</v>
+        <v>9107322</v>
       </c>
       <c r="E1453" t="s">
         <v>28</v>
@@ -47702,10 +47702,10 @@
         <v>11</v>
       </c>
       <c r="C1455">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D1455">
-        <v>765257</v>
+        <v>762657</v>
       </c>
       <c r="E1455" t="s">
         <v>28</v>
@@ -47734,10 +47734,10 @@
         <v>11</v>
       </c>
       <c r="C1456">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D1456">
-        <v>2418265</v>
+        <v>2413753</v>
       </c>
       <c r="E1456" t="s">
         <v>28</v>
@@ -47766,10 +47766,10 @@
         <v>11</v>
       </c>
       <c r="C1457">
-        <v>6553</v>
+        <v>6539</v>
       </c>
       <c r="D1457">
-        <v>9024910</v>
+        <v>9011692</v>
       </c>
       <c r="E1457" t="s">
         <v>28</v>
@@ -47830,10 +47830,10 @@
         <v>11</v>
       </c>
       <c r="C1459">
-        <v>2831</v>
+        <v>2821</v>
       </c>
       <c r="D1459">
-        <v>3399411</v>
+        <v>3392503</v>
       </c>
       <c r="E1459" t="s">
         <v>28</v>
@@ -47862,10 +47862,10 @@
         <v>11</v>
       </c>
       <c r="C1460">
-        <v>6140</v>
+        <v>6128</v>
       </c>
       <c r="D1460">
-        <v>8272911</v>
+        <v>8256239</v>
       </c>
       <c r="E1460" t="s">
         <v>28</v>
@@ -47894,10 +47894,10 @@
         <v>11</v>
       </c>
       <c r="C1461">
-        <v>2469</v>
+        <v>2459</v>
       </c>
       <c r="D1461">
-        <v>3079915</v>
+        <v>3072772</v>
       </c>
       <c r="E1461" t="s">
         <v>28</v>
@@ -47926,10 +47926,10 @@
         <v>11</v>
       </c>
       <c r="C1462">
-        <v>7508</v>
+        <v>7498</v>
       </c>
       <c r="D1462">
-        <v>9006928</v>
+        <v>8994828</v>
       </c>
       <c r="E1462" t="s">
         <v>28</v>
@@ -48374,10 +48374,10 @@
         <v>11</v>
       </c>
       <c r="C1476">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D1476">
-        <v>791098</v>
+        <v>790176</v>
       </c>
       <c r="E1476" t="s">
         <v>28</v>
@@ -48630,10 +48630,10 @@
         <v>11</v>
       </c>
       <c r="C1484">
-        <v>7775</v>
+        <v>7772</v>
       </c>
       <c r="D1484">
-        <v>10263557</v>
+        <v>10259057</v>
       </c>
       <c r="E1484" t="s">
         <v>28</v>
@@ -48694,10 +48694,10 @@
         <v>11</v>
       </c>
       <c r="C1486">
-        <v>4313</v>
+        <v>4311</v>
       </c>
       <c r="D1486">
-        <v>6216325</v>
+        <v>6213457</v>
       </c>
       <c r="E1486" t="s">
         <v>28</v>
@@ -48726,10 +48726,10 @@
         <v>11</v>
       </c>
       <c r="C1487">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D1487">
-        <v>553220</v>
+        <v>550220</v>
       </c>
       <c r="E1487" t="s">
         <v>28</v>
@@ -48822,10 +48822,10 @@
         <v>11</v>
       </c>
       <c r="C1490">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="D1490">
-        <v>3774123</v>
+        <v>3771851</v>
       </c>
       <c r="E1490" t="s">
         <v>28</v>
@@ -48886,10 +48886,10 @@
         <v>11</v>
       </c>
       <c r="C1492">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="D1492">
-        <v>2076710</v>
+        <v>2073224</v>
       </c>
       <c r="E1492" t="s">
         <v>28</v>
@@ -48918,10 +48918,10 @@
         <v>11</v>
       </c>
       <c r="C1493">
-        <v>3160</v>
+        <v>3154</v>
       </c>
       <c r="D1493">
-        <v>4168524</v>
+        <v>4166808</v>
       </c>
       <c r="E1493" t="s">
         <v>28</v>
@@ -48950,10 +48950,10 @@
         <v>11</v>
       </c>
       <c r="C1494">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D1494">
-        <v>1609823</v>
+        <v>1608097</v>
       </c>
       <c r="E1494" t="s">
         <v>28</v>
@@ -48982,10 +48982,10 @@
         <v>11</v>
       </c>
       <c r="C1495">
-        <v>5479</v>
+        <v>5475</v>
       </c>
       <c r="D1495">
-        <v>6484431</v>
+        <v>6481724</v>
       </c>
       <c r="E1495" t="s">
         <v>28</v>
@@ -49046,10 +49046,10 @@
         <v>11</v>
       </c>
       <c r="C1497">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D1497">
-        <v>1100559</v>
+        <v>1097974</v>
       </c>
       <c r="E1497" t="s">
         <v>28</v>
@@ -49334,10 +49334,10 @@
         <v>11</v>
       </c>
       <c r="C1506">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D1506">
-        <v>1825905</v>
+        <v>1822905</v>
       </c>
       <c r="E1506" t="s">
         <v>28</v>
@@ -49430,10 +49430,10 @@
         <v>11</v>
       </c>
       <c r="C1509">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D1509">
-        <v>2052819</v>
+        <v>2051314</v>
       </c>
       <c r="E1509" t="s">
         <v>28</v>
@@ -49462,10 +49462,10 @@
         <v>11</v>
       </c>
       <c r="C1510">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D1510">
-        <v>981751</v>
+        <v>978198</v>
       </c>
       <c r="E1510" t="s">
         <v>28</v>
@@ -49654,10 +49654,10 @@
         <v>11</v>
       </c>
       <c r="C1516">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="D1516">
-        <v>4220043</v>
+        <v>4217043</v>
       </c>
       <c r="E1516" t="s">
         <v>29</v>
@@ -49718,10 +49718,10 @@
         <v>11</v>
       </c>
       <c r="C1518">
-        <v>3685</v>
+        <v>3677</v>
       </c>
       <c r="D1518">
-        <v>5338008</v>
+        <v>5330688</v>
       </c>
       <c r="E1518" t="s">
         <v>29</v>
@@ -49846,10 +49846,10 @@
         <v>11</v>
       </c>
       <c r="C1522">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D1522">
-        <v>958577</v>
+        <v>956377</v>
       </c>
       <c r="E1522" t="s">
         <v>29</v>
@@ -49878,10 +49878,10 @@
         <v>11</v>
       </c>
       <c r="C1523">
-        <v>2140</v>
+        <v>2128</v>
       </c>
       <c r="D1523">
-        <v>2895150</v>
+        <v>2883164</v>
       </c>
       <c r="E1523" t="s">
         <v>29</v>
@@ -49910,10 +49910,10 @@
         <v>11</v>
       </c>
       <c r="C1524">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D1524">
-        <v>1349022</v>
+        <v>1347244</v>
       </c>
       <c r="E1524" t="s">
         <v>29</v>
@@ -49974,10 +49974,10 @@
         <v>11</v>
       </c>
       <c r="C1526">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D1526">
-        <v>3090451</v>
+        <v>3087451</v>
       </c>
       <c r="E1526" t="s">
         <v>29</v>
@@ -50006,10 +50006,10 @@
         <v>11</v>
       </c>
       <c r="C1527">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D1527">
-        <v>1195500</v>
+        <v>1192620</v>
       </c>
       <c r="E1527" t="s">
         <v>29</v>
@@ -50038,10 +50038,10 @@
         <v>11</v>
       </c>
       <c r="C1528">
-        <v>2984</v>
+        <v>2978</v>
       </c>
       <c r="D1528">
-        <v>3782462</v>
+        <v>3775619</v>
       </c>
       <c r="E1528" t="s">
         <v>29</v>
@@ -50262,10 +50262,10 @@
         <v>11</v>
       </c>
       <c r="C1535">
-        <v>6243</v>
+        <v>6235</v>
       </c>
       <c r="D1535">
-        <v>8977818</v>
+        <v>8965818</v>
       </c>
       <c r="E1535" t="s">
         <v>29</v>
@@ -50294,10 +50294,10 @@
         <v>11</v>
       </c>
       <c r="C1536">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="D1536">
-        <v>4676911</v>
+        <v>4673911</v>
       </c>
       <c r="E1536" t="s">
         <v>29</v>
@@ -50326,10 +50326,10 @@
         <v>11</v>
       </c>
       <c r="C1537">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="D1537">
-        <v>2582807</v>
+        <v>2572596</v>
       </c>
       <c r="E1537" t="s">
         <v>29</v>
@@ -50390,10 +50390,10 @@
         <v>11</v>
       </c>
       <c r="C1539">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="D1539">
-        <v>1774895</v>
+        <v>1769105</v>
       </c>
       <c r="E1539" t="s">
         <v>29</v>
@@ -50422,10 +50422,10 @@
         <v>11</v>
       </c>
       <c r="C1540">
-        <v>6395</v>
+        <v>6371</v>
       </c>
       <c r="D1540">
-        <v>8912282</v>
+        <v>8879250</v>
       </c>
       <c r="E1540" t="s">
         <v>29</v>
@@ -50486,10 +50486,10 @@
         <v>11</v>
       </c>
       <c r="C1542">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="D1542">
-        <v>2377428</v>
+        <v>2375215</v>
       </c>
       <c r="E1542" t="s">
         <v>29</v>
@@ -50518,10 +50518,10 @@
         <v>11</v>
       </c>
       <c r="C1543">
-        <v>3990</v>
+        <v>3986</v>
       </c>
       <c r="D1543">
-        <v>5442899</v>
+        <v>5441356</v>
       </c>
       <c r="E1543" t="s">
         <v>29</v>
@@ -50550,10 +50550,10 @@
         <v>11</v>
       </c>
       <c r="C1544">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D1544">
-        <v>2596294</v>
+        <v>2591801</v>
       </c>
       <c r="E1544" t="s">
         <v>29</v>
@@ -50582,10 +50582,10 @@
         <v>11</v>
       </c>
       <c r="C1545">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="D1545">
-        <v>4275031</v>
+        <v>4271701</v>
       </c>
       <c r="E1545" t="s">
         <v>29</v>
@@ -50646,10 +50646,10 @@
         <v>11</v>
       </c>
       <c r="C1547">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="D1547">
-        <v>4213785</v>
+        <v>4211695</v>
       </c>
       <c r="E1547" t="s">
         <v>29</v>
@@ -50742,10 +50742,10 @@
         <v>11</v>
       </c>
       <c r="C1550">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="D1550">
-        <v>5046450</v>
+        <v>5043450</v>
       </c>
       <c r="E1550" t="s">
         <v>29</v>
@@ -50774,10 +50774,10 @@
         <v>11</v>
       </c>
       <c r="C1551">
-        <v>14490</v>
+        <v>14482</v>
       </c>
       <c r="D1551">
-        <v>20488829</v>
+        <v>20478009</v>
       </c>
       <c r="E1551" t="s">
         <v>29</v>
@@ -50806,10 +50806,10 @@
         <v>11</v>
       </c>
       <c r="C1552">
-        <v>6745</v>
+        <v>6739</v>
       </c>
       <c r="D1552">
-        <v>9577581</v>
+        <v>9570971</v>
       </c>
       <c r="E1552" t="s">
         <v>29</v>
@@ -50838,10 +50838,10 @@
         <v>11</v>
       </c>
       <c r="C1553">
-        <v>11724</v>
+        <v>11718</v>
       </c>
       <c r="D1553">
-        <v>17374298</v>
+        <v>17367984</v>
       </c>
       <c r="E1553" t="s">
         <v>29</v>
@@ -50870,10 +50870,10 @@
         <v>11</v>
       </c>
       <c r="C1554">
-        <v>5453</v>
+        <v>5443</v>
       </c>
       <c r="D1554">
-        <v>7490033</v>
+        <v>7477180</v>
       </c>
       <c r="E1554" t="s">
         <v>29</v>
@@ -50966,10 +50966,10 @@
         <v>11</v>
       </c>
       <c r="C1557">
-        <v>23489</v>
+        <v>23437</v>
       </c>
       <c r="D1557">
-        <v>32715758</v>
+        <v>32654268</v>
       </c>
       <c r="E1557" t="s">
         <v>29</v>
@@ -50998,10 +50998,10 @@
         <v>11</v>
       </c>
       <c r="C1558">
-        <v>4110</v>
+        <v>4100</v>
       </c>
       <c r="D1558">
-        <v>5577768</v>
+        <v>5567560</v>
       </c>
       <c r="E1558" t="s">
         <v>29</v>
@@ -51030,10 +51030,10 @@
         <v>11</v>
       </c>
       <c r="C1559">
-        <v>4292</v>
+        <v>4272</v>
       </c>
       <c r="D1559">
-        <v>5303975</v>
+        <v>5284010</v>
       </c>
       <c r="E1559" t="s">
         <v>29</v>
@@ -51062,10 +51062,10 @@
         <v>11</v>
       </c>
       <c r="C1560">
-        <v>8482</v>
+        <v>8468</v>
       </c>
       <c r="D1560">
-        <v>11710830</v>
+        <v>11695861</v>
       </c>
       <c r="E1560" t="s">
         <v>29</v>
@@ -51094,10 +51094,10 @@
         <v>11</v>
       </c>
       <c r="C1561">
-        <v>8633</v>
+        <v>8608</v>
       </c>
       <c r="D1561">
-        <v>11350834</v>
+        <v>11324092</v>
       </c>
       <c r="E1561" t="s">
         <v>29</v>
@@ -51126,10 +51126,10 @@
         <v>11</v>
       </c>
       <c r="C1562">
-        <v>8187</v>
+        <v>8179</v>
       </c>
       <c r="D1562">
-        <v>11191068</v>
+        <v>11181228</v>
       </c>
       <c r="E1562" t="s">
         <v>29</v>
@@ -51318,10 +51318,10 @@
         <v>11</v>
       </c>
       <c r="C1568">
-        <v>6162</v>
+        <v>6159</v>
       </c>
       <c r="D1568">
-        <v>8302343</v>
+        <v>8297843</v>
       </c>
       <c r="E1568" t="s">
         <v>29</v>
@@ -51382,10 +51382,10 @@
         <v>11</v>
       </c>
       <c r="C1570">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="D1570">
-        <v>3628026</v>
+        <v>3625973</v>
       </c>
       <c r="E1570" t="s">
         <v>29</v>
@@ -51414,10 +51414,10 @@
         <v>11</v>
       </c>
       <c r="C1571">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D1571">
-        <v>1435464</v>
+        <v>1428838</v>
       </c>
       <c r="E1571" t="s">
         <v>29</v>
@@ -51478,10 +51478,10 @@
         <v>11</v>
       </c>
       <c r="C1573">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D1573">
-        <v>719151</v>
+        <v>716151</v>
       </c>
       <c r="E1573" t="s">
         <v>29</v>
@@ -51510,10 +51510,10 @@
         <v>11</v>
       </c>
       <c r="C1574">
-        <v>3575</v>
+        <v>3568</v>
       </c>
       <c r="D1574">
-        <v>4914602</v>
+        <v>4906168</v>
       </c>
       <c r="E1574" t="s">
         <v>29</v>
@@ -51574,10 +51574,10 @@
         <v>11</v>
       </c>
       <c r="C1576">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="D1576">
-        <v>1705920</v>
+        <v>1695515</v>
       </c>
       <c r="E1576" t="s">
         <v>29</v>
@@ -51638,10 +51638,10 @@
         <v>11</v>
       </c>
       <c r="C1578">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="D1578">
-        <v>2261065</v>
+        <v>2256136</v>
       </c>
       <c r="E1578" t="s">
         <v>29</v>
@@ -51830,10 +51830,10 @@
         <v>11</v>
       </c>
       <c r="C1584">
-        <v>3538</v>
+        <v>3534</v>
       </c>
       <c r="D1584">
-        <v>5088011</v>
+        <v>5082301</v>
       </c>
       <c r="E1584" t="s">
         <v>29</v>
@@ -51862,10 +51862,10 @@
         <v>11</v>
       </c>
       <c r="C1585">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="D1585">
-        <v>6179753</v>
+        <v>6177769</v>
       </c>
       <c r="E1585" t="s">
         <v>29</v>
@@ -51894,10 +51894,10 @@
         <v>11</v>
       </c>
       <c r="C1586">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="D1586">
-        <v>5643183</v>
+        <v>5636221</v>
       </c>
       <c r="E1586" t="s">
         <v>29</v>
@@ -51958,10 +51958,10 @@
         <v>11</v>
       </c>
       <c r="C1588">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D1588">
-        <v>730151</v>
+        <v>727151</v>
       </c>
       <c r="E1588" t="s">
         <v>29</v>
@@ -52054,10 +52054,10 @@
         <v>11</v>
       </c>
       <c r="C1591">
-        <v>2313</v>
+        <v>2301</v>
       </c>
       <c r="D1591">
-        <v>3155308</v>
+        <v>3141999</v>
       </c>
       <c r="E1591" t="s">
         <v>29</v>
@@ -52086,10 +52086,10 @@
         <v>11</v>
       </c>
       <c r="C1592">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="D1592">
-        <v>1626590</v>
+        <v>1614500</v>
       </c>
       <c r="E1592" t="s">
         <v>29</v>
@@ -52118,10 +52118,10 @@
         <v>11</v>
       </c>
       <c r="C1593">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D1593">
-        <v>1669005</v>
+        <v>1667397</v>
       </c>
       <c r="E1593" t="s">
         <v>29</v>
@@ -52150,10 +52150,10 @@
         <v>11</v>
       </c>
       <c r="C1594">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="D1594">
-        <v>3283401</v>
+        <v>3278125</v>
       </c>
       <c r="E1594" t="s">
         <v>29</v>
@@ -52182,10 +52182,10 @@
         <v>11</v>
       </c>
       <c r="C1595">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D1595">
-        <v>1388911</v>
+        <v>1386699</v>
       </c>
       <c r="E1595" t="s">
         <v>29</v>
@@ -52214,10 +52214,10 @@
         <v>11</v>
       </c>
       <c r="C1596">
-        <v>3743</v>
+        <v>3741</v>
       </c>
       <c r="D1596">
-        <v>4620129</v>
+        <v>4617682</v>
       </c>
       <c r="E1596" t="s">
         <v>29</v>
@@ -52374,10 +52374,10 @@
         <v>11</v>
       </c>
       <c r="C1601">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="D1601">
-        <v>4226560</v>
+        <v>4225825</v>
       </c>
       <c r="E1601" t="s">
         <v>29</v>
@@ -52470,10 +52470,10 @@
         <v>11</v>
       </c>
       <c r="C1604">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D1604">
-        <v>2291358</v>
+        <v>2288358</v>
       </c>
       <c r="E1604" t="s">
         <v>29</v>
@@ -52502,10 +52502,10 @@
         <v>11</v>
       </c>
       <c r="C1605">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D1605">
-        <v>853894</v>
+        <v>851969</v>
       </c>
       <c r="E1605" t="s">
         <v>29</v>
@@ -52534,10 +52534,10 @@
         <v>11</v>
       </c>
       <c r="C1606">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D1606">
-        <v>337998</v>
+        <v>334998</v>
       </c>
       <c r="E1606" t="s">
         <v>29</v>
@@ -52566,10 +52566,10 @@
         <v>11</v>
       </c>
       <c r="C1607">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D1607">
-        <v>989245</v>
+        <v>986245</v>
       </c>
       <c r="E1607" t="s">
         <v>29</v>
@@ -52598,10 +52598,10 @@
         <v>11</v>
       </c>
       <c r="C1608">
-        <v>2337</v>
+        <v>2323</v>
       </c>
       <c r="D1608">
-        <v>3194126</v>
+        <v>3179675</v>
       </c>
       <c r="E1608" t="s">
         <v>29</v>
@@ -52694,10 +52694,10 @@
         <v>11</v>
       </c>
       <c r="C1611">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="D1611">
-        <v>2829175</v>
+        <v>2821722</v>
       </c>
       <c r="E1611" t="s">
         <v>29</v>
@@ -52726,10 +52726,10 @@
         <v>11</v>
       </c>
       <c r="C1612">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D1612">
-        <v>1060595</v>
+        <v>1058135</v>
       </c>
       <c r="E1612" t="s">
         <v>29</v>
@@ -52758,10 +52758,10 @@
         <v>11</v>
       </c>
       <c r="C1613">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="D1613">
-        <v>3120276</v>
+        <v>3118990</v>
       </c>
       <c r="E1613" t="s">
         <v>29</v>
@@ -52950,10 +52950,10 @@
         <v>11</v>
       </c>
       <c r="C1619">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="D1619">
-        <v>5974571</v>
+        <v>5973017</v>
       </c>
       <c r="E1619" t="s">
         <v>29</v>
@@ -53046,10 +53046,10 @@
         <v>11</v>
       </c>
       <c r="C1622">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D1622">
-        <v>1444740</v>
+        <v>1439980</v>
       </c>
       <c r="E1622" t="s">
         <v>29</v>
@@ -53142,10 +53142,10 @@
         <v>11</v>
       </c>
       <c r="C1625">
-        <v>4183</v>
+        <v>4163</v>
       </c>
       <c r="D1625">
-        <v>5717111</v>
+        <v>5695766</v>
       </c>
       <c r="E1625" t="s">
         <v>29</v>
@@ -53174,10 +53174,10 @@
         <v>11</v>
       </c>
       <c r="C1626">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D1626">
-        <v>1800061</v>
+        <v>1797061</v>
       </c>
       <c r="E1626" t="s">
         <v>29</v>
@@ -53206,10 +53206,10 @@
         <v>11</v>
       </c>
       <c r="C1627">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="D1627">
-        <v>1710540</v>
+        <v>1701519</v>
       </c>
       <c r="E1627" t="s">
         <v>29</v>
@@ -53238,10 +53238,10 @@
         <v>11</v>
       </c>
       <c r="C1628">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="D1628">
-        <v>3809028</v>
+        <v>3804828</v>
       </c>
       <c r="E1628" t="s">
         <v>29</v>
@@ -53270,10 +53270,10 @@
         <v>11</v>
       </c>
       <c r="C1629">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="D1629">
-        <v>2226663</v>
+        <v>2221369</v>
       </c>
       <c r="E1629" t="s">
         <v>29</v>
@@ -53302,10 +53302,10 @@
         <v>11</v>
       </c>
       <c r="C1630">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="D1630">
-        <v>3765328</v>
+        <v>3765088</v>
       </c>
       <c r="E1630" t="s">
         <v>29</v>
@@ -53430,10 +53430,10 @@
         <v>11</v>
       </c>
       <c r="C1634">
-        <v>2615</v>
+        <v>2607</v>
       </c>
       <c r="D1634">
-        <v>3761662</v>
+        <v>3752112</v>
       </c>
       <c r="E1634" t="s">
         <v>29</v>
@@ -53462,10 +53462,10 @@
         <v>11</v>
       </c>
       <c r="C1635">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="D1635">
-        <v>4803449</v>
+        <v>4801345</v>
       </c>
       <c r="E1635" t="s">
         <v>29</v>
@@ -53494,10 +53494,10 @@
         <v>11</v>
       </c>
       <c r="C1636">
-        <v>3277</v>
+        <v>3273</v>
       </c>
       <c r="D1636">
-        <v>4720343</v>
+        <v>4714353</v>
       </c>
       <c r="E1636" t="s">
         <v>29</v>
@@ -53590,10 +53590,10 @@
         <v>11</v>
       </c>
       <c r="C1639">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D1639">
-        <v>399920</v>
+        <v>396920</v>
       </c>
       <c r="E1639" t="s">
         <v>29</v>
@@ -53622,10 +53622,10 @@
         <v>11</v>
       </c>
       <c r="C1640">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D1640">
-        <v>1349646</v>
+        <v>1346646</v>
       </c>
       <c r="E1640" t="s">
         <v>29</v>
@@ -53654,10 +53654,10 @@
         <v>11</v>
       </c>
       <c r="C1641">
-        <v>3401</v>
+        <v>3397</v>
       </c>
       <c r="D1641">
-        <v>4667570</v>
+        <v>4663915</v>
       </c>
       <c r="E1641" t="s">
         <v>29</v>
@@ -53686,10 +53686,10 @@
         <v>11</v>
       </c>
       <c r="C1642">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="D1642">
-        <v>1486904</v>
+        <v>1482406</v>
       </c>
       <c r="E1642" t="s">
         <v>29</v>
@@ -53718,10 +53718,10 @@
         <v>11</v>
       </c>
       <c r="C1643">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="D1643">
-        <v>2001531</v>
+        <v>1992109</v>
       </c>
       <c r="E1643" t="s">
         <v>29</v>
@@ -53750,10 +53750,10 @@
         <v>11</v>
       </c>
       <c r="C1644">
-        <v>3274</v>
+        <v>3264</v>
       </c>
       <c r="D1644">
-        <v>4435226</v>
+        <v>4420566</v>
       </c>
       <c r="E1644" t="s">
         <v>29</v>
@@ -53782,10 +53782,10 @@
         <v>11</v>
       </c>
       <c r="C1645">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D1645">
-        <v>1522734</v>
+        <v>1522254</v>
       </c>
       <c r="E1645" t="s">
         <v>29</v>
@@ -53814,10 +53814,10 @@
         <v>11</v>
       </c>
       <c r="C1646">
-        <v>3330</v>
+        <v>3320</v>
       </c>
       <c r="D1646">
-        <v>4249797</v>
+        <v>4243878</v>
       </c>
       <c r="E1646" t="s">
         <v>29</v>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -4923,13 +4923,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="D90" t="n">
         <v>1037</v>
       </c>
       <c r="E90" t="n">
-        <v>7042477</v>
+        <v>7032477</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5025,13 +5025,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4724</v>
+        <v>4725</v>
       </c>
       <c r="D92" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E92" t="n">
-        <v>14430243</v>
+        <v>14440243</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6352</v>
+        <v>6350</v>
       </c>
       <c r="D116" t="n">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="E116" t="n">
-        <v>8555786</v>
+        <v>8552991</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="D129" t="n">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E129" t="n">
-        <v>6257845</v>
+        <v>6259260</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>10750</v>
+        <v>10749</v>
       </c>
       <c r="D130" t="n">
         <v>3449</v>
       </c>
       <c r="E130" t="n">
-        <v>20420679</v>
+        <v>20419264</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -16959,13 +16959,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D326" t="n">
         <v>493</v>
       </c>
       <c r="E326" t="n">
-        <v>2787852</v>
+        <v>2786352</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -18642,13 +18642,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>4722</v>
+        <v>4723</v>
       </c>
       <c r="D359" t="n">
         <v>1584</v>
       </c>
       <c r="E359" t="n">
-        <v>9862194</v>
+        <v>9863608</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -19662,13 +19662,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>6945</v>
+        <v>6946</v>
       </c>
       <c r="D379" t="n">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="E379" t="n">
-        <v>9375719</v>
+        <v>9377022</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -20529,13 +20529,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D396" t="n">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E396" t="n">
-        <v>4999918</v>
+        <v>5000718</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20580,13 +20580,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>4817</v>
+        <v>4815</v>
       </c>
       <c r="D397" t="n">
         <v>2143</v>
       </c>
       <c r="E397" t="n">
-        <v>6345079</v>
+        <v>6342976</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -22569,13 +22569,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D436" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E436" t="n">
-        <v>4942557</v>
+        <v>4941057</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22875,13 +22875,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D442" t="n">
         <v>280</v>
       </c>
       <c r="E442" t="n">
-        <v>1705343</v>
+        <v>1706843</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -38838,13 +38838,13 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>17167</v>
+        <v>17166</v>
       </c>
       <c r="D755" t="n">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="E755" t="n">
-        <v>32446413</v>
+        <v>32437043</v>
       </c>
       <c r="F755" t="inlineStr">
         <is>
@@ -39093,13 +39093,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>20014</v>
+        <v>20015</v>
       </c>
       <c r="D760" t="n">
         <v>5781</v>
       </c>
       <c r="E760" t="n">
-        <v>33825065</v>
+        <v>33834435</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
@@ -42867,13 +42867,13 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>50085</v>
+        <v>50084</v>
       </c>
       <c r="D834" t="n">
         <v>8115</v>
       </c>
       <c r="E834" t="n">
-        <v>102909703</v>
+        <v>102899703</v>
       </c>
       <c r="F834" t="inlineStr">
         <is>
@@ -43836,13 +43836,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>34606</v>
+        <v>34603</v>
       </c>
       <c r="D853" t="n">
         <v>8840</v>
       </c>
       <c r="E853" t="n">
-        <v>79954438</v>
+        <v>79951728</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43989,13 +43989,13 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>115155</v>
+        <v>115153</v>
       </c>
       <c r="D856" t="n">
         <v>33149</v>
       </c>
       <c r="E856" t="n">
-        <v>216463234</v>
+        <v>216460560</v>
       </c>
       <c r="F856" t="inlineStr">
         <is>
@@ -44193,13 +44193,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>66961</v>
+        <v>66962</v>
       </c>
       <c r="D860" t="n">
-        <v>13277</v>
+        <v>13278</v>
       </c>
       <c r="E860" t="n">
-        <v>138046024</v>
+        <v>138047284</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -45723,13 +45723,13 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>17369</v>
+        <v>17371</v>
       </c>
       <c r="D890" t="n">
-        <v>4824</v>
+        <v>4825</v>
       </c>
       <c r="E890" t="n">
-        <v>30954190</v>
+        <v>30957240</v>
       </c>
       <c r="F890" t="inlineStr">
         <is>
@@ -46437,13 +46437,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>5637</v>
+        <v>5640</v>
       </c>
       <c r="D904" t="n">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="E904" t="n">
-        <v>10395802</v>
+        <v>10398512</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -54393,13 +54393,13 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D1060" t="n">
         <v>675</v>
       </c>
       <c r="E1060" t="n">
-        <v>3969351</v>
+        <v>3969248</v>
       </c>
       <c r="F1060" t="inlineStr">
         <is>
@@ -54750,13 +54750,13 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>13912</v>
+        <v>13913</v>
       </c>
       <c r="D1067" t="n">
         <v>2975</v>
       </c>
       <c r="E1067" t="n">
-        <v>52124902</v>
+        <v>52134902</v>
       </c>
       <c r="F1067" t="inlineStr">
         <is>
@@ -54954,13 +54954,13 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>6795</v>
+        <v>6794</v>
       </c>
       <c r="D1071" t="n">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E1071" t="n">
-        <v>13834674</v>
+        <v>13824674</v>
       </c>
       <c r="F1071" t="inlineStr">
         <is>
@@ -60870,13 +60870,13 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>20856</v>
+        <v>20857</v>
       </c>
       <c r="D1187" t="n">
-        <v>6714</v>
+        <v>6715</v>
       </c>
       <c r="E1187" t="n">
-        <v>40011373</v>
+        <v>40012249</v>
       </c>
       <c r="F1187" t="inlineStr">
         <is>
@@ -60972,13 +60972,13 @@
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>9814</v>
+        <v>9813</v>
       </c>
       <c r="D1189" t="n">
         <v>2416</v>
       </c>
       <c r="E1189" t="n">
-        <v>14570017</v>
+        <v>14568517</v>
       </c>
       <c r="F1189" t="inlineStr">
         <is>
@@ -61074,13 +61074,13 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>12902</v>
+        <v>12901</v>
       </c>
       <c r="D1191" t="n">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="E1191" t="n">
-        <v>25427657</v>
+        <v>25427507</v>
       </c>
       <c r="F1191" t="inlineStr">
         <is>
@@ -61125,13 +61125,13 @@
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>19396</v>
+        <v>19395</v>
       </c>
       <c r="D1192" t="n">
         <v>5760</v>
       </c>
       <c r="E1192" t="n">
-        <v>32581316</v>
+        <v>32580440</v>
       </c>
       <c r="F1192" t="inlineStr">
         <is>
@@ -64440,13 +64440,13 @@
         </is>
       </c>
       <c r="C1257" t="n">
-        <v>5222</v>
+        <v>5223</v>
       </c>
       <c r="D1257" t="n">
         <v>1278</v>
       </c>
       <c r="E1257" t="n">
-        <v>8090089</v>
+        <v>8091589</v>
       </c>
       <c r="F1257" t="inlineStr">
         <is>
@@ -64491,13 +64491,13 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>6432</v>
+        <v>6434</v>
       </c>
       <c r="D1258" t="n">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="E1258" t="n">
-        <v>8522350</v>
+        <v>8525145</v>
       </c>
       <c r="F1258" t="inlineStr">
         <is>
@@ -67959,13 +67959,13 @@
         </is>
       </c>
       <c r="C1326" t="n">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D1326" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E1326" t="n">
-        <v>2343099</v>
+        <v>2343691</v>
       </c>
       <c r="F1326" t="inlineStr">
         <is>
@@ -68061,13 +68061,13 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D1328" t="n">
         <v>425</v>
       </c>
       <c r="E1328" t="n">
-        <v>3527177</v>
+        <v>3526585</v>
       </c>
       <c r="F1328" t="inlineStr">
         <is>
@@ -70611,13 +70611,13 @@
         </is>
       </c>
       <c r="C1378" t="n">
-        <v>12732</v>
+        <v>12730</v>
       </c>
       <c r="D1378" t="n">
-        <v>5667</v>
+        <v>5666</v>
       </c>
       <c r="E1378" t="n">
-        <v>16936229</v>
+        <v>16933587</v>
       </c>
       <c r="F1378" t="inlineStr">
         <is>
@@ -71427,13 +71427,13 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D1394" t="n">
         <v>630</v>
       </c>
       <c r="E1394" t="n">
-        <v>1920431</v>
+        <v>1923073</v>
       </c>
       <c r="F1394" t="inlineStr">
         <is>
@@ -72294,13 +72294,13 @@
         </is>
       </c>
       <c r="C1411" t="n">
-        <v>10351</v>
+        <v>10350</v>
       </c>
       <c r="D1411" t="n">
-        <v>4594</v>
+        <v>4593</v>
       </c>
       <c r="E1411" t="n">
-        <v>13882295</v>
+        <v>13880885</v>
       </c>
       <c r="F1411" t="inlineStr">
         <is>
@@ -72345,13 +72345,13 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>11367</v>
+        <v>11368</v>
       </c>
       <c r="D1412" t="n">
         <v>2223</v>
       </c>
       <c r="E1412" t="n">
-        <v>23545836</v>
+        <v>23547246</v>
       </c>
       <c r="F1412" t="inlineStr">
         <is>
@@ -73212,13 +73212,13 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D1429" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E1429" t="n">
-        <v>2598050</v>
+        <v>2598200</v>
       </c>
       <c r="F1429" t="inlineStr">
         <is>
@@ -75099,13 +75099,13 @@
         </is>
       </c>
       <c r="C1466" t="n">
-        <v>6304</v>
+        <v>6303</v>
       </c>
       <c r="D1466" t="n">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E1466" t="n">
-        <v>12691318</v>
+        <v>12690103</v>
       </c>
       <c r="F1466" t="inlineStr">
         <is>
@@ -75201,13 +75201,13 @@
         </is>
       </c>
       <c r="C1468" t="n">
-        <v>5259</v>
+        <v>5260</v>
       </c>
       <c r="D1468" t="n">
         <v>1061</v>
       </c>
       <c r="E1468" t="n">
-        <v>17461254</v>
+        <v>17462469</v>
       </c>
       <c r="F1468" t="inlineStr">
         <is>
@@ -77139,13 +77139,13 @@
         </is>
       </c>
       <c r="C1506" t="n">
-        <v>14244</v>
+        <v>14243</v>
       </c>
       <c r="D1506" t="n">
         <v>4637</v>
       </c>
       <c r="E1506" t="n">
-        <v>28479636</v>
+        <v>28475696</v>
       </c>
       <c r="F1506" t="inlineStr">
         <is>
@@ -77190,13 +77190,13 @@
         </is>
       </c>
       <c r="C1507" t="n">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="D1507" t="n">
         <v>1372</v>
       </c>
       <c r="E1507" t="n">
-        <v>9602228</v>
+        <v>9606168</v>
       </c>
       <c r="F1507" t="inlineStr">
         <is>
@@ -79893,13 +79893,13 @@
         </is>
       </c>
       <c r="C1560" t="n">
-        <v>5121</v>
+        <v>5122</v>
       </c>
       <c r="D1560" t="n">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E1560" t="n">
-        <v>8908981</v>
+        <v>8909084</v>
       </c>
       <c r="F1560" t="inlineStr">
         <is>
@@ -82188,13 +82188,13 @@
         </is>
       </c>
       <c r="C1605" t="n">
-        <v>17909</v>
+        <v>17907</v>
       </c>
       <c r="D1605" t="n">
         <v>5338</v>
       </c>
       <c r="E1605" t="n">
-        <v>34017357</v>
+        <v>34004186</v>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
@@ -82392,13 +82392,13 @@
         </is>
       </c>
       <c r="C1609" t="n">
-        <v>10949</v>
+        <v>10951</v>
       </c>
       <c r="D1609" t="n">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="E1609" t="n">
-        <v>22562034</v>
+        <v>22575205</v>
       </c>
       <c r="F1609" t="inlineStr">
         <is>
@@ -83922,13 +83922,13 @@
         </is>
       </c>
       <c r="C1639" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D1639" t="n">
         <v>256</v>
       </c>
       <c r="E1639" t="n">
-        <v>2394567</v>
+        <v>2392874</v>
       </c>
       <c r="F1639" t="inlineStr">
         <is>
@@ -84075,13 +84075,13 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="D1642" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E1642" t="n">
-        <v>4586410</v>
+        <v>4588103</v>
       </c>
       <c r="F1642" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -13923,13 +13923,13 @@
         <v>12</v>
       </c>
       <c r="C365">
-        <v>9120</v>
+        <v>9119</v>
       </c>
       <c r="D365">
         <v>2319</v>
       </c>
       <c r="E365">
-        <v>17997591</v>
+        <v>17997504</v>
       </c>
       <c r="F365" t="s">
         <v>15</v>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="D29" t="n">
         <v>502</v>
       </c>
       <c r="E29" t="n">
-        <v>5704737</v>
+        <v>5696821</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41182</v>
+        <v>41181</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86414113</v>
+        <v>86409511</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -9427,13 +9427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55645</v>
+        <v>55643</v>
       </c>
       <c r="D177" t="n">
         <v>5882</v>
       </c>
       <c r="E177" t="n">
-        <v>356078556</v>
+        <v>356042159</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -9631,13 +9631,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>43578</v>
+        <v>43577</v>
       </c>
       <c r="D181" t="n">
-        <v>9380</v>
+        <v>9379</v>
       </c>
       <c r="E181" t="n">
-        <v>118513875</v>
+        <v>118494823</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -9835,13 +9835,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>29866</v>
+        <v>29863</v>
       </c>
       <c r="D185" t="n">
         <v>3705</v>
       </c>
       <c r="E185" t="n">
-        <v>96334763</v>
+        <v>96323982</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -17587,13 +17587,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>10923</v>
+        <v>10921</v>
       </c>
       <c r="D337" t="n">
         <v>2602</v>
       </c>
       <c r="E337" t="n">
-        <v>33027628</v>
+        <v>33027556</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -21922,13 +21922,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D422" t="n">
         <v>384</v>
       </c>
       <c r="E422" t="n">
-        <v>5975005</v>
+        <v>5969258</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -26053,13 +26053,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>12800</v>
+        <v>12799</v>
       </c>
       <c r="D503" t="n">
         <v>1454</v>
       </c>
       <c r="E503" t="n">
-        <v>90752095</v>
+        <v>90751495</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -27685,13 +27685,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>7068</v>
+        <v>7067</v>
       </c>
       <c r="D535" t="n">
         <v>717</v>
       </c>
       <c r="E535" t="n">
-        <v>32789456</v>
+        <v>32784080</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -29623,13 +29623,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="D573" t="n">
         <v>1034</v>
       </c>
       <c r="E573" t="n">
-        <v>8728799</v>
+        <v>8722830</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -29878,13 +29878,13 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>12264</v>
+        <v>12263</v>
       </c>
       <c r="D578" t="n">
         <v>1514</v>
       </c>
       <c r="E578" t="n">
-        <v>38055888</v>
+        <v>38049040</v>
       </c>
       <c r="F578" t="inlineStr">
         <is>
@@ -31459,13 +31459,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="D609" t="n">
         <v>699</v>
       </c>
       <c r="E609" t="n">
-        <v>18087189</v>
+        <v>18045989</v>
       </c>
       <c r="F609" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="D697" t="n">
         <v>1238</v>
       </c>
       <c r="E697" t="n">
-        <v>11624445</v>
+        <v>11622945</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17128</v>
+        <v>17127</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>37534002</v>
+        <v>37513971</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -39007,13 +39007,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>26757</v>
+        <v>26756</v>
       </c>
       <c r="D757" t="n">
         <v>5538</v>
       </c>
       <c r="E757" t="n">
-        <v>77251462</v>
+        <v>77241462</v>
       </c>
       <c r="F757" t="inlineStr">
         <is>
@@ -39568,13 +39568,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>12343</v>
+        <v>12342</v>
       </c>
       <c r="D768" t="n">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="E768" t="n">
-        <v>34202605</v>
+        <v>34199625</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
@@ -39670,13 +39670,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>14067</v>
+        <v>14066</v>
       </c>
       <c r="D770" t="n">
         <v>1609</v>
       </c>
       <c r="E770" t="n">
-        <v>82782344</v>
+        <v>82772344</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -40741,13 +40741,13 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>8917</v>
+        <v>8916</v>
       </c>
       <c r="D791" t="n">
         <v>1837</v>
       </c>
       <c r="E791" t="n">
-        <v>28076141</v>
+        <v>28070887</v>
       </c>
       <c r="F791" t="inlineStr">
         <is>
@@ -42118,13 +42118,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>18659</v>
+        <v>18656</v>
       </c>
       <c r="D818" t="n">
         <v>4376</v>
       </c>
       <c r="E818" t="n">
-        <v>59741617</v>
+        <v>59690428</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108387</v>
+        <v>108382</v>
       </c>
       <c r="D852" t="n">
         <v>19709</v>
       </c>
       <c r="E852" t="n">
-        <v>555138438</v>
+        <v>555091264</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>181793</v>
+        <v>181789</v>
       </c>
       <c r="D854" t="n">
         <v>17483</v>
       </c>
       <c r="E854" t="n">
-        <v>1642006748</v>
+        <v>1641982489</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59921</v>
+        <v>59920</v>
       </c>
       <c r="D855" t="n">
         <v>9807</v>
       </c>
       <c r="E855" t="n">
-        <v>284275770</v>
+        <v>284265770</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183615</v>
+        <v>183614</v>
       </c>
       <c r="D858" t="n">
         <v>35374</v>
       </c>
       <c r="E858" t="n">
-        <v>549590298</v>
+        <v>549589698</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51187</v>
+        <v>51182</v>
       </c>
       <c r="D859" t="n">
         <v>6428</v>
       </c>
       <c r="E859" t="n">
-        <v>417793675</v>
+        <v>417540925</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34625</v>
+        <v>34623</v>
       </c>
       <c r="D860" t="n">
         <v>5555</v>
       </c>
       <c r="E860" t="n">
-        <v>69539128</v>
+        <v>69528022</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114750</v>
+        <v>114746</v>
       </c>
       <c r="D862" t="n">
         <v>14324</v>
       </c>
       <c r="E862" t="n">
-        <v>415143644</v>
+        <v>415113840</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48455</v>
+        <v>48454</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>131089020</v>
+        <v>131087328</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127419</v>
+        <v>127418</v>
       </c>
       <c r="D887" t="n">
         <v>13771</v>
       </c>
       <c r="E887" t="n">
-        <v>277193745</v>
+        <v>277190260</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26073</v>
+        <v>26072</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>116830959</v>
+        <v>116769994</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>75215</v>
+        <v>75214</v>
       </c>
       <c r="D904" t="n">
         <v>8098</v>
       </c>
       <c r="E904" t="n">
-        <v>168562082</v>
+        <v>168560066</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -48697,13 +48697,13 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>13812</v>
+        <v>13811</v>
       </c>
       <c r="D947" t="n">
         <v>1801</v>
       </c>
       <c r="E947" t="n">
-        <v>45886151</v>
+        <v>45874010</v>
       </c>
       <c r="F947" t="inlineStr">
         <is>
@@ -48850,13 +48850,13 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>6444</v>
+        <v>6443</v>
       </c>
       <c r="D950" t="n">
         <v>1658</v>
       </c>
       <c r="E950" t="n">
-        <v>12761396</v>
+        <v>12759896</v>
       </c>
       <c r="F950" t="inlineStr">
         <is>
@@ -49717,13 +49717,13 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="D967" t="n">
         <v>848</v>
       </c>
       <c r="E967" t="n">
-        <v>8781595</v>
+        <v>8780876</v>
       </c>
       <c r="F967" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>12776</v>
+        <v>12769</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32128249</v>
+        <v>32112207</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4642</v>
+        <v>4640</v>
       </c>
       <c r="D972" t="n">
         <v>728</v>
       </c>
       <c r="E972" t="n">
-        <v>11054908</v>
+        <v>11049190</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>10736</v>
+        <v>10727</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>41639457</v>
+        <v>41578823</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50176,13 +50176,13 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D976" t="n">
         <v>313</v>
       </c>
       <c r="E976" t="n">
-        <v>3189944</v>
+        <v>3187444</v>
       </c>
       <c r="F976" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>10616906</v>
+        <v>10616306</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50482,13 +50482,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D982" t="n">
         <v>1076</v>
       </c>
       <c r="E982" t="n">
-        <v>10897376</v>
+        <v>10896175</v>
       </c>
       <c r="F982" t="inlineStr">
         <is>
@@ -55327,13 +55327,13 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>9658</v>
+        <v>9657</v>
       </c>
       <c r="D1077" t="n">
         <v>1238</v>
       </c>
       <c r="E1077" t="n">
-        <v>30920989</v>
+        <v>30919551</v>
       </c>
       <c r="F1077" t="inlineStr">
         <is>
@@ -74554,13 +74554,13 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>19736</v>
+        <v>19735</v>
       </c>
       <c r="D1454" t="n">
         <v>2199</v>
       </c>
       <c r="E1454" t="n">
-        <v>115288492</v>
+        <v>115286992</v>
       </c>
       <c r="F1454" t="inlineStr">
         <is>
@@ -77155,13 +77155,13 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>33611</v>
+        <v>33610</v>
       </c>
       <c r="D1505" t="n">
         <v>3696</v>
       </c>
       <c r="E1505" t="n">
-        <v>215827902</v>
+        <v>215826402</v>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
@@ -80674,13 +80674,13 @@
         </is>
       </c>
       <c r="C1574" t="n">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="D1574" t="n">
         <v>663</v>
       </c>
       <c r="E1574" t="n">
-        <v>5019457</v>
+        <v>5018546</v>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
@@ -82510,13 +82510,13 @@
         </is>
       </c>
       <c r="C1610" t="n">
-        <v>16135</v>
+        <v>16134</v>
       </c>
       <c r="D1610" t="n">
         <v>2431</v>
       </c>
       <c r="E1610" t="n">
-        <v>30026551</v>
+        <v>30024065</v>
       </c>
       <c r="F1610" t="inlineStr">
         <is>
@@ -82969,13 +82969,13 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>65666</v>
+        <v>65665</v>
       </c>
       <c r="D1619" t="n">
         <v>13319</v>
       </c>
       <c r="E1619" t="n">
-        <v>202412908</v>
+        <v>202411116</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
@@ -83071,13 +83071,13 @@
         </is>
       </c>
       <c r="C1621" t="n">
-        <v>71804</v>
+        <v>71803</v>
       </c>
       <c r="D1621" t="n">
         <v>7475</v>
       </c>
       <c r="E1621" t="n">
-        <v>409895078</v>
+        <v>409893080</v>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
@@ -85264,13 +85264,13 @@
         </is>
       </c>
       <c r="C1664" t="n">
-        <v>21699</v>
+        <v>21698</v>
       </c>
       <c r="D1664" t="n">
         <v>4732</v>
       </c>
       <c r="E1664" t="n">
-        <v>37889711</v>
+        <v>37887869</v>
       </c>
       <c r="F1664" t="inlineStr">
         <is>
@@ -86080,13 +86080,13 @@
         </is>
       </c>
       <c r="C1680" t="n">
-        <v>10211</v>
+        <v>10210</v>
       </c>
       <c r="D1680" t="n">
         <v>1170</v>
       </c>
       <c r="E1680" t="n">
-        <v>31323238</v>
+        <v>31313238</v>
       </c>
       <c r="F1680" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="D29" t="n">
         <v>502</v>
       </c>
       <c r="E29" t="n">
-        <v>5696821</v>
+        <v>5704737</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41181</v>
+        <v>41182</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86409511</v>
+        <v>86414113</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -9427,13 +9427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55643</v>
+        <v>55645</v>
       </c>
       <c r="D177" t="n">
         <v>5882</v>
       </c>
       <c r="E177" t="n">
-        <v>356042159</v>
+        <v>356078556</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -9631,13 +9631,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>43577</v>
+        <v>43578</v>
       </c>
       <c r="D181" t="n">
-        <v>9379</v>
+        <v>9380</v>
       </c>
       <c r="E181" t="n">
-        <v>118494823</v>
+        <v>118513875</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -9835,13 +9835,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>29863</v>
+        <v>29866</v>
       </c>
       <c r="D185" t="n">
         <v>3705</v>
       </c>
       <c r="E185" t="n">
-        <v>96323982</v>
+        <v>96334763</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -17587,13 +17587,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>10921</v>
+        <v>10923</v>
       </c>
       <c r="D337" t="n">
         <v>2602</v>
       </c>
       <c r="E337" t="n">
-        <v>33027556</v>
+        <v>33027628</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -21922,13 +21922,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="D422" t="n">
         <v>384</v>
       </c>
       <c r="E422" t="n">
-        <v>5969258</v>
+        <v>5975005</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -26053,13 +26053,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>12799</v>
+        <v>12800</v>
       </c>
       <c r="D503" t="n">
         <v>1454</v>
       </c>
       <c r="E503" t="n">
-        <v>90751495</v>
+        <v>90752095</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -27685,13 +27685,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>7067</v>
+        <v>7068</v>
       </c>
       <c r="D535" t="n">
         <v>717</v>
       </c>
       <c r="E535" t="n">
-        <v>32784080</v>
+        <v>32789456</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -29623,13 +29623,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>4678</v>
+        <v>4679</v>
       </c>
       <c r="D573" t="n">
         <v>1034</v>
       </c>
       <c r="E573" t="n">
-        <v>8722830</v>
+        <v>8728799</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -29878,13 +29878,13 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>12263</v>
+        <v>12264</v>
       </c>
       <c r="D578" t="n">
         <v>1514</v>
       </c>
       <c r="E578" t="n">
-        <v>38049040</v>
+        <v>38055888</v>
       </c>
       <c r="F578" t="inlineStr">
         <is>
@@ -31459,13 +31459,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="D609" t="n">
         <v>699</v>
       </c>
       <c r="E609" t="n">
-        <v>18045989</v>
+        <v>18087189</v>
       </c>
       <c r="F609" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="D697" t="n">
         <v>1238</v>
       </c>
       <c r="E697" t="n">
-        <v>11622945</v>
+        <v>11624445</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17127</v>
+        <v>17128</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>37513971</v>
+        <v>37534002</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -39007,13 +39007,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>26756</v>
+        <v>26757</v>
       </c>
       <c r="D757" t="n">
         <v>5538</v>
       </c>
       <c r="E757" t="n">
-        <v>77241462</v>
+        <v>77251462</v>
       </c>
       <c r="F757" t="inlineStr">
         <is>
@@ -39568,13 +39568,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>12342</v>
+        <v>12343</v>
       </c>
       <c r="D768" t="n">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="E768" t="n">
-        <v>34199625</v>
+        <v>34202605</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
@@ -39670,13 +39670,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>14066</v>
+        <v>14067</v>
       </c>
       <c r="D770" t="n">
         <v>1609</v>
       </c>
       <c r="E770" t="n">
-        <v>82772344</v>
+        <v>82782344</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -40741,13 +40741,13 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>8916</v>
+        <v>8917</v>
       </c>
       <c r="D791" t="n">
         <v>1837</v>
       </c>
       <c r="E791" t="n">
-        <v>28070887</v>
+        <v>28076141</v>
       </c>
       <c r="F791" t="inlineStr">
         <is>
@@ -42118,13 +42118,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>18656</v>
+        <v>18659</v>
       </c>
       <c r="D818" t="n">
         <v>4376</v>
       </c>
       <c r="E818" t="n">
-        <v>59690428</v>
+        <v>59741617</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108382</v>
+        <v>108387</v>
       </c>
       <c r="D852" t="n">
         <v>19709</v>
       </c>
       <c r="E852" t="n">
-        <v>555091264</v>
+        <v>555138438</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>181789</v>
+        <v>181793</v>
       </c>
       <c r="D854" t="n">
         <v>17483</v>
       </c>
       <c r="E854" t="n">
-        <v>1641982489</v>
+        <v>1642006748</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59920</v>
+        <v>59921</v>
       </c>
       <c r="D855" t="n">
         <v>9807</v>
       </c>
       <c r="E855" t="n">
-        <v>284265770</v>
+        <v>284275770</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183614</v>
+        <v>183615</v>
       </c>
       <c r="D858" t="n">
         <v>35374</v>
       </c>
       <c r="E858" t="n">
-        <v>549589698</v>
+        <v>549590298</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51182</v>
+        <v>51187</v>
       </c>
       <c r="D859" t="n">
         <v>6428</v>
       </c>
       <c r="E859" t="n">
-        <v>417540925</v>
+        <v>417793675</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34623</v>
+        <v>34625</v>
       </c>
       <c r="D860" t="n">
         <v>5555</v>
       </c>
       <c r="E860" t="n">
-        <v>69528022</v>
+        <v>69539128</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114746</v>
+        <v>114750</v>
       </c>
       <c r="D862" t="n">
         <v>14324</v>
       </c>
       <c r="E862" t="n">
-        <v>415113840</v>
+        <v>415143644</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48454</v>
+        <v>48455</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>131087328</v>
+        <v>131089020</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127418</v>
+        <v>127419</v>
       </c>
       <c r="D887" t="n">
         <v>13771</v>
       </c>
       <c r="E887" t="n">
-        <v>277190260</v>
+        <v>277193745</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26072</v>
+        <v>26073</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>116769994</v>
+        <v>116830959</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>75214</v>
+        <v>75215</v>
       </c>
       <c r="D904" t="n">
         <v>8098</v>
       </c>
       <c r="E904" t="n">
-        <v>168560066</v>
+        <v>168562082</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -48697,13 +48697,13 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>13811</v>
+        <v>13812</v>
       </c>
       <c r="D947" t="n">
         <v>1801</v>
       </c>
       <c r="E947" t="n">
-        <v>45874010</v>
+        <v>45886151</v>
       </c>
       <c r="F947" t="inlineStr">
         <is>
@@ -48850,13 +48850,13 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>6443</v>
+        <v>6444</v>
       </c>
       <c r="D950" t="n">
         <v>1658</v>
       </c>
       <c r="E950" t="n">
-        <v>12759896</v>
+        <v>12761396</v>
       </c>
       <c r="F950" t="inlineStr">
         <is>
@@ -49717,13 +49717,13 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="D967" t="n">
         <v>848</v>
       </c>
       <c r="E967" t="n">
-        <v>8780876</v>
+        <v>8781595</v>
       </c>
       <c r="F967" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>12769</v>
+        <v>12776</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32112207</v>
+        <v>32128249</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4640</v>
+        <v>4642</v>
       </c>
       <c r="D972" t="n">
         <v>728</v>
       </c>
       <c r="E972" t="n">
-        <v>11049190</v>
+        <v>11054908</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>10727</v>
+        <v>10736</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>41578823</v>
+        <v>41639457</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50176,13 +50176,13 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D976" t="n">
         <v>313</v>
       </c>
       <c r="E976" t="n">
-        <v>3187444</v>
+        <v>3189944</v>
       </c>
       <c r="F976" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>10616306</v>
+        <v>10616906</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50482,13 +50482,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>6101</v>
+        <v>6102</v>
       </c>
       <c r="D982" t="n">
         <v>1076</v>
       </c>
       <c r="E982" t="n">
-        <v>10896175</v>
+        <v>10897376</v>
       </c>
       <c r="F982" t="inlineStr">
         <is>
@@ -55327,13 +55327,13 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>9657</v>
+        <v>9658</v>
       </c>
       <c r="D1077" t="n">
         <v>1238</v>
       </c>
       <c r="E1077" t="n">
-        <v>30919551</v>
+        <v>30920989</v>
       </c>
       <c r="F1077" t="inlineStr">
         <is>
@@ -74554,13 +74554,13 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>19735</v>
+        <v>19736</v>
       </c>
       <c r="D1454" t="n">
         <v>2199</v>
       </c>
       <c r="E1454" t="n">
-        <v>115286992</v>
+        <v>115288492</v>
       </c>
       <c r="F1454" t="inlineStr">
         <is>
@@ -77155,13 +77155,13 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>33610</v>
+        <v>33611</v>
       </c>
       <c r="D1505" t="n">
         <v>3696</v>
       </c>
       <c r="E1505" t="n">
-        <v>215826402</v>
+        <v>215827902</v>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
@@ -80674,13 +80674,13 @@
         </is>
       </c>
       <c r="C1574" t="n">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="D1574" t="n">
         <v>663</v>
       </c>
       <c r="E1574" t="n">
-        <v>5018546</v>
+        <v>5019457</v>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
@@ -82510,13 +82510,13 @@
         </is>
       </c>
       <c r="C1610" t="n">
-        <v>16134</v>
+        <v>16135</v>
       </c>
       <c r="D1610" t="n">
         <v>2431</v>
       </c>
       <c r="E1610" t="n">
-        <v>30024065</v>
+        <v>30026551</v>
       </c>
       <c r="F1610" t="inlineStr">
         <is>
@@ -82969,13 +82969,13 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>65665</v>
+        <v>65666</v>
       </c>
       <c r="D1619" t="n">
         <v>13319</v>
       </c>
       <c r="E1619" t="n">
-        <v>202411116</v>
+        <v>202412908</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
@@ -83071,13 +83071,13 @@
         </is>
       </c>
       <c r="C1621" t="n">
-        <v>71803</v>
+        <v>71804</v>
       </c>
       <c r="D1621" t="n">
         <v>7475</v>
       </c>
       <c r="E1621" t="n">
-        <v>409893080</v>
+        <v>409895078</v>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
@@ -85264,13 +85264,13 @@
         </is>
       </c>
       <c r="C1664" t="n">
-        <v>21698</v>
+        <v>21699</v>
       </c>
       <c r="D1664" t="n">
         <v>4732</v>
       </c>
       <c r="E1664" t="n">
-        <v>37887869</v>
+        <v>37889711</v>
       </c>
       <c r="F1664" t="inlineStr">
         <is>
@@ -86080,13 +86080,13 @@
         </is>
       </c>
       <c r="C1680" t="n">
-        <v>10210</v>
+        <v>10211</v>
       </c>
       <c r="D1680" t="n">
         <v>1170</v>
       </c>
       <c r="E1680" t="n">
-        <v>31313238</v>
+        <v>31323238</v>
       </c>
       <c r="F1680" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>18006</v>
+        <v>18005</v>
       </c>
       <c r="D132" t="n">
         <v>2818</v>
       </c>
       <c r="E132" t="n">
-        <v>36973137</v>
+        <v>36971382</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -9325,13 +9325,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="D175" t="n">
         <v>9919</v>
       </c>
       <c r="E175" t="n">
-        <v>138050006</v>
+        <v>138250006</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -9427,13 +9427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55661</v>
+        <v>55662</v>
       </c>
       <c r="D177" t="n">
         <v>5882</v>
       </c>
       <c r="E177" t="n">
-        <v>356231501</v>
+        <v>356235324</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -10141,13 +10141,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>15385</v>
+        <v>15386</v>
       </c>
       <c r="D191" t="n">
         <v>2834</v>
       </c>
       <c r="E191" t="n">
-        <v>118981656</v>
+        <v>119164102</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -10549,13 +10549,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>43528</v>
+        <v>43530</v>
       </c>
       <c r="D199" t="n">
         <v>5147</v>
       </c>
       <c r="E199" t="n">
-        <v>117969389</v>
+        <v>117974399</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="D491" t="n">
         <v>546</v>
       </c>
       <c r="E491" t="n">
-        <v>6050832</v>
+        <v>6056232</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26869,13 +26869,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>13358</v>
+        <v>13355</v>
       </c>
       <c r="D519" t="n">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E519" t="n">
-        <v>74293794</v>
+        <v>74266740</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -31204,13 +31204,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>21449</v>
+        <v>21450</v>
       </c>
       <c r="D604" t="n">
         <v>2191</v>
       </c>
       <c r="E604" t="n">
-        <v>151198780</v>
+        <v>151222337</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -35386,13 +35386,13 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>11779</v>
+        <v>11780</v>
       </c>
       <c r="D686" t="n">
         <v>1228</v>
       </c>
       <c r="E686" t="n">
-        <v>64591902</v>
+        <v>64596100</v>
       </c>
       <c r="F686" t="inlineStr">
         <is>
@@ -35896,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>16861</v>
+        <v>16863</v>
       </c>
       <c r="D696" t="n">
         <v>2631</v>
       </c>
       <c r="E696" t="n">
-        <v>25926683</v>
+        <v>25926995</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="D697" t="n">
         <v>1238</v>
       </c>
       <c r="E697" t="n">
-        <v>12004759</v>
+        <v>12042753</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -36100,13 +36100,13 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>7487</v>
+        <v>7488</v>
       </c>
       <c r="D700" t="n">
         <v>2188</v>
       </c>
       <c r="E700" t="n">
-        <v>11581850</v>
+        <v>11583350</v>
       </c>
       <c r="F700" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17527</v>
+        <v>17533</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38558282</v>
+        <v>38563671</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19682</v>
+        <v>19686</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56366479</v>
+        <v>56340101</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36406,13 +36406,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D706" t="n">
         <v>455</v>
       </c>
       <c r="E706" t="n">
-        <v>4370460</v>
+        <v>4371451</v>
       </c>
       <c r="F706" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4587</v>
+        <v>4590</v>
       </c>
       <c r="D711" t="n">
         <v>509</v>
       </c>
       <c r="E711" t="n">
-        <v>13131239</v>
+        <v>13132883</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>5641</v>
+        <v>5639</v>
       </c>
       <c r="D712" t="n">
         <v>1176</v>
       </c>
       <c r="E712" t="n">
-        <v>8171016</v>
+        <v>8168120</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17014321</v>
+        <v>17023521</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -38701,13 +38701,13 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>42770</v>
+        <v>42771</v>
       </c>
       <c r="D751" t="n">
         <v>9376</v>
       </c>
       <c r="E751" t="n">
-        <v>128653609</v>
+        <v>128660390</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
@@ -39262,13 +39262,13 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>26482</v>
+        <v>26483</v>
       </c>
       <c r="D762" t="n">
         <v>5899</v>
       </c>
       <c r="E762" t="n">
-        <v>50755823</v>
+        <v>50756818</v>
       </c>
       <c r="F762" t="inlineStr">
         <is>
@@ -41353,13 +41353,13 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>13114</v>
+        <v>13113</v>
       </c>
       <c r="D803" t="n">
         <v>1474</v>
       </c>
       <c r="E803" t="n">
-        <v>73906913</v>
+        <v>73905353</v>
       </c>
       <c r="F803" t="inlineStr">
         <is>
@@ -42475,13 +42475,13 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>7495</v>
+        <v>7497</v>
       </c>
       <c r="D825" t="n">
         <v>1343</v>
       </c>
       <c r="E825" t="n">
-        <v>30298610</v>
+        <v>30309031</v>
       </c>
       <c r="F825" t="inlineStr">
         <is>
@@ -43342,13 +43342,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>17780</v>
+        <v>17783</v>
       </c>
       <c r="D842" t="n">
         <v>2366</v>
       </c>
       <c r="E842" t="n">
-        <v>135038330</v>
+        <v>135240787</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -43393,13 +43393,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>13331</v>
+        <v>13332</v>
       </c>
       <c r="D843" t="n">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="E843" t="n">
-        <v>22827696</v>
+        <v>22829228</v>
       </c>
       <c r="F843" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108519</v>
+        <v>108512</v>
       </c>
       <c r="D852" t="n">
         <v>19713</v>
       </c>
       <c r="E852" t="n">
-        <v>559278837</v>
+        <v>559045584</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182035</v>
+        <v>182030</v>
       </c>
       <c r="D854" t="n">
         <v>17491</v>
       </c>
       <c r="E854" t="n">
-        <v>1645526435</v>
+        <v>1645467917</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59977</v>
+        <v>59976</v>
       </c>
       <c r="D855" t="n">
         <v>9810</v>
       </c>
       <c r="E855" t="n">
-        <v>286090118</v>
+        <v>286087238</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183758</v>
+        <v>183753</v>
       </c>
       <c r="D858" t="n">
         <v>35378</v>
       </c>
       <c r="E858" t="n">
-        <v>551482098</v>
+        <v>551404615</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51259</v>
+        <v>51256</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>420792463</v>
+        <v>420780742</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114873</v>
+        <v>114874</v>
       </c>
       <c r="D862" t="n">
         <v>14326</v>
       </c>
       <c r="E862" t="n">
-        <v>417275250</v>
+        <v>417288914</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48499</v>
+        <v>48497</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>131905667</v>
+        <v>131893100</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165501984</v>
+        <v>165316946</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32738</v>
+        <v>32732</v>
       </c>
       <c r="D888" t="n">
         <v>3649</v>
       </c>
       <c r="E888" t="n">
-        <v>189440020</v>
+        <v>189237284</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11657</v>
+        <v>11656</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54330077</v>
+        <v>54320077</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26091</v>
+        <v>26090</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>117611108</v>
+        <v>117602839</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12337</v>
+        <v>12336</v>
       </c>
       <c r="D910" t="n">
         <v>1776</v>
       </c>
       <c r="E910" t="n">
-        <v>50060970</v>
+        <v>50044279</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -48289,13 +48289,13 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>22810</v>
+        <v>22811</v>
       </c>
       <c r="D939" t="n">
         <v>2673</v>
       </c>
       <c r="E939" t="n">
-        <v>157333222</v>
+        <v>157334862</v>
       </c>
       <c r="F939" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21923</v>
+        <v>21924</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>39901069</v>
+        <v>39902432</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19668</v>
+        <v>19677</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>65855103</v>
+        <v>65875236</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49411,13 +49411,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>5339</v>
+        <v>5341</v>
       </c>
       <c r="D961" t="n">
         <v>1046</v>
       </c>
       <c r="E961" t="n">
-        <v>27508442</v>
+        <v>27521411</v>
       </c>
       <c r="F961" t="inlineStr">
         <is>
@@ -49564,13 +49564,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>7389</v>
+        <v>7391</v>
       </c>
       <c r="D964" t="n">
         <v>946</v>
       </c>
       <c r="E964" t="n">
-        <v>20430292</v>
+        <v>20454086</v>
       </c>
       <c r="F964" t="inlineStr">
         <is>
@@ -49666,13 +49666,13 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>4504</v>
+        <v>4507</v>
       </c>
       <c r="D966" t="n">
         <v>788</v>
       </c>
       <c r="E966" t="n">
-        <v>5997886</v>
+        <v>5999037</v>
       </c>
       <c r="F966" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13086</v>
+        <v>13088</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32911910</v>
+        <v>32905556</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4746</v>
+        <v>4747</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11601630</v>
+        <v>11625430</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11109</v>
+        <v>11110</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>43920883</v>
+        <v>43922283</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50227,13 +50227,13 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>5359</v>
+        <v>5361</v>
       </c>
       <c r="D977" t="n">
         <v>1136</v>
       </c>
       <c r="E977" t="n">
-        <v>12202102</v>
+        <v>12205320</v>
       </c>
       <c r="F977" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11060696</v>
+        <v>11062086</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -53287,13 +53287,13 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>14848</v>
+        <v>14849</v>
       </c>
       <c r="D1037" t="n">
         <v>1653</v>
       </c>
       <c r="E1037" t="n">
-        <v>84264048</v>
+        <v>84352932</v>
       </c>
       <c r="F1037" t="inlineStr">
         <is>
@@ -54919,13 +54919,13 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>28336</v>
+        <v>28337</v>
       </c>
       <c r="D1069" t="n">
         <v>3138</v>
       </c>
       <c r="E1069" t="n">
-        <v>170375854</v>
+        <v>170382347</v>
       </c>
       <c r="F1069" t="inlineStr">
         <is>
@@ -55786,13 +55786,13 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D1086" t="n">
         <v>109</v>
       </c>
       <c r="E1086" t="n">
-        <v>1900914</v>
+        <v>1945914</v>
       </c>
       <c r="F1086" t="inlineStr">
         <is>
@@ -60835,13 +60835,13 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>45563</v>
+        <v>45564</v>
       </c>
       <c r="D1185" t="n">
         <v>5058</v>
       </c>
       <c r="E1185" t="n">
-        <v>292300511</v>
+        <v>292301108</v>
       </c>
       <c r="F1185" t="inlineStr">
         <is>
@@ -61294,13 +61294,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>25248</v>
+        <v>25247</v>
       </c>
       <c r="D1194" t="n">
         <v>5886</v>
       </c>
       <c r="E1194" t="n">
-        <v>46010808</v>
+        <v>46010357</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
@@ -68128,13 +68128,13 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="D1328" t="n">
         <v>373</v>
       </c>
       <c r="E1328" t="n">
-        <v>4744685</v>
+        <v>4747434</v>
       </c>
       <c r="F1328" t="inlineStr">
         <is>
@@ -77155,13 +77155,13 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>33616</v>
+        <v>33615</v>
       </c>
       <c r="D1505" t="n">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="E1505" t="n">
-        <v>215865989</v>
+        <v>215855989</v>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
@@ -78022,13 +78022,13 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>18900</v>
+        <v>18898</v>
       </c>
       <c r="D1522" t="n">
         <v>1994</v>
       </c>
       <c r="E1522" t="n">
-        <v>106438359</v>
+        <v>106392638</v>
       </c>
       <c r="F1522" t="inlineStr">
         <is>
@@ -82204,13 +82204,13 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>57611</v>
+        <v>57612</v>
       </c>
       <c r="D1604" t="n">
         <v>5837</v>
       </c>
       <c r="E1604" t="n">
-        <v>413514593</v>
+        <v>413521195</v>
       </c>
       <c r="F1604" t="inlineStr">
         <is>
@@ -83530,13 +83530,13 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>31880</v>
+        <v>31881</v>
       </c>
       <c r="D1630" t="n">
         <v>6795</v>
       </c>
       <c r="E1630" t="n">
-        <v>61929513</v>
+        <v>61941023</v>
       </c>
       <c r="F1630" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7234,13 +7234,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>15958</v>
+        <v>15960</v>
       </c>
       <c r="D134" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E134" t="n">
-        <v>53696626</v>
+        <v>53698276</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -8560,13 +8560,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>21868</v>
+        <v>21869</v>
       </c>
       <c r="D160" t="n">
         <v>2289</v>
       </c>
       <c r="E160" t="n">
-        <v>119310137</v>
+        <v>119312313</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -10549,13 +10549,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>43530</v>
+        <v>43531</v>
       </c>
       <c r="D199" t="n">
         <v>5147</v>
       </c>
       <c r="E199" t="n">
-        <v>117974399</v>
+        <v>117976065</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -23605,13 +23605,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>16689</v>
+        <v>16690</v>
       </c>
       <c r="D455" t="n">
         <v>1762</v>
       </c>
       <c r="E455" t="n">
-        <v>96210771</v>
+        <v>96223064</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="D507" t="n">
         <v>980</v>
       </c>
       <c r="E507" t="n">
-        <v>26533520</v>
+        <v>26541806</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26869,13 +26869,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>13355</v>
+        <v>13356</v>
       </c>
       <c r="D519" t="n">
         <v>1372</v>
       </c>
       <c r="E519" t="n">
-        <v>74266740</v>
+        <v>74283919</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -31102,13 +31102,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>16213</v>
+        <v>16214</v>
       </c>
       <c r="D602" t="n">
         <v>3606</v>
       </c>
       <c r="E602" t="n">
-        <v>56305487</v>
+        <v>56500688</v>
       </c>
       <c r="F602" t="inlineStr">
         <is>
@@ -35641,13 +35641,13 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D691" t="n">
         <v>361</v>
       </c>
       <c r="E691" t="n">
-        <v>4620973</v>
+        <v>4623158</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -35896,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>16863</v>
+        <v>16865</v>
       </c>
       <c r="D696" t="n">
         <v>2631</v>
       </c>
       <c r="E696" t="n">
-        <v>25926995</v>
+        <v>25928635</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17533</v>
+        <v>17536</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38563671</v>
+        <v>38564635</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19686</v>
+        <v>19691</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56340101</v>
+        <v>56394544</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36508,13 +36508,13 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>9685</v>
+        <v>9687</v>
       </c>
       <c r="D708" t="n">
         <v>1445</v>
       </c>
       <c r="E708" t="n">
-        <v>31910589</v>
+        <v>31911349</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -37018,13 +37018,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>6662</v>
+        <v>6664</v>
       </c>
       <c r="D718" t="n">
         <v>1004</v>
       </c>
       <c r="E718" t="n">
-        <v>13448653</v>
+        <v>13449261</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5662</v>
+        <v>5664</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17023521</v>
+        <v>17026661</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -38701,13 +38701,13 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>42772</v>
+        <v>42773</v>
       </c>
       <c r="D751" t="n">
         <v>9376</v>
       </c>
       <c r="E751" t="n">
-        <v>128858843</v>
+        <v>129058843</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
@@ -38803,13 +38803,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>58617</v>
+        <v>58618</v>
       </c>
       <c r="D753" t="n">
         <v>6091</v>
       </c>
       <c r="E753" t="n">
-        <v>334205823</v>
+        <v>334210878</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -40435,13 +40435,13 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>24425</v>
+        <v>24426</v>
       </c>
       <c r="D785" t="n">
         <v>5298</v>
       </c>
       <c r="E785" t="n">
-        <v>74396406</v>
+        <v>74397082</v>
       </c>
       <c r="F785" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21645</v>
+        <v>21646</v>
       </c>
       <c r="D848" t="n">
         <v>4244</v>
       </c>
       <c r="E848" t="n">
-        <v>85517366</v>
+        <v>85518866</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108518</v>
+        <v>108520</v>
       </c>
       <c r="D852" t="n">
         <v>19713</v>
       </c>
       <c r="E852" t="n">
-        <v>559121064</v>
+        <v>559166829</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90236</v>
+        <v>90237</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232494725</v>
+        <v>232496146</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182034</v>
+        <v>182048</v>
       </c>
       <c r="D854" t="n">
         <v>17492</v>
       </c>
       <c r="E854" t="n">
-        <v>1645487850</v>
+        <v>1645617288</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23220</v>
+        <v>23221</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82666394</v>
+        <v>82676394</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183762</v>
+        <v>183767</v>
       </c>
       <c r="D858" t="n">
         <v>35379</v>
       </c>
       <c r="E858" t="n">
-        <v>551442812</v>
+        <v>551485022</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51262</v>
+        <v>51263</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>420813054</v>
+        <v>420853272</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114880</v>
+        <v>114883</v>
       </c>
       <c r="D862" t="n">
         <v>14327</v>
       </c>
       <c r="E862" t="n">
-        <v>417321407</v>
+        <v>417420786</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48498</v>
+        <v>48499</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>131897962</v>
+        <v>131900511</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127468</v>
+        <v>127472</v>
       </c>
       <c r="D887" t="n">
         <v>13773</v>
       </c>
       <c r="E887" t="n">
-        <v>277354255</v>
+        <v>277367788</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -48544,13 +48544,13 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>9241</v>
+        <v>9242</v>
       </c>
       <c r="D944" t="n">
         <v>1551</v>
       </c>
       <c r="E944" t="n">
-        <v>49839225</v>
+        <v>50039225</v>
       </c>
       <c r="F944" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21924</v>
+        <v>21927</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>39902432</v>
+        <v>39904691</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19678</v>
+        <v>19685</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>65947728</v>
+        <v>65970654</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49207,13 +49207,13 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D957" t="n">
         <v>403</v>
       </c>
       <c r="E957" t="n">
-        <v>8000801</v>
+        <v>8001252</v>
       </c>
       <c r="F957" t="inlineStr">
         <is>
@@ -49360,13 +49360,13 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>7453</v>
+        <v>7455</v>
       </c>
       <c r="D960" t="n">
         <v>1870</v>
       </c>
       <c r="E960" t="n">
-        <v>16968292</v>
+        <v>16969326</v>
       </c>
       <c r="F960" t="inlineStr">
         <is>
@@ -49411,13 +49411,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>5341</v>
+        <v>5342</v>
       </c>
       <c r="D961" t="n">
         <v>1046</v>
       </c>
       <c r="E961" t="n">
-        <v>27521411</v>
+        <v>27691588</v>
       </c>
       <c r="F961" t="inlineStr">
         <is>
@@ -49564,13 +49564,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>7391</v>
+        <v>7393</v>
       </c>
       <c r="D964" t="n">
         <v>946</v>
       </c>
       <c r="E964" t="n">
-        <v>20454086</v>
+        <v>20466364</v>
       </c>
       <c r="F964" t="inlineStr">
         <is>
@@ -49615,13 +49615,13 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>6963</v>
+        <v>6965</v>
       </c>
       <c r="D965" t="n">
         <v>1984</v>
       </c>
       <c r="E965" t="n">
-        <v>9382644</v>
+        <v>9390903</v>
       </c>
       <c r="F965" t="inlineStr">
         <is>
@@ -49717,13 +49717,13 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>4152</v>
+        <v>4154</v>
       </c>
       <c r="D967" t="n">
         <v>848</v>
       </c>
       <c r="E967" t="n">
-        <v>9010715</v>
+        <v>9011715</v>
       </c>
       <c r="F967" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13088</v>
+        <v>13090</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32905556</v>
+        <v>32919097</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -50176,13 +50176,13 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D976" t="n">
         <v>313</v>
       </c>
       <c r="E976" t="n">
-        <v>3215400</v>
+        <v>3221269</v>
       </c>
       <c r="F976" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11062086</v>
+        <v>11063625</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50788,13 +50788,13 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="D988" t="n">
         <v>521</v>
       </c>
       <c r="E988" t="n">
-        <v>11654490</v>
+        <v>11655990</v>
       </c>
       <c r="F988" t="inlineStr">
         <is>
@@ -55735,13 +55735,13 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>8709</v>
+        <v>8710</v>
       </c>
       <c r="D1085" t="n">
         <v>944</v>
       </c>
       <c r="E1085" t="n">
-        <v>45711278</v>
+        <v>45718383</v>
       </c>
       <c r="F1085" t="inlineStr">
         <is>
@@ -60835,13 +60835,13 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>45564</v>
+        <v>45565</v>
       </c>
       <c r="D1185" t="n">
         <v>5058</v>
       </c>
       <c r="E1185" t="n">
-        <v>292301108</v>
+        <v>292301705</v>
       </c>
       <c r="F1185" t="inlineStr">
         <is>
@@ -64252,13 +64252,13 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>24200</v>
+        <v>24201</v>
       </c>
       <c r="D1252" t="n">
         <v>2723</v>
       </c>
       <c r="E1252" t="n">
-        <v>152091733</v>
+        <v>152186811</v>
       </c>
       <c r="F1252" t="inlineStr">
         <is>
@@ -67261,13 +67261,13 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>2466</v>
+        <v>2479</v>
       </c>
       <c r="D1311" t="n">
         <v>953</v>
       </c>
       <c r="E1311" t="n">
-        <v>3029725</v>
+        <v>3077533</v>
       </c>
       <c r="F1311" t="inlineStr">
         <is>
@@ -72055,13 +72055,13 @@
         </is>
       </c>
       <c r="C1405" t="n">
-        <v>10049</v>
+        <v>10050</v>
       </c>
       <c r="D1405" t="n">
         <v>1445</v>
       </c>
       <c r="E1405" t="n">
-        <v>23696200</v>
+        <v>23700320</v>
       </c>
       <c r="F1405" t="inlineStr">
         <is>
@@ -72106,13 +72106,13 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>47504</v>
+        <v>47505</v>
       </c>
       <c r="D1406" t="n">
         <v>5146</v>
       </c>
       <c r="E1406" t="n">
-        <v>285515283</v>
+        <v>285517025</v>
       </c>
       <c r="F1406" t="inlineStr">
         <is>
@@ -76747,13 +76747,13 @@
         </is>
       </c>
       <c r="C1497" t="n">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="D1497" t="n">
         <v>683</v>
       </c>
       <c r="E1497" t="n">
-        <v>7836899</v>
+        <v>7837326</v>
       </c>
       <c r="F1497" t="inlineStr">
         <is>
@@ -82765,13 +82765,13 @@
         </is>
       </c>
       <c r="C1615" t="n">
-        <v>12800</v>
+        <v>12801</v>
       </c>
       <c r="D1615" t="n">
         <v>2909</v>
       </c>
       <c r="E1615" t="n">
-        <v>30206843</v>
+        <v>30216843</v>
       </c>
       <c r="F1615" t="inlineStr">
         <is>
@@ -82969,13 +82969,13 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>65674</v>
+        <v>65676</v>
       </c>
       <c r="D1619" t="n">
         <v>13319</v>
       </c>
       <c r="E1619" t="n">
-        <v>202656385</v>
+        <v>202661208</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
@@ -85009,13 +85009,13 @@
         </is>
       </c>
       <c r="C1659" t="n">
-        <v>19235</v>
+        <v>19236</v>
       </c>
       <c r="D1659" t="n">
         <v>3944</v>
       </c>
       <c r="E1659" t="n">
-        <v>64982445</v>
+        <v>64988288</v>
       </c>
       <c r="F1659" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -5857,13 +5857,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>19160</v>
+        <v>19161</v>
       </c>
       <c r="D107" t="n">
         <v>4015</v>
       </c>
       <c r="E107" t="n">
-        <v>90569683</v>
+        <v>90579683</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35429</v>
+        <v>35430</v>
       </c>
       <c r="D109" t="n">
         <v>3825</v>
       </c>
       <c r="E109" t="n">
-        <v>286125577</v>
+        <v>286145696</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -10141,13 +10141,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>15386</v>
+        <v>15387</v>
       </c>
       <c r="D191" t="n">
         <v>2834</v>
       </c>
       <c r="E191" t="n">
-        <v>119164102</v>
+        <v>119280293</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -10243,13 +10243,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>28016</v>
+        <v>28017</v>
       </c>
       <c r="D193" t="n">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="E193" t="n">
-        <v>247669947</v>
+        <v>247800224</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -35896,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>16865</v>
+        <v>16867</v>
       </c>
       <c r="D696" t="n">
         <v>2631</v>
       </c>
       <c r="E696" t="n">
-        <v>25928635</v>
+        <v>25929535</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17536</v>
+        <v>17541</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38564635</v>
+        <v>38583341</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36202,13 +36202,13 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>5251</v>
+        <v>5253</v>
       </c>
       <c r="D702" t="n">
         <v>745</v>
       </c>
       <c r="E702" t="n">
-        <v>15506389</v>
+        <v>15510059</v>
       </c>
       <c r="F702" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19691</v>
+        <v>19697</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56394544</v>
+        <v>56402512</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36457,13 +36457,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>5960</v>
+        <v>5961</v>
       </c>
       <c r="D707" t="n">
         <v>1306</v>
       </c>
       <c r="E707" t="n">
-        <v>11507364</v>
+        <v>11511893</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -36967,13 +36967,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>7752</v>
+        <v>7756</v>
       </c>
       <c r="D717" t="n">
         <v>1115</v>
       </c>
       <c r="E717" t="n">
-        <v>16740454</v>
+        <v>16748126</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17026661</v>
+        <v>17027467</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -37324,13 +37324,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="D724" t="n">
         <v>448</v>
       </c>
       <c r="E724" t="n">
-        <v>6569152</v>
+        <v>6576697</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -39058,13 +39058,13 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>9850</v>
+        <v>9851</v>
       </c>
       <c r="D758" t="n">
         <v>1919</v>
       </c>
       <c r="E758" t="n">
-        <v>41261084</v>
+        <v>41287606</v>
       </c>
       <c r="F758" t="inlineStr">
         <is>
@@ -39211,13 +39211,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>20284</v>
+        <v>20285</v>
       </c>
       <c r="D761" t="n">
         <v>2479</v>
       </c>
       <c r="E761" t="n">
-        <v>67419503</v>
+        <v>67420734</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
@@ -43138,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>16730</v>
+        <v>16731</v>
       </c>
       <c r="D838" t="n">
         <v>3086</v>
       </c>
       <c r="E838" t="n">
-        <v>64756255</v>
+        <v>64799383</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43342,13 +43342,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>17783</v>
+        <v>17784</v>
       </c>
       <c r="D842" t="n">
         <v>2366</v>
       </c>
       <c r="E842" t="n">
-        <v>135240787</v>
+        <v>135241339</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -43495,13 +43495,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>25088</v>
+        <v>25089</v>
       </c>
       <c r="D845" t="n">
         <v>3136</v>
       </c>
       <c r="E845" t="n">
-        <v>90094527</v>
+        <v>90134841</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108525</v>
+        <v>108529</v>
       </c>
       <c r="D852" t="n">
         <v>19713</v>
       </c>
       <c r="E852" t="n">
-        <v>559195049</v>
+        <v>559270898</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182057</v>
+        <v>182067</v>
       </c>
       <c r="D854" t="n">
         <v>17492</v>
       </c>
       <c r="E854" t="n">
-        <v>1645887645</v>
+        <v>1646039861</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59985</v>
+        <v>59991</v>
       </c>
       <c r="D855" t="n">
         <v>9811</v>
       </c>
       <c r="E855" t="n">
-        <v>286251713</v>
+        <v>286480858</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183771</v>
+        <v>183783</v>
       </c>
       <c r="D858" t="n">
-        <v>35379</v>
+        <v>35380</v>
       </c>
       <c r="E858" t="n">
-        <v>551513929</v>
+        <v>551591600</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51263</v>
+        <v>51268</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>420853272</v>
+        <v>421752432</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114887</v>
+        <v>114895</v>
       </c>
       <c r="D862" t="n">
         <v>14328</v>
       </c>
       <c r="E862" t="n">
-        <v>417470831</v>
+        <v>417687577</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11656</v>
+        <v>11657</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54320077</v>
+        <v>54322777</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26092</v>
+        <v>26094</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>117679094</v>
+        <v>117928146</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -48544,13 +48544,13 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>9242</v>
+        <v>9245</v>
       </c>
       <c r="D944" t="n">
         <v>1551</v>
       </c>
       <c r="E944" t="n">
-        <v>50039225</v>
+        <v>50109919</v>
       </c>
       <c r="F944" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21927</v>
+        <v>21930</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>39904691</v>
+        <v>40006767</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19685</v>
+        <v>19695</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>65970654</v>
+        <v>65984473</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49360,13 +49360,13 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>7455</v>
+        <v>7457</v>
       </c>
       <c r="D960" t="n">
         <v>1870</v>
       </c>
       <c r="E960" t="n">
-        <v>16969326</v>
+        <v>17063682</v>
       </c>
       <c r="F960" t="inlineStr">
         <is>
@@ -49411,13 +49411,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>5342</v>
+        <v>5343</v>
       </c>
       <c r="D961" t="n">
         <v>1046</v>
       </c>
       <c r="E961" t="n">
-        <v>27691588</v>
+        <v>27693629</v>
       </c>
       <c r="F961" t="inlineStr">
         <is>
@@ -49564,13 +49564,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>7393</v>
+        <v>7396</v>
       </c>
       <c r="D964" t="n">
         <v>946</v>
       </c>
       <c r="E964" t="n">
-        <v>20466364</v>
+        <v>20644396</v>
       </c>
       <c r="F964" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13090</v>
+        <v>13094</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32919097</v>
+        <v>32950273</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11111</v>
+        <v>11114</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>43981007</v>
+        <v>43983889</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11063625</v>
+        <v>11065015</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -55735,13 +55735,13 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>8710</v>
+        <v>8711</v>
       </c>
       <c r="D1085" t="n">
         <v>944</v>
       </c>
       <c r="E1085" t="n">
-        <v>45718383</v>
+        <v>45740615</v>
       </c>
       <c r="F1085" t="inlineStr">
         <is>
@@ -56143,13 +56143,13 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>3661</v>
+        <v>3663</v>
       </c>
       <c r="D1093" t="n">
         <v>465</v>
       </c>
       <c r="E1093" t="n">
-        <v>9746743</v>
+        <v>9751711</v>
       </c>
       <c r="F1093" t="inlineStr">
         <is>
@@ -61702,13 +61702,13 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D1202" t="n">
         <v>126</v>
       </c>
       <c r="E1202" t="n">
-        <v>3130777</v>
+        <v>3152345</v>
       </c>
       <c r="F1202" t="inlineStr">
         <is>
@@ -77053,13 +77053,13 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>23421</v>
+        <v>23423</v>
       </c>
       <c r="D1503" t="n">
         <v>5554</v>
       </c>
       <c r="E1503" t="n">
-        <v>80095269</v>
+        <v>80106769</v>
       </c>
       <c r="F1503" t="inlineStr">
         <is>
@@ -79654,13 +79654,13 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>11708</v>
+        <v>11709</v>
       </c>
       <c r="D1554" t="n">
         <v>1237</v>
       </c>
       <c r="E1554" t="n">
-        <v>68381464</v>
+        <v>68385003</v>
       </c>
       <c r="F1554" t="inlineStr">
         <is>
@@ -82765,13 +82765,13 @@
         </is>
       </c>
       <c r="C1615" t="n">
-        <v>12801</v>
+        <v>12802</v>
       </c>
       <c r="D1615" t="n">
         <v>2909</v>
       </c>
       <c r="E1615" t="n">
-        <v>30216843</v>
+        <v>30365607</v>
       </c>
       <c r="F1615" t="inlineStr">
         <is>
@@ -83071,13 +83071,13 @@
         </is>
       </c>
       <c r="C1621" t="n">
-        <v>71818</v>
+        <v>71819</v>
       </c>
       <c r="D1621" t="n">
         <v>7476</v>
       </c>
       <c r="E1621" t="n">
-        <v>410082727</v>
+        <v>410103658</v>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
@@ -85213,13 +85213,13 @@
         </is>
       </c>
       <c r="C1663" t="n">
-        <v>14300</v>
+        <v>14301</v>
       </c>
       <c r="D1663" t="n">
         <v>1689</v>
       </c>
       <c r="E1663" t="n">
-        <v>47672493</v>
+        <v>47708120</v>
       </c>
       <c r="F1663" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6826,13 +6826,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>39416</v>
+        <v>39417</v>
       </c>
       <c r="D126" t="n">
         <v>4169</v>
       </c>
       <c r="E126" t="n">
-        <v>225062002</v>
+        <v>225063457</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6979,13 +6979,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5603</v>
+        <v>5606</v>
       </c>
       <c r="D129" t="n">
         <v>1273</v>
       </c>
       <c r="E129" t="n">
-        <v>11860856</v>
+        <v>11870241</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -9835,13 +9835,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>29884</v>
+        <v>29885</v>
       </c>
       <c r="D185" t="n">
         <v>3706</v>
       </c>
       <c r="E185" t="n">
-        <v>96464978</v>
+        <v>96474978</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -10243,13 +10243,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>28018</v>
+        <v>28019</v>
       </c>
       <c r="D193" t="n">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="E193" t="n">
-        <v>247804348</v>
+        <v>247864342</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -21871,13 +21871,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>6049</v>
+        <v>6050</v>
       </c>
       <c r="D421" t="n">
         <v>1533</v>
       </c>
       <c r="E421" t="n">
-        <v>17135948</v>
+        <v>17145948</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -34570,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>22060</v>
+        <v>22061</v>
       </c>
       <c r="D670" t="n">
         <v>2291</v>
       </c>
       <c r="E670" t="n">
-        <v>132060343</v>
+        <v>132065896</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -34774,13 +34774,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>6918</v>
+        <v>6919</v>
       </c>
       <c r="D674" t="n">
         <v>1532</v>
       </c>
       <c r="E674" t="n">
-        <v>19331306</v>
+        <v>19334806</v>
       </c>
       <c r="F674" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17545</v>
+        <v>17547</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38585419</v>
+        <v>38603446</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19697</v>
+        <v>19700</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56402512</v>
+        <v>56409367</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36457,13 +36457,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>5961</v>
+        <v>5962</v>
       </c>
       <c r="D707" t="n">
         <v>1306</v>
       </c>
       <c r="E707" t="n">
-        <v>11511893</v>
+        <v>11514574</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -36508,13 +36508,13 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>9687</v>
+        <v>9689</v>
       </c>
       <c r="D708" t="n">
         <v>1445</v>
       </c>
       <c r="E708" t="n">
-        <v>31911349</v>
+        <v>31925215</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40343</v>
+        <v>40344</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286593248</v>
+        <v>286611342</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108534</v>
+        <v>108537</v>
       </c>
       <c r="D852" t="n">
         <v>19715</v>
       </c>
       <c r="E852" t="n">
-        <v>559471381</v>
+        <v>559490701</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182077</v>
+        <v>182088</v>
       </c>
       <c r="D854" t="n">
-        <v>17494</v>
+        <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1646276369</v>
+        <v>1646404905</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59992</v>
+        <v>59996</v>
       </c>
       <c r="D855" t="n">
-        <v>9811</v>
+        <v>9812</v>
       </c>
       <c r="E855" t="n">
-        <v>286482644</v>
+        <v>286488644</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23223</v>
+        <v>23224</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82699489</v>
+        <v>82703852</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183787</v>
+        <v>183791</v>
       </c>
       <c r="D858" t="n">
         <v>35380</v>
       </c>
       <c r="E858" t="n">
-        <v>552131715</v>
+        <v>552164010</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51269</v>
+        <v>51275</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>421771933</v>
+        <v>422311944</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114897</v>
+        <v>114902</v>
       </c>
       <c r="D862" t="n">
         <v>14328</v>
       </c>
       <c r="E862" t="n">
-        <v>417698002</v>
+        <v>417795270</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11659</v>
+        <v>11660</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54346838</v>
+        <v>54413360</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46963,13 +46963,13 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>22148</v>
+        <v>22149</v>
       </c>
       <c r="D913" t="n">
         <v>2798</v>
       </c>
       <c r="E913" t="n">
-        <v>64998663</v>
+        <v>65000575</v>
       </c>
       <c r="F913" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19695</v>
+        <v>19700</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>65984473</v>
+        <v>66017381</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13094</v>
+        <v>13100</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32950273</v>
+        <v>32991663</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4749</v>
+        <v>4750</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11632370</v>
+        <v>11633084</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11114</v>
+        <v>11117</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>43983889</v>
+        <v>44051783</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50278,13 +50278,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6416</v>
+        <v>6418</v>
       </c>
       <c r="D978" t="n">
         <v>979</v>
       </c>
       <c r="E978" t="n">
-        <v>18539789</v>
+        <v>18550633</v>
       </c>
       <c r="F978" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11065015</v>
+        <v>11065449</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50788,13 +50788,13 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>4711</v>
+        <v>4712</v>
       </c>
       <c r="D988" t="n">
         <v>521</v>
       </c>
       <c r="E988" t="n">
-        <v>11655990</v>
+        <v>11657490</v>
       </c>
       <c r="F988" t="inlineStr">
         <is>
@@ -63640,13 +63640,13 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D1240" t="n">
         <v>407</v>
       </c>
       <c r="E1240" t="n">
-        <v>4938486</v>
+        <v>4943462</v>
       </c>
       <c r="F1240" t="inlineStr">
         <is>
@@ -74554,13 +74554,13 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>19736</v>
+        <v>19737</v>
       </c>
       <c r="D1454" t="n">
         <v>2199</v>
       </c>
       <c r="E1454" t="n">
-        <v>115288492</v>
+        <v>115309309</v>
       </c>
       <c r="F1454" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -35896,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>16867</v>
+        <v>16869</v>
       </c>
       <c r="D696" t="n">
         <v>2631</v>
       </c>
       <c r="E696" t="n">
-        <v>25929535</v>
+        <v>25930135</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17547</v>
+        <v>17549</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38603446</v>
+        <v>38605108</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19700</v>
+        <v>19702</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56409367</v>
+        <v>56430548</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36457,13 +36457,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>5962</v>
+        <v>5963</v>
       </c>
       <c r="D707" t="n">
         <v>1306</v>
       </c>
       <c r="E707" t="n">
-        <v>11514574</v>
+        <v>11516074</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -36508,13 +36508,13 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>9689</v>
+        <v>9693</v>
       </c>
       <c r="D708" t="n">
         <v>1445</v>
       </c>
       <c r="E708" t="n">
-        <v>31925215</v>
+        <v>31946051</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5669</v>
+        <v>5673</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17048488</v>
+        <v>17148182</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -37324,13 +37324,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="D724" t="n">
         <v>448</v>
       </c>
       <c r="E724" t="n">
-        <v>6576697</v>
+        <v>6585048</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -37375,13 +37375,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>3307</v>
+        <v>3317</v>
       </c>
       <c r="D725" t="n">
         <v>409</v>
       </c>
       <c r="E725" t="n">
-        <v>9065014</v>
+        <v>9227172</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>78160</v>
+        <v>78161</v>
       </c>
       <c r="D836" t="n">
         <v>8364</v>
       </c>
       <c r="E836" t="n">
-        <v>183632643</v>
+        <v>183749036</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43138,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>16731</v>
+        <v>16732</v>
       </c>
       <c r="D838" t="n">
         <v>3086</v>
       </c>
       <c r="E838" t="n">
-        <v>64799383</v>
+        <v>64923201</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43342,13 +43342,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>17784</v>
+        <v>17786</v>
       </c>
       <c r="D842" t="n">
         <v>2366</v>
       </c>
       <c r="E842" t="n">
-        <v>135241339</v>
+        <v>135355942</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -43495,13 +43495,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>25089</v>
+        <v>25090</v>
       </c>
       <c r="D845" t="n">
         <v>3136</v>
       </c>
       <c r="E845" t="n">
-        <v>90134841</v>
+        <v>90142141</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21647</v>
+        <v>21649</v>
       </c>
       <c r="D848" t="n">
         <v>4244</v>
       </c>
       <c r="E848" t="n">
-        <v>85527366</v>
+        <v>85535614</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108537</v>
+        <v>108539</v>
       </c>
       <c r="D852" t="n">
         <v>19715</v>
       </c>
       <c r="E852" t="n">
-        <v>559490701</v>
+        <v>559595635</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90238</v>
+        <v>90240</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232585032</v>
+        <v>232590778</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182095</v>
+        <v>182105</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1646520939</v>
+        <v>1646601645</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59998</v>
+        <v>60001</v>
       </c>
       <c r="D855" t="n">
         <v>9812</v>
       </c>
       <c r="E855" t="n">
-        <v>286494415</v>
+        <v>286509286</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23224</v>
+        <v>23226</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82703852</v>
+        <v>82707326</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183792</v>
+        <v>183799</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552189742</v>
+        <v>552241020</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51275</v>
+        <v>51276</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>422311944</v>
+        <v>422315935</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34634</v>
+        <v>34638</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>69596899</v>
+        <v>70016899</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114904</v>
+        <v>114910</v>
       </c>
       <c r="D862" t="n">
         <v>14328</v>
       </c>
       <c r="E862" t="n">
-        <v>417801008</v>
+        <v>417845289</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45382,13 +45382,13 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>4726</v>
+        <v>4728</v>
       </c>
       <c r="D882" t="n">
         <v>1129</v>
       </c>
       <c r="E882" t="n">
-        <v>13959026</v>
+        <v>13959961</v>
       </c>
       <c r="F882" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40878</v>
+        <v>40879</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165321646</v>
+        <v>165444684</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32733</v>
+        <v>32734</v>
       </c>
       <c r="D888" t="n">
         <v>3649</v>
       </c>
       <c r="E888" t="n">
-        <v>189247284</v>
+        <v>189259281</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23628</v>
+        <v>23629</v>
       </c>
       <c r="D896" t="n">
         <v>3067</v>
       </c>
       <c r="E896" t="n">
-        <v>70422008</v>
+        <v>70430960</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -46759,13 +46759,13 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>29159</v>
+        <v>29160</v>
       </c>
       <c r="D909" t="n">
         <v>5710</v>
       </c>
       <c r="E909" t="n">
-        <v>70238812</v>
+        <v>70243844</v>
       </c>
       <c r="F909" t="inlineStr">
         <is>
@@ -48544,13 +48544,13 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>9245</v>
+        <v>9248</v>
       </c>
       <c r="D944" t="n">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="E944" t="n">
-        <v>50109919</v>
+        <v>50196388</v>
       </c>
       <c r="F944" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21931</v>
+        <v>21933</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>40055599</v>
+        <v>40056540</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19700</v>
+        <v>19703</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>66017381</v>
+        <v>66031872</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49564,13 +49564,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>7396</v>
+        <v>7400</v>
       </c>
       <c r="D964" t="n">
         <v>946</v>
       </c>
       <c r="E964" t="n">
-        <v>20644396</v>
+        <v>20652188</v>
       </c>
       <c r="F964" t="inlineStr">
         <is>
@@ -49666,13 +49666,13 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="D966" t="n">
         <v>788</v>
       </c>
       <c r="E966" t="n">
-        <v>5999037</v>
+        <v>5999357</v>
       </c>
       <c r="F966" t="inlineStr">
         <is>
@@ -49717,13 +49717,13 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>4154</v>
+        <v>4156</v>
       </c>
       <c r="D967" t="n">
         <v>848</v>
       </c>
       <c r="E967" t="n">
-        <v>9011715</v>
+        <v>9036256</v>
       </c>
       <c r="F967" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13100</v>
+        <v>13101</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32991663</v>
+        <v>32996553</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4750</v>
+        <v>4754</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11633084</v>
+        <v>11644170</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11117</v>
+        <v>11123</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44051783</v>
+        <v>44077924</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50227,13 +50227,13 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>5361</v>
+        <v>5363</v>
       </c>
       <c r="D977" t="n">
         <v>1136</v>
       </c>
       <c r="E977" t="n">
-        <v>12205320</v>
+        <v>12210515</v>
       </c>
       <c r="F977" t="inlineStr">
         <is>
@@ -50329,13 +50329,13 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="D979" t="n">
         <v>492</v>
       </c>
       <c r="E979" t="n">
-        <v>4378209</v>
+        <v>4380689</v>
       </c>
       <c r="F979" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11065449</v>
+        <v>11097853</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50482,13 +50482,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>6170</v>
+        <v>6172</v>
       </c>
       <c r="D982" t="n">
         <v>1076</v>
       </c>
       <c r="E982" t="n">
-        <v>11073323</v>
+        <v>11075372</v>
       </c>
       <c r="F982" t="inlineStr">
         <is>
@@ -55021,13 +55021,13 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D1071" t="n">
         <v>235</v>
       </c>
       <c r="E1071" t="n">
-        <v>3408362</v>
+        <v>3608362</v>
       </c>
       <c r="F1071" t="inlineStr">
         <is>
@@ -61294,13 +61294,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>25249</v>
+        <v>25250</v>
       </c>
       <c r="D1194" t="n">
         <v>5886</v>
       </c>
       <c r="E1194" t="n">
-        <v>46011990</v>
+        <v>46021990</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
@@ -78022,13 +78022,13 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>18898</v>
+        <v>18899</v>
       </c>
       <c r="D1522" t="n">
         <v>1994</v>
       </c>
       <c r="E1522" t="n">
-        <v>106392638</v>
+        <v>106396930</v>
       </c>
       <c r="F1522" t="inlineStr">
         <is>
@@ -83275,13 +83275,13 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>41894</v>
+        <v>41895</v>
       </c>
       <c r="D1625" t="n">
         <v>8880</v>
       </c>
       <c r="E1625" t="n">
-        <v>114351813</v>
+        <v>114354508</v>
       </c>
       <c r="F1625" t="inlineStr">
         <is>
@@ -83479,13 +83479,13 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>30163</v>
+        <v>30165</v>
       </c>
       <c r="D1629" t="n">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="E1629" t="n">
-        <v>96078132</v>
+        <v>96098060</v>
       </c>
       <c r="F1629" t="inlineStr">
         <is>
@@ -84193,13 +84193,13 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>12787</v>
+        <v>12789</v>
       </c>
       <c r="D1643" t="n">
         <v>1654</v>
       </c>
       <c r="E1643" t="n">
-        <v>28694362</v>
+        <v>28699078</v>
       </c>
       <c r="F1643" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -8560,13 +8560,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>21869</v>
+        <v>21870</v>
       </c>
       <c r="D160" t="n">
         <v>2289</v>
       </c>
       <c r="E160" t="n">
-        <v>119312313</v>
+        <v>119313102</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41185</v>
+        <v>41188</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86421681</v>
+        <v>86424125</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -9427,13 +9427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55662</v>
+        <v>55665</v>
       </c>
       <c r="D177" t="n">
         <v>5882</v>
       </c>
       <c r="E177" t="n">
-        <v>356235324</v>
+        <v>356249561</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -9631,13 +9631,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>43588</v>
+        <v>43589</v>
       </c>
       <c r="D181" t="n">
         <v>9381</v>
       </c>
       <c r="E181" t="n">
-        <v>118571107</v>
+        <v>118571358</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -35641,13 +35641,13 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D691" t="n">
         <v>361</v>
       </c>
       <c r="E691" t="n">
-        <v>4623158</v>
+        <v>4625037</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17549</v>
+        <v>17550</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38605108</v>
+        <v>38608142</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36406,13 +36406,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="D706" t="n">
         <v>455</v>
       </c>
       <c r="E706" t="n">
-        <v>4371451</v>
+        <v>4372951</v>
       </c>
       <c r="F706" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40344</v>
+        <v>40347</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286611342</v>
+        <v>286637571</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21649</v>
+        <v>21651</v>
       </c>
       <c r="D848" t="n">
         <v>4244</v>
       </c>
       <c r="E848" t="n">
-        <v>85535614</v>
+        <v>85565343</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108540</v>
+        <v>108556</v>
       </c>
       <c r="D852" t="n">
-        <v>19715</v>
+        <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>559631826</v>
+        <v>559758314</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90240</v>
+        <v>90243</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232590778</v>
+        <v>232600646</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182105</v>
+        <v>182117</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1646601645</v>
+        <v>1646770250</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60002</v>
+        <v>60006</v>
       </c>
       <c r="D855" t="n">
         <v>9812</v>
       </c>
       <c r="E855" t="n">
-        <v>286511569</v>
+        <v>286558601</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23226</v>
+        <v>23227</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82707326</v>
+        <v>82709406</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183801</v>
+        <v>183807</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552313762</v>
+        <v>552345651</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51277</v>
+        <v>51281</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>422387795</v>
+        <v>422551426</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34638</v>
+        <v>34639</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70016899</v>
+        <v>70019984</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114910</v>
+        <v>114914</v>
       </c>
       <c r="D862" t="n">
         <v>14328</v>
       </c>
       <c r="E862" t="n">
-        <v>417845289</v>
+        <v>418047457</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48501</v>
+        <v>48514</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>132091445</v>
+        <v>132194989</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40879</v>
+        <v>40882</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165444684</v>
+        <v>165457761</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13101</v>
+        <v>13103</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32996553</v>
+        <v>33006180</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11678220</v>
+        <v>11726703</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11097853</v>
+        <v>11192315</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50839,13 +50839,13 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="D989" t="n">
         <v>324</v>
       </c>
       <c r="E989" t="n">
-        <v>7091551</v>
+        <v>7098337</v>
       </c>
       <c r="F989" t="inlineStr">
         <is>
@@ -51706,13 +51706,13 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D1006" t="n">
         <v>315</v>
       </c>
       <c r="E1006" t="n">
-        <v>4126163</v>
+        <v>4134797</v>
       </c>
       <c r="F1006" t="inlineStr">
         <is>
@@ -68689,13 +68689,13 @@
         </is>
       </c>
       <c r="C1339" t="n">
-        <v>27004</v>
+        <v>27005</v>
       </c>
       <c r="D1339" t="n">
         <v>2942</v>
       </c>
       <c r="E1339" t="n">
-        <v>139537387</v>
+        <v>139546239</v>
       </c>
       <c r="F1339" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -5551,13 +5551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="D101" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E101" t="n">
-        <v>5164367</v>
+        <v>5168867</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -11671,13 +11671,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="D221" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E221" t="n">
-        <v>4078355</v>
+        <v>4083071</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -31102,13 +31102,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>16214</v>
+        <v>16215</v>
       </c>
       <c r="D602" t="n">
         <v>3606</v>
       </c>
       <c r="E602" t="n">
-        <v>56500688</v>
+        <v>56553500</v>
       </c>
       <c r="F602" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40347</v>
+        <v>40350</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286637571</v>
+        <v>286664214</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43138,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>16732</v>
+        <v>16735</v>
       </c>
       <c r="D838" t="n">
         <v>3086</v>
       </c>
       <c r="E838" t="n">
-        <v>64923201</v>
+        <v>65149110</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43495,13 +43495,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>25090</v>
+        <v>25091</v>
       </c>
       <c r="D845" t="n">
         <v>3136</v>
       </c>
       <c r="E845" t="n">
-        <v>90142141</v>
+        <v>90200359</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21652</v>
+        <v>21654</v>
       </c>
       <c r="D848" t="n">
         <v>4244</v>
       </c>
       <c r="E848" t="n">
-        <v>85566843</v>
+        <v>85672719</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108556</v>
+        <v>108559</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>559758314</v>
+        <v>559812551</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90243</v>
+        <v>90244</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232600646</v>
+        <v>232603048</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182124</v>
+        <v>182132</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1646865179</v>
+        <v>1646929307</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60008</v>
+        <v>60013</v>
       </c>
       <c r="D855" t="n">
         <v>9812</v>
       </c>
       <c r="E855" t="n">
-        <v>286576438</v>
+        <v>286694377</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23227</v>
+        <v>23228</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82709406</v>
+        <v>82711868</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183811</v>
+        <v>183819</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552360264</v>
+        <v>552453048</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51281</v>
+        <v>51286</v>
       </c>
       <c r="D859" t="n">
-        <v>6431</v>
+        <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>422551426</v>
+        <v>422891916</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34639</v>
+        <v>34641</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70019984</v>
+        <v>70032228</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114916</v>
+        <v>114921</v>
       </c>
       <c r="D862" t="n">
         <v>14328</v>
       </c>
       <c r="E862" t="n">
-        <v>418051975</v>
+        <v>418103099</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48516</v>
+        <v>48522</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>132197989</v>
+        <v>132232512</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40882</v>
+        <v>40883</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165457761</v>
+        <v>165541991</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23629</v>
+        <v>23630</v>
       </c>
       <c r="D896" t="n">
         <v>3067</v>
       </c>
       <c r="E896" t="n">
-        <v>70430960</v>
+        <v>70440960</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -49411,13 +49411,13 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>5343</v>
+        <v>5346</v>
       </c>
       <c r="D961" t="n">
         <v>1046</v>
       </c>
       <c r="E961" t="n">
-        <v>27693629</v>
+        <v>27703233</v>
       </c>
       <c r="F961" t="inlineStr">
         <is>
@@ -50278,13 +50278,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6418</v>
+        <v>6419</v>
       </c>
       <c r="D978" t="n">
         <v>979</v>
       </c>
       <c r="E978" t="n">
-        <v>18550633</v>
+        <v>18553407</v>
       </c>
       <c r="F978" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11192315</v>
+        <v>11266871</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -65527,13 +65527,13 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>3898</v>
+        <v>3900</v>
       </c>
       <c r="D1277" t="n">
         <v>516</v>
       </c>
       <c r="E1277" t="n">
-        <v>12786506</v>
+        <v>12791105</v>
       </c>
       <c r="F1277" t="inlineStr">
         <is>
@@ -83479,13 +83479,13 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>30165</v>
+        <v>30166</v>
       </c>
       <c r="D1629" t="n">
         <v>3707</v>
       </c>
       <c r="E1629" t="n">
-        <v>96098060</v>
+        <v>96108060</v>
       </c>
       <c r="F1629" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6265,13 +6265,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>29204</v>
+        <v>29205</v>
       </c>
       <c r="D115" t="n">
         <v>4239</v>
       </c>
       <c r="E115" t="n">
-        <v>64730095</v>
+        <v>64734324</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41188</v>
+        <v>41189</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86424125</v>
+        <v>86426076</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -36508,13 +36508,13 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>9693</v>
+        <v>9694</v>
       </c>
       <c r="D708" t="n">
         <v>1445</v>
       </c>
       <c r="E708" t="n">
-        <v>31946051</v>
+        <v>31947576</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -42220,13 +42220,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>17564</v>
+        <v>17565</v>
       </c>
       <c r="D820" t="n">
         <v>2071</v>
       </c>
       <c r="E820" t="n">
-        <v>110684860</v>
+        <v>110687100</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21656</v>
+        <v>21657</v>
       </c>
       <c r="D848" t="n">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>85675719</v>
+        <v>85680790</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108559</v>
+        <v>108567</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>559812551</v>
+        <v>559855378</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182138</v>
+        <v>182151</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1647048716</v>
+        <v>1647143711</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60013</v>
+        <v>60018</v>
       </c>
       <c r="D855" t="n">
-        <v>9812</v>
+        <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>286694377</v>
+        <v>286904146</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23228</v>
+        <v>23230</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82711868</v>
+        <v>82719234</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183823</v>
+        <v>183829</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552459072</v>
+        <v>552506866</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51287</v>
+        <v>51290</v>
       </c>
       <c r="D859" t="n">
         <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>422946828</v>
+        <v>422983014</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114928</v>
+        <v>114935</v>
       </c>
       <c r="D862" t="n">
         <v>14329</v>
       </c>
       <c r="E862" t="n">
-        <v>418142781</v>
+        <v>418179593</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127478</v>
+        <v>127486</v>
       </c>
       <c r="D887" t="n">
         <v>13774</v>
       </c>
       <c r="E887" t="n">
-        <v>277380405</v>
+        <v>277403228</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32735</v>
+        <v>32736</v>
       </c>
       <c r="D888" t="n">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="E888" t="n">
-        <v>189261111</v>
+        <v>189461111</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -46963,13 +46963,13 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>22149</v>
+        <v>22150</v>
       </c>
       <c r="D913" t="n">
         <v>2798</v>
       </c>
       <c r="E913" t="n">
-        <v>65000575</v>
+        <v>65002310</v>
       </c>
       <c r="F913" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11726703</v>
+        <v>11756409</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11123</v>
+        <v>11125</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44077924</v>
+        <v>44114295</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50227,13 +50227,13 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>5363</v>
+        <v>5364</v>
       </c>
       <c r="D977" t="n">
         <v>1136</v>
       </c>
       <c r="E977" t="n">
-        <v>12210515</v>
+        <v>12211202</v>
       </c>
       <c r="F977" t="inlineStr">
         <is>
@@ -52879,13 +52879,13 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="D1029" t="n">
         <v>577</v>
       </c>
       <c r="E1029" t="n">
-        <v>12779933</v>
+        <v>12789933</v>
       </c>
       <c r="F1029" t="inlineStr">
         <is>
@@ -63691,13 +63691,13 @@
         </is>
       </c>
       <c r="C1241" t="n">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="D1241" t="n">
         <v>316</v>
       </c>
       <c r="E1241" t="n">
-        <v>2996501</v>
+        <v>3002156</v>
       </c>
       <c r="F1241" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7132,13 +7132,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>18005</v>
+        <v>18006</v>
       </c>
       <c r="D132" t="n">
         <v>2818</v>
       </c>
       <c r="E132" t="n">
-        <v>36971382</v>
+        <v>36973137</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -26869,13 +26869,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>13359</v>
+        <v>13362</v>
       </c>
       <c r="D519" t="n">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="E519" t="n">
-        <v>74296344</v>
+        <v>74323398</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19706</v>
+        <v>19709</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56474296</v>
+        <v>56504296</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>5639</v>
+        <v>5641</v>
       </c>
       <c r="D712" t="n">
         <v>1176</v>
       </c>
       <c r="E712" t="n">
-        <v>8168120</v>
+        <v>8171016</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -41353,13 +41353,13 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>13113</v>
+        <v>13114</v>
       </c>
       <c r="D803" t="n">
         <v>1474</v>
       </c>
       <c r="E803" t="n">
-        <v>73905353</v>
+        <v>73906913</v>
       </c>
       <c r="F803" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108573</v>
+        <v>108582</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>560251482</v>
+        <v>560510897</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182153</v>
+        <v>182161</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1647163711</v>
+        <v>1647242211</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60024</v>
+        <v>60025</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>287361379</v>
+        <v>287364259</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183834</v>
+        <v>183841</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552728267</v>
+        <v>552816755</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51291</v>
+        <v>51294</v>
       </c>
       <c r="D859" t="n">
         <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>422995132</v>
+        <v>423006853</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114935</v>
+        <v>114941</v>
       </c>
       <c r="D862" t="n">
-        <v>14329</v>
+        <v>14330</v>
       </c>
       <c r="E862" t="n">
-        <v>418179593</v>
+        <v>418221541</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48524</v>
+        <v>48526</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>132252512</v>
+        <v>132265079</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40887</v>
+        <v>40888</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165625973</v>
+        <v>165825973</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32736</v>
+        <v>32743</v>
       </c>
       <c r="D888" t="n">
         <v>3651</v>
       </c>
       <c r="E888" t="n">
-        <v>189461111</v>
+        <v>189676893</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11662</v>
+        <v>11663</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54517545</v>
+        <v>54527545</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26094</v>
+        <v>26095</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>117928146</v>
+        <v>117936415</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12336</v>
+        <v>12337</v>
       </c>
       <c r="D910" t="n">
         <v>1776</v>
       </c>
       <c r="E910" t="n">
-        <v>50044279</v>
+        <v>50060970</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21933</v>
+        <v>21935</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>40056540</v>
+        <v>40057160</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13103</v>
+        <v>13104</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>33006180</v>
+        <v>33016552</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11125</v>
+        <v>11126</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44114295</v>
+        <v>44116847</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -61294,13 +61294,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>25250</v>
+        <v>25251</v>
       </c>
       <c r="D1194" t="n">
         <v>5886</v>
       </c>
       <c r="E1194" t="n">
-        <v>46021990</v>
+        <v>46022441</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
@@ -77155,13 +77155,13 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>33615</v>
+        <v>33616</v>
       </c>
       <c r="D1505" t="n">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="E1505" t="n">
-        <v>215855989</v>
+        <v>215865989</v>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
@@ -78022,13 +78022,13 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>18899</v>
+        <v>18901</v>
       </c>
       <c r="D1522" t="n">
         <v>1994</v>
       </c>
       <c r="E1522" t="n">
-        <v>106396930</v>
+        <v>106442651</v>
       </c>
       <c r="F1522" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6775,13 +6775,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7492</v>
+        <v>7495</v>
       </c>
       <c r="D125" t="n">
         <v>1184</v>
       </c>
       <c r="E125" t="n">
-        <v>21777708</v>
+        <v>21785436</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4595</v>
+        <v>4597</v>
       </c>
       <c r="D711" t="n">
         <v>509</v>
       </c>
       <c r="E711" t="n">
-        <v>13136235</v>
+        <v>13136795</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -38701,13 +38701,13 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="D751" t="n">
         <v>9376</v>
       </c>
       <c r="E751" t="n">
-        <v>129058843</v>
+        <v>129257296</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
@@ -42067,13 +42067,13 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>11512</v>
+        <v>11513</v>
       </c>
       <c r="D817" t="n">
         <v>3779</v>
       </c>
       <c r="E817" t="n">
-        <v>23543825</v>
+        <v>23553825</v>
       </c>
       <c r="F817" t="inlineStr">
         <is>
@@ -43138,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>16735</v>
+        <v>16736</v>
       </c>
       <c r="D838" t="n">
         <v>3086</v>
       </c>
       <c r="E838" t="n">
-        <v>65149110</v>
+        <v>65194851</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43291,13 +43291,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>50257</v>
+        <v>50258</v>
       </c>
       <c r="D841" t="n">
         <v>9606</v>
       </c>
       <c r="E841" t="n">
-        <v>156702339</v>
+        <v>156888595</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108601</v>
+        <v>108607</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>560740778</v>
+        <v>560816258</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90255</v>
+        <v>90256</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232651475</v>
+        <v>232662737</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182189</v>
+        <v>182193</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1647605476</v>
+        <v>1647625409</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60040</v>
+        <v>60045</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>287970618</v>
+        <v>288094933</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23231</v>
+        <v>23232</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82729234</v>
+        <v>82735442</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183858</v>
+        <v>183867</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552915526</v>
+        <v>552953723</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51308</v>
+        <v>51314</v>
       </c>
       <c r="D859" t="n">
         <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>423417564</v>
+        <v>423449876</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34647</v>
+        <v>34648</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70047419</v>
+        <v>70052614</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44311,13 +44311,13 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>25660</v>
+        <v>25661</v>
       </c>
       <c r="D861" t="n">
         <v>9251</v>
       </c>
       <c r="E861" t="n">
-        <v>35765821</v>
+        <v>35767266</v>
       </c>
       <c r="F861" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114956</v>
+        <v>114962</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418282027</v>
+        <v>418314520</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48538</v>
+        <v>48539</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>132898682</v>
+        <v>132903544</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45076,13 +45076,13 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>8443</v>
+        <v>8444</v>
       </c>
       <c r="D876" t="n">
         <v>1569</v>
       </c>
       <c r="E876" t="n">
-        <v>38014119</v>
+        <v>38057085</v>
       </c>
       <c r="F876" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40888</v>
+        <v>40889</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165825973</v>
+        <v>165830673</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23632</v>
+        <v>23633</v>
       </c>
       <c r="D896" t="n">
         <v>3067</v>
       </c>
       <c r="E896" t="n">
-        <v>70444136</v>
+        <v>70444916</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26096</v>
+        <v>26098</v>
       </c>
       <c r="D903" t="n">
         <v>5586</v>
       </c>
       <c r="E903" t="n">
-        <v>117960796</v>
+        <v>118037051</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -48799,13 +48799,13 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>7893</v>
+        <v>7894</v>
       </c>
       <c r="D949" t="n">
         <v>1793</v>
       </c>
       <c r="E949" t="n">
-        <v>11289237</v>
+        <v>11291524</v>
       </c>
       <c r="F949" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19706</v>
+        <v>19707</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>66074807</v>
+        <v>66147299</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4757</v>
+        <v>4759</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11756409</v>
+        <v>11763349</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -60937,13 +60937,13 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c r="D1187" t="n">
         <v>659</v>
       </c>
       <c r="E1187" t="n">
-        <v>5368312</v>
+        <v>5371312</v>
       </c>
       <c r="F1187" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6775,13 +6775,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7495</v>
+        <v>7496</v>
       </c>
       <c r="D125" t="n">
         <v>1184</v>
       </c>
       <c r="E125" t="n">
-        <v>21785436</v>
+        <v>21787964</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -10396,13 +10396,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6160</v>
+        <v>6165</v>
       </c>
       <c r="D196" t="n">
         <v>1187</v>
       </c>
       <c r="E196" t="n">
-        <v>25365330</v>
+        <v>25375594</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>8765</v>
+        <v>8766</v>
       </c>
       <c r="D201" t="n">
         <v>1106</v>
       </c>
       <c r="E201" t="n">
-        <v>30579438</v>
+        <v>30579453</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -21157,13 +21157,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>7557</v>
+        <v>7558</v>
       </c>
       <c r="D407" t="n">
         <v>816</v>
       </c>
       <c r="E407" t="n">
-        <v>37624900</v>
+        <v>37634900</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -39925,13 +39925,13 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="D775" t="n">
         <v>712</v>
       </c>
       <c r="E775" t="n">
-        <v>14064512</v>
+        <v>14067448</v>
       </c>
       <c r="F775" t="inlineStr">
         <is>
@@ -42220,13 +42220,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>17566</v>
+        <v>17567</v>
       </c>
       <c r="D820" t="n">
         <v>2071</v>
       </c>
       <c r="E820" t="n">
-        <v>110702730</v>
+        <v>110705530</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>78163</v>
+        <v>78164</v>
       </c>
       <c r="D836" t="n">
         <v>8364</v>
       </c>
       <c r="E836" t="n">
-        <v>184113200</v>
+        <v>184193612</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40351</v>
+        <v>40352</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286711797</v>
+        <v>286743006</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43291,13 +43291,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>50258</v>
+        <v>50259</v>
       </c>
       <c r="D841" t="n">
         <v>9606</v>
       </c>
       <c r="E841" t="n">
-        <v>156888595</v>
+        <v>156896251</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21660</v>
+        <v>21661</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86080002</v>
+        <v>86088502</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108607</v>
+        <v>108612</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>560816258</v>
+        <v>560844478</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182200</v>
+        <v>182209</v>
       </c>
       <c r="D854" t="n">
         <v>17496</v>
       </c>
       <c r="E854" t="n">
-        <v>1647681032</v>
+        <v>1647951389</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60049</v>
+        <v>60053</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>288516413</v>
+        <v>288556573</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44056,13 +44056,13 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>8664</v>
+        <v>8666</v>
       </c>
       <c r="D856" t="n">
         <v>1645</v>
       </c>
       <c r="E856" t="n">
-        <v>44360776</v>
+        <v>44393536</v>
       </c>
       <c r="F856" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23232</v>
+        <v>23233</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82735442</v>
+        <v>82750037</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183871</v>
+        <v>183875</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552963910</v>
+        <v>552992817</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34649</v>
+        <v>34650</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70055446</v>
+        <v>70058556</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114964</v>
+        <v>114968</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418325118</v>
+        <v>418375163</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48541</v>
+        <v>48543</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>132911877</v>
+        <v>133102811</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127493</v>
+        <v>127495</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277425743</v>
+        <v>277427855</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11126</v>
+        <v>11127</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44116847</v>
+        <v>44175571</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50278,13 +50278,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6422</v>
+        <v>6424</v>
       </c>
       <c r="D978" t="n">
         <v>979</v>
       </c>
       <c r="E978" t="n">
-        <v>19153407</v>
+        <v>19297530</v>
       </c>
       <c r="F978" t="inlineStr">
         <is>
@@ -64252,13 +64252,13 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>24202</v>
+        <v>24203</v>
       </c>
       <c r="D1252" t="n">
         <v>2723</v>
       </c>
       <c r="E1252" t="n">
-        <v>152212322</v>
+        <v>152237833</v>
       </c>
       <c r="F1252" t="inlineStr">
         <is>
@@ -78277,13 +78277,13 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="D1527" t="n">
         <v>718</v>
       </c>
       <c r="E1527" t="n">
-        <v>15086414</v>
+        <v>15087659</v>
       </c>
       <c r="F1527" t="inlineStr">
         <is>
@@ -83275,13 +83275,13 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>41897</v>
+        <v>41899</v>
       </c>
       <c r="D1625" t="n">
         <v>8880</v>
       </c>
       <c r="E1625" t="n">
-        <v>114358647</v>
+        <v>114575135</v>
       </c>
       <c r="F1625" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -10243,13 +10243,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>28019</v>
+        <v>28020</v>
       </c>
       <c r="D193" t="n">
         <v>3021</v>
       </c>
       <c r="E193" t="n">
-        <v>247864342</v>
+        <v>247868466</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>8766</v>
+        <v>8768</v>
       </c>
       <c r="D201" t="n">
         <v>1106</v>
       </c>
       <c r="E201" t="n">
-        <v>30579453</v>
+        <v>30583596</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17552</v>
+        <v>17556</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38617029</v>
+        <v>38619107</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5676</v>
+        <v>5678</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17154135</v>
+        <v>17162226</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -38803,13 +38803,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>58624</v>
+        <v>58626</v>
       </c>
       <c r="D753" t="n">
         <v>6091</v>
       </c>
       <c r="E753" t="n">
-        <v>334378061</v>
+        <v>334438707</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -42118,13 +42118,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>18670</v>
+        <v>18672</v>
       </c>
       <c r="D818" t="n">
         <v>4377</v>
       </c>
       <c r="E818" t="n">
-        <v>59929622</v>
+        <v>59941711</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108613</v>
+        <v>108618</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>560855680</v>
+        <v>561056163</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90257</v>
+        <v>90258</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232666323</v>
+        <v>232755209</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182211</v>
+        <v>182221</v>
       </c>
       <c r="D854" t="n">
         <v>17496</v>
       </c>
       <c r="E854" t="n">
-        <v>1647962503</v>
+        <v>1648199011</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60055</v>
+        <v>60056</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>288571901</v>
+        <v>288573687</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23234</v>
+        <v>23235</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82760037</v>
+        <v>82768537</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183881</v>
+        <v>183885</v>
       </c>
       <c r="D858" t="n">
         <v>35382</v>
       </c>
       <c r="E858" t="n">
-        <v>553096437</v>
+        <v>553636552</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51315</v>
+        <v>51316</v>
       </c>
       <c r="D859" t="n">
         <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>423597227</v>
+        <v>423616728</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34652</v>
+        <v>34653</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70065132</v>
+        <v>70066583</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114969</v>
+        <v>114971</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418377311</v>
+        <v>418387736</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44821,13 +44821,13 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>25065</v>
+        <v>25067</v>
       </c>
       <c r="D871" t="n">
         <v>2823</v>
       </c>
       <c r="E871" t="n">
-        <v>160324122</v>
+        <v>160374418</v>
       </c>
       <c r="F871" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127498</v>
+        <v>127500</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277436117</v>
+        <v>277441100</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32743</v>
+        <v>32744</v>
       </c>
       <c r="D888" t="n">
         <v>3651</v>
       </c>
       <c r="E888" t="n">
-        <v>189676893</v>
+        <v>189686893</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -45739,13 +45739,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9190</v>
+        <v>9191</v>
       </c>
       <c r="D889" t="n">
         <v>1689</v>
       </c>
       <c r="E889" t="n">
-        <v>23306787</v>
+        <v>23312012</v>
       </c>
       <c r="F889" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11666</v>
+        <v>11668</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54535053</v>
+        <v>54559114</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23633</v>
+        <v>23634</v>
       </c>
       <c r="D896" t="n">
         <v>3067</v>
       </c>
       <c r="E896" t="n">
-        <v>70444916</v>
+        <v>70454916</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -48187,13 +48187,13 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>19627</v>
+        <v>19628</v>
       </c>
       <c r="D937" t="n">
         <v>4565</v>
       </c>
       <c r="E937" t="n">
-        <v>66765616</v>
+        <v>66965616</v>
       </c>
       <c r="F937" t="inlineStr">
         <is>
@@ -61294,13 +61294,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>25252</v>
+        <v>25253</v>
       </c>
       <c r="D1194" t="n">
         <v>5886</v>
       </c>
       <c r="E1194" t="n">
-        <v>46023941</v>
+        <v>46025005</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
@@ -83275,13 +83275,13 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>41899</v>
+        <v>41900</v>
       </c>
       <c r="D1625" t="n">
         <v>8880</v>
       </c>
       <c r="E1625" t="n">
-        <v>114575135</v>
+        <v>114577385</v>
       </c>
       <c r="F1625" t="inlineStr">
         <is>
@@ -83887,13 +83887,13 @@
         </is>
       </c>
       <c r="C1637" t="n">
-        <v>11818</v>
+        <v>11821</v>
       </c>
       <c r="D1637" t="n">
         <v>1283</v>
       </c>
       <c r="E1637" t="n">
-        <v>72015481</v>
+        <v>72045481</v>
       </c>
       <c r="F1637" t="inlineStr">
         <is>
@@ -84805,13 +84805,13 @@
         </is>
       </c>
       <c r="C1655" t="n">
-        <v>43638</v>
+        <v>43640</v>
       </c>
       <c r="D1655" t="n">
         <v>5001</v>
       </c>
       <c r="E1655" t="n">
-        <v>274786832</v>
+        <v>274909095</v>
       </c>
       <c r="F1655" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6826,13 +6826,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>39418</v>
+        <v>39419</v>
       </c>
       <c r="D126" t="n">
         <v>4169</v>
       </c>
       <c r="E126" t="n">
-        <v>225065374</v>
+        <v>225067291</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -12436,13 +12436,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>6002</v>
+        <v>6003</v>
       </c>
       <c r="D236" t="n">
         <v>1375</v>
       </c>
       <c r="E236" t="n">
-        <v>12524255</v>
+        <v>12608292</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -18964,13 +18964,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>8175</v>
+        <v>8176</v>
       </c>
       <c r="D364" t="n">
         <v>1134</v>
       </c>
       <c r="E364" t="n">
-        <v>29528560</v>
+        <v>29531204</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -27073,13 +27073,13 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>4950</v>
+        <v>4951</v>
       </c>
       <c r="D523" t="n">
         <v>869</v>
       </c>
       <c r="E523" t="n">
-        <v>20510381</v>
+        <v>20511881</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5678</v>
+        <v>5680</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17162226</v>
+        <v>17175156</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -37579,13 +37579,13 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="D729" t="n">
         <v>299</v>
       </c>
       <c r="E729" t="n">
-        <v>3752857</v>
+        <v>3754697</v>
       </c>
       <c r="F729" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182235</v>
+        <v>182242</v>
       </c>
       <c r="D854" t="n">
         <v>17496</v>
       </c>
       <c r="E854" t="n">
-        <v>1648340189</v>
+        <v>1648456223</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60056</v>
+        <v>60058</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>288573687</v>
+        <v>288579458</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183889</v>
+        <v>183890</v>
       </c>
       <c r="D858" t="n">
         <v>35382</v>
       </c>
       <c r="E858" t="n">
-        <v>553651614</v>
+        <v>553677346</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34654</v>
+        <v>34656</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70068231</v>
+        <v>70094408</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114976</v>
+        <v>114978</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418429193</v>
+        <v>418434931</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44821,13 +44821,13 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>25067</v>
+        <v>25068</v>
       </c>
       <c r="D871" t="n">
         <v>2823</v>
       </c>
       <c r="E871" t="n">
-        <v>160374418</v>
+        <v>160411835</v>
       </c>
       <c r="F871" t="inlineStr">
         <is>
@@ -45535,13 +45535,13 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>16864</v>
+        <v>16865</v>
       </c>
       <c r="D885" t="n">
         <v>5279</v>
       </c>
       <c r="E885" t="n">
-        <v>32415618</v>
+        <v>32489480</v>
       </c>
       <c r="F885" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127500</v>
+        <v>127501</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277441100</v>
+        <v>277443956</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25951</v>
+        <v>25953</v>
       </c>
       <c r="D892" t="n">
         <v>5119</v>
       </c>
       <c r="E892" t="n">
-        <v>67393127</v>
+        <v>67470094</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11668</v>
+        <v>11669</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54559114</v>
+        <v>54602868</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21935</v>
+        <v>21936</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>40057160</v>
+        <v>40105992</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -56551,13 +56551,13 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>17939</v>
+        <v>17940</v>
       </c>
       <c r="D1101" t="n">
         <v>4166</v>
       </c>
       <c r="E1101" t="n">
-        <v>48387962</v>
+        <v>48397076</v>
       </c>
       <c r="F1101" t="inlineStr">
         <is>
@@ -60733,13 +60733,13 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>43493</v>
+        <v>43495</v>
       </c>
       <c r="D1183" t="n">
         <v>9851</v>
       </c>
       <c r="E1183" t="n">
-        <v>134061269</v>
+        <v>134074929</v>
       </c>
       <c r="F1183" t="inlineStr">
         <is>
@@ -61294,13 +61294,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>25253</v>
+        <v>25254</v>
       </c>
       <c r="D1194" t="n">
         <v>5886</v>
       </c>
       <c r="E1194" t="n">
-        <v>46025005</v>
+        <v>46025574</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
@@ -82102,13 +82102,13 @@
         </is>
       </c>
       <c r="C1602" t="n">
-        <v>47409</v>
+        <v>47410</v>
       </c>
       <c r="D1602" t="n">
         <v>8772</v>
       </c>
       <c r="E1602" t="n">
-        <v>161649789</v>
+        <v>161655984</v>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
@@ -83530,13 +83530,13 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>31882</v>
+        <v>31883</v>
       </c>
       <c r="D1630" t="n">
         <v>6795</v>
       </c>
       <c r="E1630" t="n">
-        <v>61942523</v>
+        <v>61944023</v>
       </c>
       <c r="F1630" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -29470,13 +29470,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>32327</v>
+        <v>32328</v>
       </c>
       <c r="D570" t="n">
         <v>3276</v>
       </c>
       <c r="E570" t="n">
-        <v>232292393</v>
+        <v>232297456</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
@@ -29725,13 +29725,13 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6467</v>
+        <v>6468</v>
       </c>
       <c r="D575" t="n">
         <v>1216</v>
       </c>
       <c r="E575" t="n">
-        <v>24903266</v>
+        <v>24913266</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -38803,13 +38803,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>58626</v>
+        <v>58628</v>
       </c>
       <c r="D753" t="n">
         <v>6091</v>
       </c>
       <c r="E753" t="n">
-        <v>334438707</v>
+        <v>334499353</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -42118,13 +42118,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>18672</v>
+        <v>18674</v>
       </c>
       <c r="D818" t="n">
         <v>4377</v>
       </c>
       <c r="E818" t="n">
-        <v>59941711</v>
+        <v>60113007</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -43342,13 +43342,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>17788</v>
+        <v>17789</v>
       </c>
       <c r="D842" t="n">
         <v>2366</v>
       </c>
       <c r="E842" t="n">
-        <v>135461726</v>
+        <v>135471726</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108629</v>
+        <v>108630</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>561348642</v>
+        <v>561384833</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60060</v>
+        <v>60061</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>288591900</v>
+        <v>288594183</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183900</v>
+        <v>183902</v>
       </c>
       <c r="D858" t="n">
         <v>35382</v>
       </c>
       <c r="E858" t="n">
-        <v>553707597</v>
+        <v>553780339</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51319</v>
+        <v>51320</v>
       </c>
       <c r="D859" t="n">
         <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>424022060</v>
+        <v>424093920</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127501</v>
+        <v>127502</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277443956</v>
+        <v>277446622</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32744</v>
+        <v>32745</v>
       </c>
       <c r="D888" t="n">
         <v>3651</v>
       </c>
       <c r="E888" t="n">
-        <v>189686893</v>
+        <v>189688723</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -46147,13 +46147,13 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>11614</v>
+        <v>11617</v>
       </c>
       <c r="D897" t="n">
         <v>2464</v>
       </c>
       <c r="E897" t="n">
-        <v>25244845</v>
+        <v>25274845</v>
       </c>
       <c r="F897" t="inlineStr">
         <is>
@@ -47320,13 +47320,13 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>20323</v>
+        <v>20324</v>
       </c>
       <c r="D920" t="n">
         <v>4581</v>
       </c>
       <c r="E920" t="n">
-        <v>65613405</v>
+        <v>65643869</v>
       </c>
       <c r="F920" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19708</v>
+        <v>19710</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>66154634</v>
+        <v>66163080</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4759</v>
+        <v>4760</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11763349</v>
+        <v>11797399</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -82204,13 +82204,13 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>57613</v>
+        <v>57614</v>
       </c>
       <c r="D1604" t="n">
         <v>5837</v>
       </c>
       <c r="E1604" t="n">
-        <v>413575810</v>
+        <v>413630425</v>
       </c>
       <c r="F1604" t="inlineStr">
         <is>
@@ -85672,13 +85672,13 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>25341</v>
+        <v>25347</v>
       </c>
       <c r="D1672" t="n">
         <v>2703</v>
       </c>
       <c r="E1672" t="n">
-        <v>143603429</v>
+        <v>143663429</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -18556,13 +18556,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>28621</v>
+        <v>28622</v>
       </c>
       <c r="D356" t="n">
         <v>3123</v>
       </c>
       <c r="E356" t="n">
-        <v>171989789</v>
+        <v>172011826</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -21157,13 +21157,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>7558</v>
+        <v>7559</v>
       </c>
       <c r="D407" t="n">
         <v>816</v>
       </c>
       <c r="E407" t="n">
-        <v>37634900</v>
+        <v>37639283</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -26869,13 +26869,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>13362</v>
+        <v>13365</v>
       </c>
       <c r="D519" t="n">
         <v>1373</v>
       </c>
       <c r="E519" t="n">
-        <v>74323398</v>
+        <v>74335823</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -27685,13 +27685,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>7075</v>
+        <v>7076</v>
       </c>
       <c r="D535" t="n">
         <v>717</v>
       </c>
       <c r="E535" t="n">
-        <v>32824142</v>
+        <v>32826523</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -31204,13 +31204,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>21451</v>
+        <v>21452</v>
       </c>
       <c r="D604" t="n">
         <v>2191</v>
       </c>
       <c r="E604" t="n">
-        <v>151224325</v>
+        <v>151226313</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -40027,13 +40027,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="D777" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E777" t="n">
-        <v>4027317</v>
+        <v>4027392</v>
       </c>
       <c r="F777" t="inlineStr">
         <is>
@@ -42169,13 +42169,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>42281</v>
+        <v>42285</v>
       </c>
       <c r="D819" t="n">
         <v>4810</v>
       </c>
       <c r="E819" t="n">
-        <v>95166875</v>
+        <v>95172243</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
@@ -43444,13 +43444,13 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>11121</v>
+        <v>11122</v>
       </c>
       <c r="D844" t="n">
         <v>4184</v>
       </c>
       <c r="E844" t="n">
-        <v>15022629</v>
+        <v>15024129</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21662</v>
+        <v>21663</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86091935</v>
+        <v>86093435</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182248</v>
+        <v>182255</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1648621417</v>
+        <v>1648716346</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60066</v>
+        <v>60068</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>288799260</v>
+        <v>288817097</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183904</v>
+        <v>183910</v>
       </c>
       <c r="D858" t="n">
-        <v>35382</v>
+        <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>553791049</v>
+        <v>553811318</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114986</v>
+        <v>114988</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418732620</v>
+        <v>418737138</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48554</v>
+        <v>48556</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133133515</v>
+        <v>133136515</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>75231</v>
+        <v>75232</v>
       </c>
       <c r="D904" t="n">
         <v>8098</v>
       </c>
       <c r="E904" t="n">
-        <v>168656198</v>
+        <v>168661643</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -46606,13 +46606,13 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>8671</v>
+        <v>8675</v>
       </c>
       <c r="D906" t="n">
         <v>1653</v>
       </c>
       <c r="E906" t="n">
-        <v>19788834</v>
+        <v>19845091</v>
       </c>
       <c r="F906" t="inlineStr">
         <is>
@@ -48187,13 +48187,13 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>19628</v>
+        <v>19630</v>
       </c>
       <c r="D937" t="n">
         <v>4565</v>
       </c>
       <c r="E937" t="n">
-        <v>66965616</v>
+        <v>67058846</v>
       </c>
       <c r="F937" t="inlineStr">
         <is>
@@ -61090,13 +61090,13 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>14376</v>
+        <v>14377</v>
       </c>
       <c r="D1190" t="n">
         <v>2709</v>
       </c>
       <c r="E1190" t="n">
-        <v>47786805</v>
+        <v>47796211</v>
       </c>
       <c r="F1190" t="inlineStr">
         <is>
@@ -61141,13 +61141,13 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>15049</v>
+        <v>15050</v>
       </c>
       <c r="D1191" t="n">
         <v>2498</v>
       </c>
       <c r="E1191" t="n">
-        <v>25322413</v>
+        <v>25332413</v>
       </c>
       <c r="F1191" t="inlineStr">
         <is>
@@ -72259,13 +72259,13 @@
         </is>
       </c>
       <c r="C1409" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="D1409" t="n">
         <v>1802</v>
       </c>
       <c r="E1409" t="n">
-        <v>16072942</v>
+        <v>16089646</v>
       </c>
       <c r="F1409" t="inlineStr">
         <is>
@@ -83020,13 +83020,13 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>28431</v>
+        <v>28432</v>
       </c>
       <c r="D1620" t="n">
         <v>3812</v>
       </c>
       <c r="E1620" t="n">
-        <v>76939785</v>
+        <v>77139785</v>
       </c>
       <c r="F1620" t="inlineStr">
         <is>
@@ -85978,13 +85978,13 @@
         </is>
       </c>
       <c r="C1678" t="n">
-        <v>5195</v>
+        <v>5196</v>
       </c>
       <c r="D1678" t="n">
         <v>847</v>
       </c>
       <c r="E1678" t="n">
-        <v>7874266</v>
+        <v>7875766</v>
       </c>
       <c r="F1678" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6673,13 +6673,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>16225</v>
+        <v>16226</v>
       </c>
       <c r="D123" t="n">
         <v>5631</v>
       </c>
       <c r="E123" t="n">
-        <v>27216222</v>
+        <v>27221542</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -10141,13 +10141,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>15396</v>
+        <v>15400</v>
       </c>
       <c r="D191" t="n">
         <v>2834</v>
       </c>
       <c r="E191" t="n">
-        <v>120970514</v>
+        <v>121660735</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -10396,13 +10396,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6165</v>
+        <v>6166</v>
       </c>
       <c r="D196" t="n">
         <v>1187</v>
       </c>
       <c r="E196" t="n">
-        <v>25375594</v>
+        <v>25377136</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -11110,13 +11110,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>15496</v>
+        <v>15497</v>
       </c>
       <c r="D210" t="n">
         <v>1642</v>
       </c>
       <c r="E210" t="n">
-        <v>101021216</v>
+        <v>101032978</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -26767,13 +26767,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>7337</v>
+        <v>7338</v>
       </c>
       <c r="D517" t="n">
         <v>1391</v>
       </c>
       <c r="E517" t="n">
-        <v>29433395</v>
+        <v>29553404</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
@@ -34570,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>22063</v>
+        <v>22064</v>
       </c>
       <c r="D670" t="n">
         <v>2291</v>
       </c>
       <c r="E670" t="n">
-        <v>132093593</v>
+        <v>132119827</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="D711" t="n">
         <v>509</v>
       </c>
       <c r="E711" t="n">
-        <v>13146580</v>
+        <v>13148080</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -42169,13 +42169,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>42285</v>
+        <v>42287</v>
       </c>
       <c r="D819" t="n">
         <v>4810</v>
       </c>
       <c r="E819" t="n">
-        <v>95172243</v>
+        <v>95173988</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
@@ -43291,13 +43291,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>50259</v>
+        <v>50260</v>
       </c>
       <c r="D841" t="n">
         <v>9606</v>
       </c>
       <c r="E841" t="n">
-        <v>156896251</v>
+        <v>156899427</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21663</v>
+        <v>21665</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86093435</v>
+        <v>86096435</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90264</v>
+        <v>90266</v>
       </c>
       <c r="D853" t="n">
         <v>10475</v>
       </c>
       <c r="E853" t="n">
-        <v>232777807</v>
+        <v>232793379</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182268</v>
+        <v>182274</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1648829529</v>
+        <v>1648948938</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183920</v>
+        <v>183924</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>553854048</v>
+        <v>553860072</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51325</v>
+        <v>51326</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>424142425</v>
+        <v>424197337</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114995</v>
+        <v>115002</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418785459</v>
+        <v>418825141</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11674</v>
+        <v>11675</v>
       </c>
       <c r="D893" t="n">
         <v>1922</v>
       </c>
       <c r="E893" t="n">
-        <v>54646668</v>
+        <v>54707099</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46606,13 +46606,13 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>8675</v>
+        <v>8676</v>
       </c>
       <c r="D906" t="n">
         <v>1653</v>
       </c>
       <c r="E906" t="n">
-        <v>19845091</v>
+        <v>19857259</v>
       </c>
       <c r="F906" t="inlineStr">
         <is>
@@ -48187,13 +48187,13 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>19630</v>
+        <v>19631</v>
       </c>
       <c r="D937" t="n">
         <v>4565</v>
       </c>
       <c r="E937" t="n">
-        <v>67058846</v>
+        <v>67096951</v>
       </c>
       <c r="F937" t="inlineStr">
         <is>
@@ -50278,13 +50278,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6424</v>
+        <v>6427</v>
       </c>
       <c r="D978" t="n">
         <v>979</v>
       </c>
       <c r="E978" t="n">
-        <v>19297530</v>
+        <v>19897530</v>
       </c>
       <c r="F978" t="inlineStr">
         <is>
@@ -85672,13 +85672,13 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>25349</v>
+        <v>25350</v>
       </c>
       <c r="D1672" t="n">
         <v>2703</v>
       </c>
       <c r="E1672" t="n">
-        <v>143668115</v>
+        <v>143673572</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -23503,13 +23503,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>9593</v>
+        <v>9594</v>
       </c>
       <c r="D453" t="n">
         <v>2240</v>
       </c>
       <c r="E453" t="n">
-        <v>31146325</v>
+        <v>31346325</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>6008</v>
+        <v>6011</v>
       </c>
       <c r="D697" t="n">
         <v>1238</v>
       </c>
       <c r="E697" t="n">
-        <v>12069571</v>
+        <v>12081251</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19720</v>
+        <v>19724</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56570783</v>
+        <v>56614531</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4601</v>
+        <v>4603</v>
       </c>
       <c r="D711" t="n">
         <v>509</v>
       </c>
       <c r="E711" t="n">
-        <v>13148080</v>
+        <v>13149372</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -37018,13 +37018,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>6666</v>
+        <v>6668</v>
       </c>
       <c r="D718" t="n">
         <v>1005</v>
       </c>
       <c r="E718" t="n">
-        <v>13471261</v>
+        <v>13493261</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17175156</v>
+        <v>17175396</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -38803,13 +38803,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>58628</v>
+        <v>58629</v>
       </c>
       <c r="D753" t="n">
         <v>6091</v>
       </c>
       <c r="E753" t="n">
-        <v>334499353</v>
+        <v>334541166</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40353</v>
+        <v>40354</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286753006</v>
+        <v>286800589</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43291,13 +43291,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>50260</v>
+        <v>50263</v>
       </c>
       <c r="D841" t="n">
         <v>9606</v>
       </c>
       <c r="E841" t="n">
-        <v>156899427</v>
+        <v>157197816</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108643</v>
+        <v>108649</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>561712750</v>
+        <v>562108854</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90266</v>
+        <v>90271</v>
       </c>
       <c r="D853" t="n">
         <v>10475</v>
       </c>
       <c r="E853" t="n">
-        <v>232793379</v>
+        <v>232811583</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182279</v>
+        <v>182281</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1648989497</v>
+        <v>1649009497</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60071</v>
+        <v>60077</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>288936478</v>
+        <v>289393711</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44056,13 +44056,13 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>8666</v>
+        <v>8668</v>
       </c>
       <c r="D856" t="n">
         <v>1645</v>
       </c>
       <c r="E856" t="n">
-        <v>44393536</v>
+        <v>44409899</v>
       </c>
       <c r="F856" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183931</v>
+        <v>183936</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554077963</v>
+        <v>554299364</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51329</v>
+        <v>51330</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>424361620</v>
+        <v>424373738</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48559</v>
+        <v>48561</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133149644</v>
+        <v>133169644</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40892</v>
+        <v>40896</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165866580</v>
+        <v>165950562</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127502</v>
+        <v>127508</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277446622</v>
+        <v>277464187</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25955</v>
+        <v>25956</v>
       </c>
       <c r="D892" t="n">
         <v>5119</v>
       </c>
       <c r="E892" t="n">
-        <v>67470862</v>
+        <v>67472362</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -46045,13 +46045,13 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>5244</v>
+        <v>5247</v>
       </c>
       <c r="D895" t="n">
         <v>1985</v>
       </c>
       <c r="E895" t="n">
-        <v>7390071</v>
+        <v>7420071</v>
       </c>
       <c r="F895" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23635</v>
+        <v>23636</v>
       </c>
       <c r="D896" t="n">
         <v>3068</v>
       </c>
       <c r="E896" t="n">
-        <v>70455999</v>
+        <v>70458315</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -48748,13 +48748,13 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>13454</v>
+        <v>13455</v>
       </c>
       <c r="D948" t="n">
         <v>3032</v>
       </c>
       <c r="E948" t="n">
-        <v>30358761</v>
+        <v>30359266</v>
       </c>
       <c r="F948" t="inlineStr">
         <is>
@@ -60478,13 +60478,13 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>18375</v>
+        <v>18376</v>
       </c>
       <c r="D1178" t="n">
         <v>3644</v>
       </c>
       <c r="E1178" t="n">
-        <v>100372206</v>
+        <v>100403285</v>
       </c>
       <c r="F1178" t="inlineStr">
         <is>
@@ -60835,13 +60835,13 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="D1185" t="n">
         <v>5058</v>
       </c>
       <c r="E1185" t="n">
-        <v>292322800</v>
+        <v>292323895</v>
       </c>
       <c r="F1185" t="inlineStr">
         <is>
@@ -71953,13 +71953,13 @@
         </is>
       </c>
       <c r="C1403" t="n">
-        <v>21041</v>
+        <v>21044</v>
       </c>
       <c r="D1403" t="n">
         <v>6659</v>
       </c>
       <c r="E1403" t="n">
-        <v>33463185</v>
+        <v>33468657</v>
       </c>
       <c r="F1403" t="inlineStr">
         <is>
@@ -79654,13 +79654,13 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>11711</v>
+        <v>11712</v>
       </c>
       <c r="D1554" t="n">
         <v>1237</v>
       </c>
       <c r="E1554" t="n">
-        <v>68394115</v>
+        <v>68401098</v>
       </c>
       <c r="F1554" t="inlineStr">
         <is>
@@ -79858,13 +79858,13 @@
         </is>
       </c>
       <c r="C1558" t="n">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="D1558" t="n">
         <v>843</v>
       </c>
       <c r="E1558" t="n">
-        <v>12423033</v>
+        <v>12432554</v>
       </c>
       <c r="F1558" t="inlineStr">
         <is>
@@ -82969,13 +82969,13 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>65677</v>
+        <v>65678</v>
       </c>
       <c r="D1619" t="n">
         <v>13319</v>
       </c>
       <c r="E1619" t="n">
-        <v>202666886</v>
+        <v>202672564</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10080</v>
+        <v>10081</v>
       </c>
       <c r="D25" t="n">
         <v>1062</v>
       </c>
       <c r="E25" t="n">
-        <v>50559405</v>
+        <v>50561588</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -6163,13 +6163,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>15701</v>
+        <v>15702</v>
       </c>
       <c r="D113" t="n">
         <v>2994</v>
       </c>
       <c r="E113" t="n">
-        <v>70534112</v>
+        <v>70535612</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -32887,13 +32887,13 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>14147</v>
+        <v>14148</v>
       </c>
       <c r="D637" t="n">
         <v>1520</v>
       </c>
       <c r="E637" t="n">
-        <v>82532975</v>
+        <v>82597689</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -34570,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>22064</v>
+        <v>22065</v>
       </c>
       <c r="D670" t="n">
         <v>2291</v>
       </c>
       <c r="E670" t="n">
-        <v>132119827</v>
+        <v>132121290</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -42220,13 +42220,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>17567</v>
+        <v>17568</v>
       </c>
       <c r="D820" t="n">
         <v>2071</v>
       </c>
       <c r="E820" t="n">
-        <v>110705530</v>
+        <v>110721160</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108651</v>
+        <v>108655</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562114887</v>
+        <v>562170041</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182291</v>
+        <v>182293</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649126778</v>
+        <v>1649138188</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23235</v>
+        <v>23236</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82768537</v>
+        <v>82778537</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183940</v>
+        <v>183942</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554305688</v>
+        <v>554325688</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51332</v>
+        <v>51339</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>424428262</v>
+        <v>424488758</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34661</v>
+        <v>34662</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70098578</v>
+        <v>70101690</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115010</v>
+        <v>115013</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418886311</v>
+        <v>418891784</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23636</v>
+        <v>23637</v>
       </c>
       <c r="D896" t="n">
         <v>3068</v>
       </c>
       <c r="E896" t="n">
-        <v>70458315</v>
+        <v>70459175</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26102</v>
+        <v>26103</v>
       </c>
       <c r="D903" t="n">
         <v>5587</v>
       </c>
       <c r="E903" t="n">
-        <v>118266018</v>
+        <v>118290399</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>75232</v>
+        <v>75233</v>
       </c>
       <c r="D904" t="n">
         <v>8098</v>
       </c>
       <c r="E904" t="n">
-        <v>168661643</v>
+        <v>168711786</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -48289,13 +48289,13 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>22814</v>
+        <v>22816</v>
       </c>
       <c r="D939" t="n">
         <v>2673</v>
       </c>
       <c r="E939" t="n">
-        <v>157396477</v>
+        <v>157448092</v>
       </c>
       <c r="F939" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19710</v>
+        <v>19711</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>66163080</v>
+        <v>66197569</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -83275,13 +83275,13 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>41900</v>
+        <v>41902</v>
       </c>
       <c r="D1625" t="n">
         <v>8880</v>
       </c>
       <c r="E1625" t="n">
-        <v>114577385</v>
+        <v>114581524</v>
       </c>
       <c r="F1625" t="inlineStr">
         <is>
@@ -84040,13 +84040,13 @@
         </is>
       </c>
       <c r="C1640" t="n">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D1640" t="n">
         <v>247</v>
       </c>
       <c r="E1640" t="n">
-        <v>2896576</v>
+        <v>2903516</v>
       </c>
       <c r="F1640" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35432</v>
+        <v>35434</v>
       </c>
       <c r="D109" t="n">
         <v>3825</v>
       </c>
       <c r="E109" t="n">
-        <v>286219122</v>
+        <v>286313376</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41189</v>
+        <v>41190</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86426076</v>
+        <v>86427219</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -10549,13 +10549,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>43531</v>
+        <v>43533</v>
       </c>
       <c r="D199" t="n">
         <v>5147</v>
       </c>
       <c r="E199" t="n">
-        <v>117976065</v>
+        <v>117977955</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -17281,13 +17281,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="D331" t="n">
         <v>422</v>
       </c>
       <c r="E331" t="n">
-        <v>10668168</v>
+        <v>10675738</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -18862,13 +18862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>4889</v>
+        <v>4890</v>
       </c>
       <c r="D362" t="n">
         <v>853</v>
       </c>
       <c r="E362" t="n">
-        <v>8570881</v>
+        <v>8574459</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -24625,13 +24625,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>5621</v>
+        <v>5622</v>
       </c>
       <c r="D475" t="n">
         <v>1221</v>
       </c>
       <c r="E475" t="n">
-        <v>20241769</v>
+        <v>20251769</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -34570,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>22065</v>
+        <v>22066</v>
       </c>
       <c r="D670" t="n">
         <v>2291</v>
       </c>
       <c r="E670" t="n">
-        <v>132121290</v>
+        <v>132129255</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>5643</v>
+        <v>5644</v>
       </c>
       <c r="D712" t="n">
         <v>1176</v>
       </c>
       <c r="E712" t="n">
-        <v>8175652</v>
+        <v>8176193</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182293</v>
+        <v>182299</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649138188</v>
+        <v>1649169877</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183942</v>
+        <v>183947</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554325688</v>
+        <v>554376197</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115013</v>
+        <v>115014</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418891784</v>
+        <v>418896984</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127508</v>
+        <v>127509</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277464187</v>
+        <v>277466539</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25956</v>
+        <v>25958</v>
       </c>
       <c r="D892" t="n">
-        <v>5119</v>
+        <v>5120</v>
       </c>
       <c r="E892" t="n">
-        <v>67472362</v>
+        <v>67483898</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23637</v>
+        <v>23640</v>
       </c>
       <c r="D896" t="n">
         <v>3068</v>
       </c>
       <c r="E896" t="n">
-        <v>70459175</v>
+        <v>70473083</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12341</v>
+        <v>12342</v>
       </c>
       <c r="D910" t="n">
         <v>1777</v>
       </c>
       <c r="E910" t="n">
-        <v>50125770</v>
+        <v>50126858</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -46963,13 +46963,13 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>22150</v>
+        <v>22151</v>
       </c>
       <c r="D913" t="n">
         <v>2798</v>
       </c>
       <c r="E913" t="n">
-        <v>65002310</v>
+        <v>65006713</v>
       </c>
       <c r="F913" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13104</v>
+        <v>13106</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>33016552</v>
+        <v>33021580</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11130</v>
+        <v>11131</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44329558</v>
+        <v>44392226</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -55123,13 +55123,13 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>10716</v>
+        <v>10720</v>
       </c>
       <c r="D1073" t="n">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="E1073" t="n">
-        <v>34145006</v>
+        <v>34164067</v>
       </c>
       <c r="F1073" t="inlineStr">
         <is>
@@ -61090,13 +61090,13 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>14377</v>
+        <v>14379</v>
       </c>
       <c r="D1190" t="n">
         <v>2709</v>
       </c>
       <c r="E1190" t="n">
-        <v>47796211</v>
+        <v>47812608</v>
       </c>
       <c r="F1190" t="inlineStr">
         <is>
@@ -61243,13 +61243,13 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>22507</v>
+        <v>22508</v>
       </c>
       <c r="D1193" t="n">
         <v>2821</v>
       </c>
       <c r="E1193" t="n">
-        <v>68102181</v>
+        <v>68113387</v>
       </c>
       <c r="F1193" t="inlineStr">
         <is>
@@ -63385,13 +63385,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>9282</v>
+        <v>9283</v>
       </c>
       <c r="D1235" t="n">
         <v>1003</v>
       </c>
       <c r="E1235" t="n">
-        <v>46604534</v>
+        <v>46614534</v>
       </c>
       <c r="F1235" t="inlineStr">
         <is>
@@ -82102,13 +82102,13 @@
         </is>
       </c>
       <c r="C1602" t="n">
-        <v>47410</v>
+        <v>47412</v>
       </c>
       <c r="D1602" t="n">
         <v>8772</v>
       </c>
       <c r="E1602" t="n">
-        <v>161655984</v>
+        <v>161795775</v>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
@@ -82663,13 +82663,13 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>25884</v>
+        <v>25885</v>
       </c>
       <c r="D1613" t="n">
         <v>4989</v>
       </c>
       <c r="E1613" t="n">
-        <v>50518234</v>
+        <v>50560278</v>
       </c>
       <c r="F1613" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -9427,13 +9427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55666</v>
+        <v>55667</v>
       </c>
       <c r="D177" t="n">
         <v>5882</v>
       </c>
       <c r="E177" t="n">
-        <v>356304097</v>
+        <v>356358633</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>6011</v>
+        <v>6012</v>
       </c>
       <c r="D697" t="n">
         <v>1238</v>
       </c>
       <c r="E697" t="n">
-        <v>12081251</v>
+        <v>12096389</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17558</v>
+        <v>17559</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38629155</v>
+        <v>38636494</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19726</v>
+        <v>19729</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56630010</v>
+        <v>56645610</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36610,13 +36610,13 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="D710" t="n">
         <v>1013</v>
       </c>
       <c r="E710" t="n">
-        <v>3902663</v>
+        <v>3903857</v>
       </c>
       <c r="F710" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4603</v>
+        <v>4606</v>
       </c>
       <c r="D711" t="n">
         <v>509</v>
       </c>
       <c r="E711" t="n">
-        <v>13149372</v>
+        <v>13159157</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>5644</v>
+        <v>5646</v>
       </c>
       <c r="D712" t="n">
         <v>1176</v>
       </c>
       <c r="E712" t="n">
-        <v>8176193</v>
+        <v>8180829</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17178152</v>
+        <v>17181109</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -37375,13 +37375,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="D725" t="n">
         <v>409</v>
       </c>
       <c r="E725" t="n">
-        <v>9285782</v>
+        <v>9344392</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>78166</v>
+        <v>78168</v>
       </c>
       <c r="D836" t="n">
         <v>8364</v>
       </c>
       <c r="E836" t="n">
-        <v>184380756</v>
+        <v>184744920</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182305</v>
+        <v>182312</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649201885</v>
+        <v>1649257508</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60084</v>
+        <v>60088</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>289439773</v>
+        <v>289861253</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183954</v>
+        <v>183958</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554474628</v>
+        <v>554484815</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34666</v>
+        <v>34667</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70111610</v>
+        <v>70114442</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115019</v>
+        <v>115021</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418921071</v>
+        <v>418931669</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48566</v>
+        <v>48568</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133212164</v>
+        <v>133220497</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40899</v>
+        <v>40900</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>166014422</v>
+        <v>166033805</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127512</v>
+        <v>127513</v>
       </c>
       <c r="D887" t="n">
         <v>13776</v>
       </c>
       <c r="E887" t="n">
-        <v>277488428</v>
+        <v>277493378</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -59815,13 +59815,13 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>5167</v>
+        <v>5171</v>
       </c>
       <c r="D1165" t="n">
         <v>1964</v>
       </c>
       <c r="E1165" t="n">
-        <v>8122859</v>
+        <v>8128859</v>
       </c>
       <c r="F1165" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7693,13 +7693,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>21467</v>
+        <v>21468</v>
       </c>
       <c r="D143" t="n">
         <v>2189</v>
       </c>
       <c r="E143" t="n">
-        <v>112007825</v>
+        <v>112013571</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -22432,13 +22432,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="D432" t="n">
         <v>1029</v>
       </c>
       <c r="E432" t="n">
-        <v>8648726</v>
+        <v>8649403</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -29521,13 +29521,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="D571" t="n">
         <v>655</v>
       </c>
       <c r="E571" t="n">
-        <v>8215015</v>
+        <v>8217078</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19729</v>
+        <v>19731</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56645610</v>
+        <v>56664962</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40354</v>
+        <v>40355</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286800589</v>
+        <v>286810589</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43546,13 +43546,13 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>16493</v>
+        <v>16494</v>
       </c>
       <c r="D846" t="n">
         <v>3309</v>
       </c>
       <c r="E846" t="n">
-        <v>40647739</v>
+        <v>40657739</v>
       </c>
       <c r="F846" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108662</v>
+        <v>108663</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562267782</v>
+        <v>562278984</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90274</v>
+        <v>90275</v>
       </c>
       <c r="D853" t="n">
         <v>10476</v>
       </c>
       <c r="E853" t="n">
-        <v>233026956</v>
+        <v>233030542</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182316</v>
+        <v>182318</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649297508</v>
+        <v>1649308622</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60088</v>
+        <v>60090</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>289861253</v>
+        <v>289876581</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23236</v>
+        <v>23237</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82778537</v>
+        <v>82788537</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183959</v>
+        <v>183965</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554493315</v>
+        <v>554596935</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51342</v>
+        <v>51343</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>424532640</v>
+        <v>424679991</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34668</v>
+        <v>34670</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70117042</v>
+        <v>70123618</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115022</v>
+        <v>115023</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418938511</v>
+        <v>418940659</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48568</v>
+        <v>48573</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133220497</v>
+        <v>133232750</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127517</v>
+        <v>127520</v>
       </c>
       <c r="D887" t="n">
         <v>13778</v>
       </c>
       <c r="E887" t="n">
-        <v>277532790</v>
+        <v>277541052</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45739,13 +45739,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9195</v>
+        <v>9196</v>
       </c>
       <c r="D889" t="n">
         <v>1689</v>
       </c>
       <c r="E889" t="n">
-        <v>23344310</v>
+        <v>23354310</v>
       </c>
       <c r="F889" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25958</v>
+        <v>25959</v>
       </c>
       <c r="D892" t="n">
         <v>5120</v>
       </c>
       <c r="E892" t="n">
-        <v>67483898</v>
+        <v>67484198</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11752</v>
+        <v>11754</v>
       </c>
       <c r="D893" t="n">
         <v>1958</v>
       </c>
       <c r="E893" t="n">
-        <v>55429534</v>
+        <v>55433813</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19711</v>
+        <v>19712</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>66197569</v>
+        <v>66204904</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -63283,13 +63283,13 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>7393</v>
+        <v>7394</v>
       </c>
       <c r="D1233" t="n">
         <v>1711</v>
       </c>
       <c r="E1233" t="n">
-        <v>19349759</v>
+        <v>19500422</v>
       </c>
       <c r="F1233" t="inlineStr">
         <is>
@@ -72310,13 +72310,13 @@
         </is>
       </c>
       <c r="C1410" t="n">
-        <v>26312</v>
+        <v>26313</v>
       </c>
       <c r="D1410" t="n">
         <v>5346</v>
       </c>
       <c r="E1410" t="n">
-        <v>78454383</v>
+        <v>78464383</v>
       </c>
       <c r="F1410" t="inlineStr">
         <is>
@@ -75013,13 +75013,13 @@
         </is>
       </c>
       <c r="C1463" t="n">
-        <v>7839</v>
+        <v>7840</v>
       </c>
       <c r="D1463" t="n">
         <v>1729</v>
       </c>
       <c r="E1463" t="n">
-        <v>14375987</v>
+        <v>14427634</v>
       </c>
       <c r="F1463" t="inlineStr">
         <is>
@@ -82612,13 +82612,13 @@
         </is>
       </c>
       <c r="C1612" t="n">
-        <v>19547</v>
+        <v>19548</v>
       </c>
       <c r="D1612" t="n">
         <v>2258</v>
       </c>
       <c r="E1612" t="n">
-        <v>62285211</v>
+        <v>62295211</v>
       </c>
       <c r="F1612" t="inlineStr">
         <is>
@@ -85672,13 +85672,13 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>25350</v>
+        <v>25351</v>
       </c>
       <c r="D1672" t="n">
         <v>2703</v>
       </c>
       <c r="E1672" t="n">
-        <v>143673572</v>
+        <v>143688565</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -8968,13 +8968,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>7167</v>
+        <v>7168</v>
       </c>
       <c r="D168" t="n">
         <v>864</v>
       </c>
       <c r="E168" t="n">
-        <v>23974833</v>
+        <v>23974950</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>78168</v>
+        <v>78169</v>
       </c>
       <c r="D836" t="n">
         <v>8364</v>
       </c>
       <c r="E836" t="n">
-        <v>184744920</v>
+        <v>184749597</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43801,13 +43801,13 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>16547</v>
+        <v>16552</v>
       </c>
       <c r="D851" t="n">
         <v>4837</v>
       </c>
       <c r="E851" t="n">
-        <v>32814517</v>
+        <v>32825801</v>
       </c>
       <c r="F851" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108663</v>
+        <v>108669</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562278984</v>
+        <v>562523540</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90275</v>
+        <v>90277</v>
       </c>
       <c r="D853" t="n">
         <v>10476</v>
       </c>
       <c r="E853" t="n">
-        <v>233030542</v>
+        <v>233037792</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182318</v>
+        <v>182332</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649308622</v>
+        <v>1649449800</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183965</v>
+        <v>183969</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554596935</v>
+        <v>554611997</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51343</v>
+        <v>51346</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>424679991</v>
+        <v>425085323</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34670</v>
+        <v>34671</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70123618</v>
+        <v>70125266</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115023</v>
+        <v>115028</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418940659</v>
+        <v>418982116</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48573</v>
+        <v>48576</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133232750</v>
+        <v>133238201</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40900</v>
+        <v>40902</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>166033805</v>
+        <v>166050329</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45739,13 +45739,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9196</v>
+        <v>9198</v>
       </c>
       <c r="D889" t="n">
         <v>1689</v>
       </c>
       <c r="E889" t="n">
-        <v>23354310</v>
+        <v>23366608</v>
       </c>
       <c r="F889" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26104</v>
+        <v>26108</v>
       </c>
       <c r="D903" t="n">
         <v>5587</v>
       </c>
       <c r="E903" t="n">
-        <v>118354653</v>
+        <v>118583620</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>75233</v>
+        <v>75234</v>
       </c>
       <c r="D904" t="n">
         <v>8098</v>
       </c>
       <c r="E904" t="n">
-        <v>168711786</v>
+        <v>168715776</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -69556,13 +69556,13 @@
         </is>
       </c>
       <c r="C1356" t="n">
-        <v>6710</v>
+        <v>6711</v>
       </c>
       <c r="D1356" t="n">
         <v>704</v>
       </c>
       <c r="E1356" t="n">
-        <v>31265848</v>
+        <v>31266555</v>
       </c>
       <c r="F1356" t="inlineStr">
         <is>
@@ -77563,13 +77563,13 @@
         </is>
       </c>
       <c r="C1513" t="n">
-        <v>17938</v>
+        <v>17942</v>
       </c>
       <c r="D1513" t="n">
         <v>2408</v>
       </c>
       <c r="E1513" t="n">
-        <v>57072279</v>
+        <v>57090067</v>
       </c>
       <c r="F1513" t="inlineStr">
         <is>
@@ -80776,13 +80776,13 @@
         </is>
       </c>
       <c r="C1576" t="n">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="D1576" t="n">
         <v>688</v>
       </c>
       <c r="E1576" t="n">
-        <v>12544833</v>
+        <v>12570374</v>
       </c>
       <c r="F1576" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>24698</v>
+        <v>24699</v>
       </c>
       <c r="D124" t="n">
         <v>5621</v>
       </c>
       <c r="E124" t="n">
-        <v>84269986</v>
+        <v>84271972</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -9325,13 +9325,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="D175" t="n">
         <v>9920</v>
       </c>
       <c r="E175" t="n">
-        <v>138356006</v>
+        <v>138462006</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -24421,13 +24421,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>13127</v>
+        <v>13128</v>
       </c>
       <c r="D471" t="n">
         <v>1442</v>
       </c>
       <c r="E471" t="n">
-        <v>76052852</v>
+        <v>76053966</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -26563,13 +26563,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="D513" t="n">
         <v>649</v>
       </c>
       <c r="E513" t="n">
-        <v>7343257</v>
+        <v>7348137</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108669</v>
+        <v>108674</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562523540</v>
+        <v>562571463</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90277</v>
+        <v>90279</v>
       </c>
       <c r="D853" t="n">
         <v>10476</v>
       </c>
       <c r="E853" t="n">
-        <v>233037792</v>
+        <v>233046340</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182332</v>
+        <v>182334</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649449800</v>
+        <v>1649470837</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60090</v>
+        <v>60092</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>289876581</v>
+        <v>289889023</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183969</v>
+        <v>183979</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554611997</v>
+        <v>554642248</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34671</v>
+        <v>34672</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70125266</v>
+        <v>70125598</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115028</v>
+        <v>115032</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418982116</v>
+        <v>419013088</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48576</v>
+        <v>48577</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133238201</v>
+        <v>133248201</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -44821,13 +44821,13 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>25070</v>
+        <v>25072</v>
       </c>
       <c r="D871" t="n">
         <v>2823</v>
       </c>
       <c r="E871" t="n">
-        <v>160432656</v>
+        <v>160453477</v>
       </c>
       <c r="F871" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23640</v>
+        <v>23641</v>
       </c>
       <c r="D896" t="n">
         <v>3068</v>
       </c>
       <c r="E896" t="n">
-        <v>70473083</v>
+        <v>70474166</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11131</v>
+        <v>11134</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44392226</v>
+        <v>44546213</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="D137" t="n">
         <v>1042</v>
       </c>
       <c r="E137" t="n">
-        <v>9438457</v>
+        <v>9551646</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>16821</v>
+        <v>16823</v>
       </c>
       <c r="D141" t="n">
         <v>3896</v>
       </c>
       <c r="E141" t="n">
-        <v>47218540</v>
+        <v>47343599</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17559</v>
+        <v>17560</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38636494</v>
+        <v>38644994</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -39670,13 +39670,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>14070</v>
+        <v>14071</v>
       </c>
       <c r="D770" t="n">
         <v>1609</v>
       </c>
       <c r="E770" t="n">
-        <v>82794047</v>
+        <v>82795436</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -42985,13 +42985,13 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>26302</v>
+        <v>26303</v>
       </c>
       <c r="D835" t="n">
         <v>5381</v>
       </c>
       <c r="E835" t="n">
-        <v>100329662</v>
+        <v>100332723</v>
       </c>
       <c r="F835" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21668</v>
+        <v>21669</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86103054</v>
+        <v>86106487</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108674</v>
+        <v>108679</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562571463</v>
+        <v>562633402</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90279</v>
+        <v>90281</v>
       </c>
       <c r="D853" t="n">
         <v>10476</v>
       </c>
       <c r="E853" t="n">
-        <v>233046340</v>
+        <v>233053140</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182334</v>
+        <v>182338</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649470837</v>
+        <v>1649614994</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60092</v>
+        <v>60097</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>289889023</v>
+        <v>290094100</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183979</v>
+        <v>183981</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554642248</v>
+        <v>554652958</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51346</v>
+        <v>51351</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>425085323</v>
+        <v>425133828</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115032</v>
+        <v>115036</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419013088</v>
+        <v>419279805</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48577</v>
+        <v>48579</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133248201</v>
+        <v>133251201</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32756</v>
+        <v>32760</v>
       </c>
       <c r="D888" t="n">
         <v>3652</v>
       </c>
       <c r="E888" t="n">
-        <v>189781316</v>
+        <v>189821316</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12342</v>
+        <v>12343</v>
       </c>
       <c r="D910" t="n">
         <v>1777</v>
       </c>
       <c r="E910" t="n">
-        <v>50126858</v>
+        <v>50175329</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -50788,13 +50788,13 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="D988" t="n">
         <v>522</v>
       </c>
       <c r="E988" t="n">
-        <v>11824889</v>
+        <v>11992288</v>
       </c>
       <c r="F988" t="inlineStr">
         <is>
@@ -51553,13 +51553,13 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>15013</v>
+        <v>15015</v>
       </c>
       <c r="D1003" t="n">
         <v>3466</v>
       </c>
       <c r="E1003" t="n">
-        <v>43437166</v>
+        <v>43440166</v>
       </c>
       <c r="F1003" t="inlineStr">
         <is>
@@ -54919,13 +54919,13 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>28338</v>
+        <v>28339</v>
       </c>
       <c r="D1069" t="n">
         <v>3138</v>
       </c>
       <c r="E1069" t="n">
-        <v>170449362</v>
+        <v>170516377</v>
       </c>
       <c r="F1069" t="inlineStr">
         <is>
@@ -63283,13 +63283,13 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>7394</v>
+        <v>7396</v>
       </c>
       <c r="D1233" t="n">
         <v>1711</v>
       </c>
       <c r="E1233" t="n">
-        <v>19500422</v>
+        <v>19519773</v>
       </c>
       <c r="F1233" t="inlineStr">
         <is>
@@ -77563,13 +77563,13 @@
         </is>
       </c>
       <c r="C1513" t="n">
-        <v>17942</v>
+        <v>17943</v>
       </c>
       <c r="D1513" t="n">
         <v>2408</v>
       </c>
       <c r="E1513" t="n">
-        <v>57090067</v>
+        <v>57096276</v>
       </c>
       <c r="F1513" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -7081,13 +7081,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8434</v>
+        <v>8435</v>
       </c>
       <c r="D131" t="n">
         <v>1775</v>
       </c>
       <c r="E131" t="n">
-        <v>36535171</v>
+        <v>36538371</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -10192,13 +10192,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="D192" t="n">
         <v>528</v>
       </c>
       <c r="E192" t="n">
-        <v>25405782</v>
+        <v>25561489</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -19321,13 +19321,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>16374</v>
+        <v>16376</v>
       </c>
       <c r="D371" t="n">
         <v>3953</v>
       </c>
       <c r="E371" t="n">
-        <v>56186627</v>
+        <v>56194425</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -22228,13 +22228,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D428" t="n">
         <v>435</v>
       </c>
       <c r="E428" t="n">
-        <v>6596524</v>
+        <v>6608777</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19731</v>
+        <v>19732</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56664962</v>
+        <v>56667618</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -42271,13 +42271,13 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>4765</v>
+        <v>4767</v>
       </c>
       <c r="D821" t="n">
         <v>946</v>
       </c>
       <c r="E821" t="n">
-        <v>10638776</v>
+        <v>10694845</v>
       </c>
       <c r="F821" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108679</v>
+        <v>108685</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562633402</v>
+        <v>562770749</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182338</v>
+        <v>182351</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649614994</v>
+        <v>1649728177</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60097</v>
+        <v>60098</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>290094100</v>
+        <v>290111348</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183981</v>
+        <v>183991</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554652958</v>
+        <v>554695688</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115036</v>
+        <v>115043</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419279805</v>
+        <v>419328126</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48579</v>
+        <v>48581</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133251201</v>
+        <v>133257426</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11754</v>
+        <v>11759</v>
       </c>
       <c r="D893" t="n">
         <v>1958</v>
       </c>
       <c r="E893" t="n">
-        <v>55433813</v>
+        <v>55477613</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -48646,13 +48646,13 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>8522</v>
+        <v>8525</v>
       </c>
       <c r="D946" t="n">
         <v>3425</v>
       </c>
       <c r="E946" t="n">
-        <v>11268736</v>
+        <v>11272576</v>
       </c>
       <c r="F946" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3637</v>
+        <v>3639</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11293707</v>
+        <v>11320543</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -75472,13 +75472,13 @@
         </is>
       </c>
       <c r="C1472" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D1472" t="n">
         <v>162</v>
       </c>
       <c r="E1472" t="n">
-        <v>1512006</v>
+        <v>1525504</v>
       </c>
       <c r="F1472" t="inlineStr">
         <is>
@@ -77053,13 +77053,13 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>23430</v>
+        <v>23436</v>
       </c>
       <c r="D1503" t="n">
         <v>5554</v>
       </c>
       <c r="E1503" t="n">
-        <v>80133363</v>
+        <v>80142363</v>
       </c>
       <c r="F1503" t="inlineStr">
         <is>
@@ -83326,13 +83326,13 @@
         </is>
       </c>
       <c r="C1626" t="n">
-        <v>18644</v>
+        <v>18645</v>
       </c>
       <c r="D1626" t="n">
         <v>3297</v>
       </c>
       <c r="E1626" t="n">
-        <v>88543927</v>
+        <v>88553927</v>
       </c>
       <c r="F1626" t="inlineStr">
         <is>
@@ -85672,13 +85672,13 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>25351</v>
+        <v>25353</v>
       </c>
       <c r="D1672" t="n">
         <v>2703</v>
       </c>
       <c r="E1672" t="n">
-        <v>143688565</v>
+        <v>143693251</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10423</v>
+        <v>10424</v>
       </c>
       <c r="D6" t="n">
         <v>2602</v>
       </c>
       <c r="E6" t="n">
-        <v>31690584</v>
+        <v>31889084</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10082</v>
+        <v>10083</v>
       </c>
       <c r="D25" t="n">
         <v>1062</v>
       </c>
       <c r="E25" t="n">
-        <v>50563158</v>
+        <v>50564728</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -8101,13 +8101,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>8108</v>
+        <v>8110</v>
       </c>
       <c r="D151" t="n">
         <v>1044</v>
       </c>
       <c r="E151" t="n">
-        <v>25409212</v>
+        <v>25478817</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -27583,13 +27583,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>4113</v>
+        <v>4115</v>
       </c>
       <c r="D533" t="n">
         <v>1017</v>
       </c>
       <c r="E533" t="n">
-        <v>10520616</v>
+        <v>10523616</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -40537,13 +40537,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>30435</v>
+        <v>30436</v>
       </c>
       <c r="D787" t="n">
         <v>3282</v>
       </c>
       <c r="E787" t="n">
-        <v>171571815</v>
+        <v>171580113</v>
       </c>
       <c r="F787" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>78169</v>
+        <v>78170</v>
       </c>
       <c r="D836" t="n">
         <v>8364</v>
       </c>
       <c r="E836" t="n">
-        <v>184749597</v>
+        <v>184932064</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21669</v>
+        <v>21670</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86106487</v>
+        <v>86109966</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108685</v>
+        <v>108687</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562770749</v>
+        <v>562899380</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182351</v>
+        <v>182356</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649728177</v>
+        <v>1649768736</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60098</v>
+        <v>60100</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>290111348</v>
+        <v>290213481</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183991</v>
+        <v>183998</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554695688</v>
+        <v>554913579</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51351</v>
+        <v>51354</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>425133828</v>
+        <v>425298111</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115043</v>
+        <v>115046</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419328126</v>
+        <v>419356662</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48581</v>
+        <v>48582</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133257426</v>
+        <v>133264330</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45739,13 +45739,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9198</v>
+        <v>9199</v>
       </c>
       <c r="D889" t="n">
         <v>1689</v>
       </c>
       <c r="E889" t="n">
-        <v>23366608</v>
+        <v>23376608</v>
       </c>
       <c r="F889" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25959</v>
+        <v>25961</v>
       </c>
       <c r="D892" t="n">
         <v>5120</v>
       </c>
       <c r="E892" t="n">
-        <v>67484198</v>
+        <v>67484966</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11759</v>
+        <v>11761</v>
       </c>
       <c r="D893" t="n">
         <v>1958</v>
       </c>
       <c r="E893" t="n">
-        <v>55477613</v>
+        <v>55504090</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12343</v>
+        <v>12346</v>
       </c>
       <c r="D910" t="n">
         <v>1777</v>
       </c>
       <c r="E910" t="n">
-        <v>50175329</v>
+        <v>50191658</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -66139,13 +66139,13 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D1289" t="n">
         <v>132</v>
       </c>
       <c r="E1289" t="n">
-        <v>871510</v>
+        <v>871670</v>
       </c>
       <c r="F1289" t="inlineStr">
         <is>
@@ -77053,13 +77053,13 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>23436</v>
+        <v>23437</v>
       </c>
       <c r="D1503" t="n">
         <v>5554</v>
       </c>
       <c r="E1503" t="n">
-        <v>80142363</v>
+        <v>80159957</v>
       </c>
       <c r="F1503" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35434</v>
+        <v>35436</v>
       </c>
       <c r="D109" t="n">
         <v>3825</v>
       </c>
       <c r="E109" t="n">
-        <v>286313376</v>
+        <v>286386802</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6265,13 +6265,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>29209</v>
+        <v>29213</v>
       </c>
       <c r="D115" t="n">
         <v>4239</v>
       </c>
       <c r="E115" t="n">
-        <v>64745244</v>
+        <v>64756164</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -9886,13 +9886,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>23960</v>
+        <v>23964</v>
       </c>
       <c r="D186" t="n">
         <v>5280</v>
       </c>
       <c r="E186" t="n">
-        <v>51846646</v>
+        <v>51848462</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -18199,13 +18199,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D349" t="n">
         <v>433</v>
       </c>
       <c r="E349" t="n">
-        <v>4331767</v>
+        <v>4340267</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -35692,13 +35692,13 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="D692" t="n">
         <v>379</v>
       </c>
       <c r="E692" t="n">
-        <v>3972955</v>
+        <v>3974406</v>
       </c>
       <c r="F692" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108687</v>
+        <v>108689</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562899380</v>
+        <v>562905413</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182356</v>
+        <v>182366</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649768736</v>
+        <v>1649886017</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183998</v>
+        <v>184002</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554913579</v>
+        <v>554919903</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51354</v>
+        <v>51356</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>425298111</v>
+        <v>425352635</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34672</v>
+        <v>34676</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70125598</v>
+        <v>70129436</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115046</v>
+        <v>115051</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419356662</v>
+        <v>419389296</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40902</v>
+        <v>40903</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>166050329</v>
+        <v>166094747</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32760</v>
+        <v>32766</v>
       </c>
       <c r="D888" t="n">
         <v>3652</v>
       </c>
       <c r="E888" t="n">
-        <v>189821316</v>
+        <v>189872409</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -60478,13 +60478,13 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>18377</v>
+        <v>18378</v>
       </c>
       <c r="D1178" t="n">
         <v>3644</v>
       </c>
       <c r="E1178" t="n">
-        <v>100420737</v>
+        <v>100438189</v>
       </c>
       <c r="F1178" t="inlineStr">
         <is>
@@ -63844,13 +63844,13 @@
         </is>
       </c>
       <c r="C1244" t="n">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="D1244" t="n">
         <v>1104</v>
       </c>
       <c r="E1244" t="n">
-        <v>8345339</v>
+        <v>8346839</v>
       </c>
       <c r="F1244" t="inlineStr">
         <is>
@@ -82969,13 +82969,13 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>65679</v>
+        <v>65680</v>
       </c>
       <c r="D1619" t="n">
         <v>13319</v>
       </c>
       <c r="E1619" t="n">
-        <v>202674064</v>
+        <v>202675564</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35436</v>
+        <v>35438</v>
       </c>
       <c r="D109" t="n">
         <v>3825</v>
       </c>
       <c r="E109" t="n">
-        <v>286386802</v>
+        <v>286481056</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41190</v>
+        <v>41191</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86427219</v>
+        <v>86428362</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -10549,13 +10549,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>43533</v>
+        <v>43535</v>
       </c>
       <c r="D199" t="n">
         <v>5147</v>
       </c>
       <c r="E199" t="n">
-        <v>117977955</v>
+        <v>117979845</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -17281,13 +17281,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="D331" t="n">
         <v>422</v>
       </c>
       <c r="E331" t="n">
-        <v>10675738</v>
+        <v>10683308</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -18862,13 +18862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>4890</v>
+        <v>4891</v>
       </c>
       <c r="D362" t="n">
         <v>853</v>
       </c>
       <c r="E362" t="n">
-        <v>8574459</v>
+        <v>8578037</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -24625,13 +24625,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>5622</v>
+        <v>5623</v>
       </c>
       <c r="D475" t="n">
         <v>1221</v>
       </c>
       <c r="E475" t="n">
-        <v>20251769</v>
+        <v>20261769</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -34570,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>22066</v>
+        <v>22067</v>
       </c>
       <c r="D670" t="n">
         <v>2291</v>
       </c>
       <c r="E670" t="n">
-        <v>132129255</v>
+        <v>132137220</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>5646</v>
+        <v>5647</v>
       </c>
       <c r="D712" t="n">
         <v>1176</v>
       </c>
       <c r="E712" t="n">
-        <v>8180829</v>
+        <v>8181370</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182366</v>
+        <v>182372</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649886017</v>
+        <v>1649917706</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>184002</v>
+        <v>184007</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554919903</v>
+        <v>554970412</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115051</v>
+        <v>115052</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419389296</v>
+        <v>419394496</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127520</v>
+        <v>127521</v>
       </c>
       <c r="D887" t="n">
         <v>13778</v>
       </c>
       <c r="E887" t="n">
-        <v>277541052</v>
+        <v>277543404</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25961</v>
+        <v>25963</v>
       </c>
       <c r="D892" t="n">
         <v>5120</v>
       </c>
       <c r="E892" t="n">
-        <v>67484966</v>
+        <v>67496502</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23641</v>
+        <v>23644</v>
       </c>
       <c r="D896" t="n">
         <v>3068</v>
       </c>
       <c r="E896" t="n">
-        <v>70474166</v>
+        <v>70488074</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12346</v>
+        <v>12347</v>
       </c>
       <c r="D910" t="n">
         <v>1777</v>
       </c>
       <c r="E910" t="n">
-        <v>50191658</v>
+        <v>50192746</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -46963,13 +46963,13 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>22151</v>
+        <v>22152</v>
       </c>
       <c r="D913" t="n">
         <v>2798</v>
       </c>
       <c r="E913" t="n">
-        <v>65006713</v>
+        <v>65011116</v>
       </c>
       <c r="F913" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13106</v>
+        <v>13108</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>33021580</v>
+        <v>33026608</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11134</v>
+        <v>11135</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44546213</v>
+        <v>44608881</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -55123,13 +55123,13 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>10720</v>
+        <v>10724</v>
       </c>
       <c r="D1073" t="n">
         <v>2267</v>
       </c>
       <c r="E1073" t="n">
-        <v>34164067</v>
+        <v>34183128</v>
       </c>
       <c r="F1073" t="inlineStr">
         <is>
@@ -61090,13 +61090,13 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>14379</v>
+        <v>14381</v>
       </c>
       <c r="D1190" t="n">
         <v>2709</v>
       </c>
       <c r="E1190" t="n">
-        <v>47812608</v>
+        <v>47829005</v>
       </c>
       <c r="F1190" t="inlineStr">
         <is>
@@ -61243,13 +61243,13 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>22509</v>
+        <v>22510</v>
       </c>
       <c r="D1193" t="n">
         <v>2821</v>
       </c>
       <c r="E1193" t="n">
-        <v>68117872</v>
+        <v>68129078</v>
       </c>
       <c r="F1193" t="inlineStr">
         <is>
@@ -63385,13 +63385,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>9283</v>
+        <v>9284</v>
       </c>
       <c r="D1235" t="n">
         <v>1003</v>
       </c>
       <c r="E1235" t="n">
-        <v>46614534</v>
+        <v>46624534</v>
       </c>
       <c r="F1235" t="inlineStr">
         <is>
@@ -82102,13 +82102,13 @@
         </is>
       </c>
       <c r="C1602" t="n">
-        <v>47413</v>
+        <v>47415</v>
       </c>
       <c r="D1602" t="n">
         <v>8772</v>
       </c>
       <c r="E1602" t="n">
-        <v>161891301</v>
+        <v>162031092</v>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
@@ -82663,13 +82663,13 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>25885</v>
+        <v>25886</v>
       </c>
       <c r="D1613" t="n">
         <v>4989</v>
       </c>
       <c r="E1613" t="n">
-        <v>50560278</v>
+        <v>50602322</v>
       </c>
       <c r="F1613" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -29725,13 +29725,13 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6469</v>
+        <v>6470</v>
       </c>
       <c r="D575" t="n">
         <v>1217</v>
       </c>
       <c r="E575" t="n">
-        <v>24914766</v>
+        <v>24916266</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -40129,13 +40129,13 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>8753</v>
+        <v>8756</v>
       </c>
       <c r="D779" t="n">
         <v>1951</v>
       </c>
       <c r="E779" t="n">
-        <v>16631139</v>
+        <v>16649445</v>
       </c>
       <c r="F779" t="inlineStr">
         <is>
@@ -41812,13 +41812,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="D812" t="n">
         <v>1348</v>
       </c>
       <c r="E812" t="n">
-        <v>9753555</v>
+        <v>9754548</v>
       </c>
       <c r="F812" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21670</v>
+        <v>21671</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86109966</v>
+        <v>86112329</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182372</v>
+        <v>182373</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649917706</v>
+        <v>1649923187</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>184007</v>
+        <v>184008</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554970412</v>
+        <v>555039984</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51356</v>
+        <v>51358</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>425352635</v>
+        <v>425393670</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115052</v>
+        <v>115053</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419394496</v>
+        <v>419396896</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48582</v>
+        <v>48583</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133264330</v>
+        <v>133266850</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40903</v>
+        <v>40905</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>166094747</v>
+        <v>166114189</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127521</v>
+        <v>127524</v>
       </c>
       <c r="D887" t="n">
         <v>13778</v>
       </c>
       <c r="E887" t="n">
-        <v>277543404</v>
+        <v>277565293</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32766</v>
+        <v>32767</v>
       </c>
       <c r="D888" t="n">
         <v>3652</v>
       </c>
       <c r="E888" t="n">
-        <v>189872409</v>
+        <v>189873909</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11761</v>
+        <v>11786</v>
       </c>
       <c r="D893" t="n">
         <v>1958</v>
       </c>
       <c r="E893" t="n">
-        <v>55504090</v>
+        <v>55741487</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21937</v>
+        <v>21938</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>40129490</v>
+        <v>40152988</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -82510,13 +82510,13 @@
         </is>
       </c>
       <c r="C1610" t="n">
-        <v>16139</v>
+        <v>16140</v>
       </c>
       <c r="D1610" t="n">
         <v>2431</v>
       </c>
       <c r="E1610" t="n">
-        <v>30032344</v>
+        <v>30035501</v>
       </c>
       <c r="F1610" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10083</v>
+        <v>10084</v>
       </c>
       <c r="D25" t="n">
         <v>1062</v>
       </c>
       <c r="E25" t="n">
-        <v>50564728</v>
+        <v>50566298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -28042,13 +28042,13 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D542" t="n">
         <v>398</v>
       </c>
       <c r="E542" t="n">
-        <v>1268298</v>
+        <v>1269798</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
@@ -42067,13 +42067,13 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>11514</v>
+        <v>11515</v>
       </c>
       <c r="D817" t="n">
         <v>3779</v>
       </c>
       <c r="E817" t="n">
-        <v>23674013</v>
+        <v>23794201</v>
       </c>
       <c r="F817" t="inlineStr">
         <is>
@@ -42169,13 +42169,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>42288</v>
+        <v>42289</v>
       </c>
       <c r="D819" t="n">
         <v>4810</v>
       </c>
       <c r="E819" t="n">
-        <v>95175201</v>
+        <v>95176414</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90281</v>
+        <v>90283</v>
       </c>
       <c r="D853" t="n">
         <v>10476</v>
       </c>
       <c r="E853" t="n">
-        <v>233053140</v>
+        <v>233263140</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182373</v>
+        <v>182377</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649923187</v>
+        <v>1649963187</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>184008</v>
+        <v>184009</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>555039984</v>
+        <v>555048484</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34676</v>
+        <v>34677</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70129436</v>
+        <v>70132036</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115053</v>
+        <v>115054</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>419396896</v>
+        <v>419403738</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127524</v>
+        <v>127528</v>
       </c>
       <c r="D887" t="n">
         <v>13778</v>
       </c>
       <c r="E887" t="n">
-        <v>277565293</v>
+        <v>277604705</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45739,13 +45739,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9199</v>
+        <v>9200</v>
       </c>
       <c r="D889" t="n">
         <v>1689</v>
       </c>
       <c r="E889" t="n">
-        <v>23376608</v>
+        <v>23386608</v>
       </c>
       <c r="F889" t="inlineStr">
         <is>
@@ -45841,13 +45841,13 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>3340</v>
+        <v>3342</v>
       </c>
       <c r="D891" t="n">
         <v>736</v>
       </c>
       <c r="E891" t="n">
-        <v>7327650</v>
+        <v>7347650</v>
       </c>
       <c r="F891" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11786</v>
+        <v>11835</v>
       </c>
       <c r="D893" t="n">
         <v>1958</v>
       </c>
       <c r="E893" t="n">
-        <v>55741487</v>
+        <v>56196819</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46147,13 +46147,13 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>11618</v>
+        <v>11619</v>
       </c>
       <c r="D897" t="n">
         <v>2465</v>
       </c>
       <c r="E897" t="n">
-        <v>25277195</v>
+        <v>25279545</v>
       </c>
       <c r="F897" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26108</v>
+        <v>26109</v>
       </c>
       <c r="D903" t="n">
         <v>5587</v>
       </c>
       <c r="E903" t="n">
-        <v>118583620</v>
+        <v>118647874</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -48289,13 +48289,13 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>22817</v>
+        <v>22818</v>
       </c>
       <c r="D939" t="n">
         <v>2673</v>
       </c>
       <c r="E939" t="n">
-        <v>157459124</v>
+        <v>157470156</v>
       </c>
       <c r="F939" t="inlineStr">
         <is>
@@ -50278,13 +50278,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6430</v>
+        <v>6433</v>
       </c>
       <c r="D978" t="n">
         <v>979</v>
       </c>
       <c r="E978" t="n">
-        <v>19946922</v>
+        <v>19996314</v>
       </c>
       <c r="F978" t="inlineStr">
         <is>
@@ -61243,13 +61243,13 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>22510</v>
+        <v>22511</v>
       </c>
       <c r="D1193" t="n">
         <v>2821</v>
       </c>
       <c r="E1193" t="n">
-        <v>68129078</v>
+        <v>68133563</v>
       </c>
       <c r="F1193" t="inlineStr">
         <is>
@@ -66139,13 +66139,13 @@
         </is>
       </c>
       <c r="C1289" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D1289" t="n">
         <v>132</v>
       </c>
       <c r="E1289" t="n">
-        <v>871670</v>
+        <v>873072</v>
       </c>
       <c r="F1289" t="inlineStr">
         <is>
@@ -83020,13 +83020,13 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>28433</v>
+        <v>28434</v>
       </c>
       <c r="D1620" t="n">
         <v>3812</v>
       </c>
       <c r="E1620" t="n">
-        <v>77149785</v>
+        <v>77159785</v>
       </c>
       <c r="F1620" t="inlineStr">
         <is>
@@ -83071,13 +83071,13 @@
         </is>
       </c>
       <c r="C1621" t="n">
-        <v>71821</v>
+        <v>71822</v>
       </c>
       <c r="D1621" t="n">
         <v>7476</v>
       </c>
       <c r="E1621" t="n">
-        <v>410118203</v>
+        <v>410128203</v>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
@@ -83275,13 +83275,13 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>41907</v>
+        <v>41912</v>
       </c>
       <c r="D1625" t="n">
         <v>8880</v>
       </c>
       <c r="E1625" t="n">
-        <v>114646802</v>
+        <v>114712080</v>
       </c>
       <c r="F1625" t="inlineStr">
         <is>
